--- a/paradigms/paradigms_excel/paradigms_trans.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding/Apertium/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding/Verbs_Paradigms/Public/paradigms/paradigms_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5816EBD-7DE3-8B46-B057-625296A83F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -9131,9 +9132,6 @@
     <t>nsdet͡saw, nsdaw</t>
   </si>
   <si>
-    <t>indicative past imperfective 1pl</t>
-  </si>
-  <si>
     <t>gə kaɣeink</t>
   </si>
   <si>
@@ -9224,9 +9222,6 @@
     <t>gə daneink</t>
   </si>
   <si>
-    <t>indicative past imperfective 1sg</t>
-  </si>
-  <si>
     <t>gə kaɣei</t>
   </si>
   <si>
@@ -9317,9 +9312,6 @@
     <t>gə danei</t>
   </si>
   <si>
-    <t>indicative past imperfective 2pl</t>
-  </si>
-  <si>
     <t>gə kaɣeik</t>
   </si>
   <si>
@@ -9410,9 +9402,6 @@
     <t>gə daneik</t>
   </si>
   <si>
-    <t>indicative past imperfective 2sg</t>
-  </si>
-  <si>
     <t>gə kaɣeir</t>
   </si>
   <si>
@@ -9503,9 +9492,6 @@
     <t>gə daneir</t>
   </si>
   <si>
-    <t>indicative past imperfective 3pl</t>
-  </si>
-  <si>
     <t>gə kaɣein</t>
   </si>
   <si>
@@ -9596,9 +9582,6 @@
     <t>gə danein</t>
   </si>
   <si>
-    <t>indicative past imperfective 3sg</t>
-  </si>
-  <si>
     <t>gə kaɣer</t>
   </si>
   <si>
@@ -10388,24 +10371,6 @@
     <t>t͡ʃnsdet͡saw, t͡ʃnsdaw</t>
   </si>
   <si>
-    <t>negative indicative past imperfective 1pl</t>
-  </si>
-  <si>
-    <t>negative indicative past imperfective 1sg</t>
-  </si>
-  <si>
-    <t>negative indicative past imperfective 2pl</t>
-  </si>
-  <si>
-    <t>negative indicative past imperfective 2sg</t>
-  </si>
-  <si>
-    <t>negative indicative past imperfective 3pl</t>
-  </si>
-  <si>
-    <t>negative indicative past imperfective 3sg</t>
-  </si>
-  <si>
     <t>negative indicative present 1pl</t>
   </si>
   <si>
@@ -10427,9 +10392,6 @@
     <t>negative infinitival</t>
   </si>
   <si>
-    <t>negative perfective participle</t>
-  </si>
-  <si>
     <t>t͡ʃardaheɣad͡z, t͡ʃardaheɣut͡sad͡z</t>
   </si>
   <si>
@@ -10451,9 +10413,6 @@
     <t>t͡ʃzposnoɣ, t͡ʃzposoɣ</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 1pl</t>
-  </si>
-  <si>
     <t>t͡ʃardaheɣeink, t͡ʃardaheɣvink</t>
   </si>
   <si>
@@ -10463,9 +10422,6 @@
     <t>t͡ʃertneink, t͡ʃertnvink</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 1sg</t>
-  </si>
-  <si>
     <t>t͡ʃardaheɣei, t͡ʃardaheɣvi</t>
   </si>
   <si>
@@ -10475,9 +10431,6 @@
     <t>t͡ʃertnei, t͡ʃertnvi</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 2pl</t>
-  </si>
-  <si>
     <t>t͡ʃardaheɣeik, t͡ʃardaheɣvik</t>
   </si>
   <si>
@@ -10487,9 +10440,6 @@
     <t>t͡ʃertneik, t͡ʃertnvik</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 2sg</t>
-  </si>
-  <si>
     <t>t͡ʃardaheɣeir, t͡ʃardaheɣvir</t>
   </si>
   <si>
@@ -10499,9 +10449,6 @@
     <t>t͡ʃertneir, t͡ʃertnvir</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 3pl</t>
-  </si>
-  <si>
     <t>t͡ʃardaheɣein, t͡ʃardaheɣvin</t>
   </si>
   <si>
@@ -10511,9 +10458,6 @@
     <t>t͡ʃertnein, t͡ʃertnvin</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 3sg</t>
-  </si>
-  <si>
     <t>t͡ʃardaheɣer, t͡ʃardaheɣur</t>
   </si>
   <si>
@@ -10616,9 +10560,6 @@
     <t>zposnoɣ, zposoɣ</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 1pl</t>
-  </si>
-  <si>
     <t>ardaheɣeink, ardaheɣvink</t>
   </si>
   <si>
@@ -10628,9 +10569,6 @@
     <t>ertneink, ertnvink</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 1sg</t>
-  </si>
-  <si>
     <t>ardaheɣei, ardaheɣvi</t>
   </si>
   <si>
@@ -10640,9 +10578,6 @@
     <t>ertnei, ertnvi</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 2pl</t>
-  </si>
-  <si>
     <t>ardaheɣeik, ardaheɣvik</t>
   </si>
   <si>
@@ -10652,9 +10587,6 @@
     <t>ertneik, ertnvik</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 3pl</t>
-  </si>
-  <si>
     <t>ardaheɣein, ardaheɣvin</t>
   </si>
   <si>
@@ -10664,9 +10596,6 @@
     <t>ertnein, ertnvin</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 3sg</t>
-  </si>
-  <si>
     <t>ardaheɣeir, ardaheɣvir</t>
   </si>
   <si>
@@ -10941,13 +10870,85 @@
   </si>
   <si>
     <t>Example stem</t>
+  </si>
+  <si>
+    <t>negative perfect participle</t>
+  </si>
+  <si>
+    <t>indicative past imperfect 1pl</t>
+  </si>
+  <si>
+    <t>indicative past imperfect 1sg</t>
+  </si>
+  <si>
+    <t>indicative past imperfect 2pl</t>
+  </si>
+  <si>
+    <t>indicative past imperfect 2sg</t>
+  </si>
+  <si>
+    <t>indicative past imperfect 3pl</t>
+  </si>
+  <si>
+    <t>indicative past imperfect 3sg</t>
+  </si>
+  <si>
+    <t>negative indicative past imperfect 1pl</t>
+  </si>
+  <si>
+    <t>negative indicative past imperfect 1sg</t>
+  </si>
+  <si>
+    <t>negative indicative past imperfect 2pl</t>
+  </si>
+  <si>
+    <t>negative indicative past imperfect 2sg</t>
+  </si>
+  <si>
+    <t>negative indicative past imperfect 3pl</t>
+  </si>
+  <si>
+    <t>negative indicative past imperfect 3sg</t>
+  </si>
+  <si>
+    <t>negative subjunctive past imperfect 1pl</t>
+  </si>
+  <si>
+    <t>negative subjunctive past imperfect 1sg</t>
+  </si>
+  <si>
+    <t>negative subjunctive past imperfect 2pl</t>
+  </si>
+  <si>
+    <t>negative subjunctive past imperfect 2sg</t>
+  </si>
+  <si>
+    <t>negative subjunctive past imperfect 3pl</t>
+  </si>
+  <si>
+    <t>negative subjunctive past imperfect 3sg</t>
+  </si>
+  <si>
+    <t>subjunctive past imperfect 1pl</t>
+  </si>
+  <si>
+    <t>subjunctive past imperfect 1sg</t>
+  </si>
+  <si>
+    <t>subjunctive past imperfect 2pl</t>
+  </si>
+  <si>
+    <t>subjunctive past imperfect 3pl</t>
+  </si>
+  <si>
+    <t>subjunctive past imperfect 3sg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10987,6 +10988,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -11254,400 +11258,400 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:BL84"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63">
       <c r="A1" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="U1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="V1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="W1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="X1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63">
+      <c r="A2" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3555</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3556</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3557</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3558</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3559</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3560</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3561</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3562</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3563</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3564</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3565</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3566</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3567</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3570</v>
+      </c>
+      <c r="S2" t="s">
         <v>3571</v>
       </c>
-      <c r="B1" t="s">
+      <c r="T2" t="s">
         <v>3572</v>
       </c>
-      <c r="C1" t="s">
-        <v>3572</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3572</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3572</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3572</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3572</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3572</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3572</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="U2" t="s">
         <v>3573</v>
       </c>
-      <c r="K1" t="s">
-        <v>3573</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3572</v>
-      </c>
-      <c r="M1" t="s">
-        <v>3572</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3573</v>
-      </c>
-      <c r="O1" t="s">
-        <v>3573</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="V2" t="s">
         <v>3574</v>
       </c>
-      <c r="Q1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="W2" t="s">
         <v>3575</v>
       </c>
-      <c r="S1" t="s">
-        <v>3575</v>
-      </c>
-      <c r="T1" t="s">
-        <v>3572</v>
-      </c>
-      <c r="U1" t="s">
-        <v>3572</v>
-      </c>
-      <c r="V1" t="s">
-        <v>3573</v>
-      </c>
-      <c r="W1" t="s">
-        <v>3573</v>
-      </c>
-      <c r="X1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="X2" t="s">
         <v>3576</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="Y2" t="s">
         <v>3576</v>
       </c>
-      <c r="AD1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>3575</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>3575</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>3575</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>3575</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>3575</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>3575</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>3575</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>3576</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>3576</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>3576</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>3576</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>3576</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>3576</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>3576</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>3576</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>3576</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>3576</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>3576</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>3576</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>3576</v>
+      <c r="Z2" t="s">
+        <v>3577</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>3577</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3578</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3578</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>3579</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>3580</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>3581</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>3581</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>3582</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>3583</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>3584</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>3585</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>3586</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>3587</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>3588</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>3590</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>3591</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>3592</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>3593</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>3594</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>3595</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>3596</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>3597</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>3598</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>3599</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>3600</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>3601</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>3602</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>3603</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>3604</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>3605</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>3606</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>3607</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>3608</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>3609</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>3610</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>3611</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3577</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3578</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3579</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3580</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3581</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3582</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3583</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3584</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3585</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3586</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3587</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3588</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3589</v>
-      </c>
-      <c r="N2" t="s">
-        <v>3590</v>
-      </c>
-      <c r="O2" t="s">
-        <v>3591</v>
-      </c>
-      <c r="P2" t="s">
-        <v>3592</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>3593</v>
-      </c>
-      <c r="R2" t="s">
-        <v>3594</v>
-      </c>
-      <c r="S2" t="s">
-        <v>3595</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3596</v>
-      </c>
-      <c r="U2" t="s">
-        <v>3597</v>
-      </c>
-      <c r="V2" t="s">
-        <v>3598</v>
-      </c>
-      <c r="W2" t="s">
-        <v>3599</v>
-      </c>
-      <c r="X2" t="s">
-        <v>3600</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>3600</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>3601</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>3601</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>3602</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>3602</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>3603</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>3604</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>3605</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>3605</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>3606</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>3607</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>3608</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>3609</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>3610</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>3611</v>
-      </c>
-      <c r="AN2" t="s">
+    <row r="3" spans="1:63">
+      <c r="A3" t="s">
         <v>3612</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>3613</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>3614</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>3615</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>3616</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>3617</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>3618</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>3619</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>3620</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>3621</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>3622</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>3623</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>3624</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>3625</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>3626</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>3627</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>3628</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>3629</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>3630</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>3631</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>3632</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>3633</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>3634</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>3635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3636</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -11836,9 +11840,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63">
       <c r="A4" t="s">
-        <v>3637</v>
+        <v>3613</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -12027,7 +12031,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63">
       <c r="A6" t="s">
         <v>2967</v>
       </c>
@@ -12194,7 +12198,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63">
       <c r="A7" t="s">
         <v>2970</v>
       </c>
@@ -12370,7 +12374,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63">
       <c r="A8" t="s">
         <v>2971</v>
       </c>
@@ -12543,7 +12547,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63">
       <c r="A9" t="s">
         <v>2976</v>
       </c>
@@ -12716,7 +12720,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63">
       <c r="A10" t="s">
         <v>2994</v>
       </c>
@@ -12889,7 +12893,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63">
       <c r="A11" t="s">
         <v>3001</v>
       </c>
@@ -13062,7 +13066,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63">
       <c r="A12" t="s">
         <v>3008</v>
       </c>
@@ -13235,7 +13239,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63">
       <c r="A13" t="s">
         <v>3015</v>
       </c>
@@ -13408,7 +13412,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63">
       <c r="A14" t="s">
         <v>3022</v>
       </c>
@@ -13581,7 +13585,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63">
       <c r="A15" t="s">
         <v>3029</v>
       </c>
@@ -13754,57 +13758,57 @@
         <v>570</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63">
       <c r="A16" t="s">
-        <v>3034</v>
+        <v>3615</v>
       </c>
       <c r="B16" t="s">
         <v>571</v>
       </c>
       <c r="C16" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="D16" t="s">
         <v>573</v>
       </c>
       <c r="E16" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="F16" t="s">
         <v>575</v>
       </c>
       <c r="G16" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="H16" t="s">
         <v>577</v>
       </c>
       <c r="I16" t="s">
+        <v>3037</v>
+      </c>
+      <c r="J16" t="s">
         <v>3038</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>3039</v>
-      </c>
-      <c r="K16" t="s">
-        <v>3040</v>
       </c>
       <c r="L16" t="s">
         <v>579</v>
       </c>
       <c r="M16" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="N16" t="s">
         <v>581</v>
       </c>
       <c r="O16" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="P16" t="s">
         <v>583</v>
       </c>
       <c r="Q16" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="R16" t="s">
         <v>585</v>
@@ -13813,13 +13817,13 @@
         <v>586</v>
       </c>
       <c r="U16" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="V16" t="s">
         <v>588</v>
       </c>
       <c r="W16" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="X16" t="s">
         <v>590</v>
@@ -13828,10 +13832,10 @@
         <v>591</v>
       </c>
       <c r="Z16" t="s">
+        <v>3045</v>
+      </c>
+      <c r="AA16" t="s">
         <v>3046</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>3047</v>
       </c>
       <c r="AB16" t="s">
         <v>594</v>
@@ -13840,10 +13844,10 @@
         <v>595</v>
       </c>
       <c r="AD16" t="s">
+        <v>3047</v>
+      </c>
+      <c r="AE16" t="s">
         <v>3048</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>3049</v>
       </c>
       <c r="AF16" t="s">
         <v>598</v>
@@ -13867,43 +13871,43 @@
         <v>604</v>
       </c>
       <c r="AN16" t="s">
+        <v>3049</v>
+      </c>
+      <c r="AO16" t="s">
         <v>3050</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AP16" t="s">
         <v>3051</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>3052</v>
       </c>
       <c r="AQ16" t="s">
         <v>608</v>
       </c>
       <c r="AR16" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="AS16" t="s">
         <v>610</v>
       </c>
       <c r="AT16" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="AU16" t="s">
         <v>612</v>
       </c>
       <c r="AV16" t="s">
+        <v>3054</v>
+      </c>
+      <c r="AW16" t="s">
         <v>3055</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>3056</v>
       </c>
       <c r="AX16" t="s">
         <v>615</v>
       </c>
       <c r="AY16" t="s">
+        <v>3056</v>
+      </c>
+      <c r="AZ16" t="s">
         <v>3057</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>3058</v>
       </c>
       <c r="BA16" t="s">
         <v>618</v>
@@ -13915,81 +13919,81 @@
         <v>620</v>
       </c>
       <c r="BD16" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="BE16" t="s">
         <v>622</v>
       </c>
       <c r="BF16" t="s">
+        <v>3059</v>
+      </c>
+      <c r="BG16" t="s">
         <v>3060</v>
       </c>
-      <c r="BG16" t="s">
+      <c r="BH16" t="s">
         <v>3061</v>
       </c>
-      <c r="BH16" t="s">
+      <c r="BI16" t="s">
         <v>3062</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>3063</v>
       </c>
       <c r="BJ16" t="s">
         <v>627</v>
       </c>
       <c r="BK16" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:63">
       <c r="A17" t="s">
-        <v>3065</v>
+        <v>3616</v>
       </c>
       <c r="B17" t="s">
         <v>629</v>
       </c>
       <c r="C17" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="D17" t="s">
         <v>631</v>
       </c>
       <c r="E17" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="F17" t="s">
         <v>633</v>
       </c>
       <c r="G17" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="H17" t="s">
         <v>635</v>
       </c>
       <c r="I17" t="s">
+        <v>3067</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3068</v>
+      </c>
+      <c r="K17" t="s">
         <v>3069</v>
-      </c>
-      <c r="J17" t="s">
-        <v>3070</v>
-      </c>
-      <c r="K17" t="s">
-        <v>3071</v>
       </c>
       <c r="L17" t="s">
         <v>637</v>
       </c>
       <c r="M17" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="N17" t="s">
         <v>639</v>
       </c>
       <c r="O17" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="P17" t="s">
         <v>641</v>
       </c>
       <c r="Q17" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="R17" t="s">
         <v>643</v>
@@ -13998,13 +14002,13 @@
         <v>644</v>
       </c>
       <c r="U17" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="V17" t="s">
         <v>646</v>
       </c>
       <c r="W17" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="X17" t="s">
         <v>648</v>
@@ -14013,10 +14017,10 @@
         <v>649</v>
       </c>
       <c r="Z17" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="AA17" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="AB17" t="s">
         <v>652</v>
@@ -14025,10 +14029,10 @@
         <v>653</v>
       </c>
       <c r="AD17" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="AE17" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="AF17" t="s">
         <v>656</v>
@@ -14052,43 +14056,43 @@
         <v>662</v>
       </c>
       <c r="AN17" t="s">
+        <v>3079</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>3080</v>
+      </c>
+      <c r="AP17" t="s">
         <v>3081</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>3082</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>3083</v>
       </c>
       <c r="AQ17" t="s">
         <v>666</v>
       </c>
       <c r="AR17" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="AS17" t="s">
         <v>668</v>
       </c>
       <c r="AT17" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="AU17" t="s">
         <v>670</v>
       </c>
       <c r="AV17" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="AW17" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
       <c r="AX17" t="s">
         <v>673</v>
       </c>
       <c r="AY17" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="AZ17" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="BA17" t="s">
         <v>676</v>
@@ -14100,81 +14104,81 @@
         <v>678</v>
       </c>
       <c r="BD17" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="BE17" t="s">
         <v>680</v>
       </c>
       <c r="BF17" t="s">
+        <v>3089</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>3090</v>
+      </c>
+      <c r="BH17" t="s">
         <v>3091</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="BI17" t="s">
         <v>3092</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>3093</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>3094</v>
       </c>
       <c r="BJ17" t="s">
         <v>685</v>
       </c>
       <c r="BK17" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:63">
       <c r="A18" t="s">
-        <v>3096</v>
+        <v>3617</v>
       </c>
       <c r="B18" t="s">
         <v>687</v>
       </c>
       <c r="C18" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D18" t="s">
         <v>689</v>
       </c>
       <c r="E18" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="F18" t="s">
         <v>691</v>
       </c>
       <c r="G18" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="H18" t="s">
         <v>693</v>
       </c>
       <c r="I18" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="J18" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="K18" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="L18" t="s">
         <v>695</v>
       </c>
       <c r="M18" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="N18" t="s">
         <v>697</v>
       </c>
       <c r="O18" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="P18" t="s">
         <v>699</v>
       </c>
       <c r="Q18" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="R18" t="s">
         <v>701</v>
@@ -14183,13 +14187,13 @@
         <v>702</v>
       </c>
       <c r="U18" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="V18" t="s">
         <v>704</v>
       </c>
       <c r="W18" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="X18" t="s">
         <v>706</v>
@@ -14198,10 +14202,10 @@
         <v>707</v>
       </c>
       <c r="Z18" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="AA18" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="AB18" t="s">
         <v>710</v>
@@ -14210,10 +14214,10 @@
         <v>711</v>
       </c>
       <c r="AD18" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="AE18" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="AF18" t="s">
         <v>714</v>
@@ -14237,43 +14241,43 @@
         <v>720</v>
       </c>
       <c r="AN18" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="AO18" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="AP18" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="AQ18" t="s">
         <v>724</v>
       </c>
       <c r="AR18" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="AS18" t="s">
         <v>726</v>
       </c>
       <c r="AT18" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="AU18" t="s">
         <v>728</v>
       </c>
       <c r="AV18" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="AW18" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="AX18" t="s">
         <v>731</v>
       </c>
       <c r="AY18" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="AZ18" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="BA18" t="s">
         <v>734</v>
@@ -14285,81 +14289,81 @@
         <v>736</v>
       </c>
       <c r="BD18" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="BE18" t="s">
         <v>738</v>
       </c>
       <c r="BF18" t="s">
+        <v>3119</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>3120</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>3121</v>
+      </c>
+      <c r="BI18" t="s">
         <v>3122</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>3123</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>3124</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>3125</v>
       </c>
       <c r="BJ18" t="s">
         <v>743</v>
       </c>
       <c r="BK18" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:63">
       <c r="A19" t="s">
-        <v>3127</v>
+        <v>3618</v>
       </c>
       <c r="B19" t="s">
         <v>745</v>
       </c>
       <c r="C19" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="D19" t="s">
         <v>747</v>
       </c>
       <c r="E19" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="F19" t="s">
         <v>749</v>
       </c>
       <c r="G19" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="H19" t="s">
         <v>751</v>
       </c>
       <c r="I19" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
       <c r="J19" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="K19" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
       <c r="L19" t="s">
         <v>753</v>
       </c>
       <c r="M19" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
       <c r="N19" t="s">
         <v>755</v>
       </c>
       <c r="O19" t="s">
-        <v>3135</v>
+        <v>3131</v>
       </c>
       <c r="P19" t="s">
         <v>757</v>
       </c>
       <c r="Q19" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="R19" t="s">
         <v>759</v>
@@ -14368,13 +14372,13 @@
         <v>760</v>
       </c>
       <c r="U19" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
       <c r="V19" t="s">
         <v>762</v>
       </c>
       <c r="W19" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
       <c r="X19" t="s">
         <v>764</v>
@@ -14383,10 +14387,10 @@
         <v>765</v>
       </c>
       <c r="Z19" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="AA19" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="AB19" t="s">
         <v>768</v>
@@ -14395,10 +14399,10 @@
         <v>769</v>
       </c>
       <c r="AD19" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="AE19" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="AF19" t="s">
         <v>772</v>
@@ -14422,43 +14426,43 @@
         <v>778</v>
       </c>
       <c r="AN19" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="AO19" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="AP19" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="AQ19" t="s">
         <v>782</v>
       </c>
       <c r="AR19" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="AS19" t="s">
         <v>784</v>
       </c>
       <c r="AT19" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="AU19" t="s">
         <v>786</v>
       </c>
       <c r="AV19" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="AW19" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="AX19" t="s">
         <v>789</v>
       </c>
       <c r="AY19" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="AZ19" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="BA19" t="s">
         <v>792</v>
@@ -14470,81 +14474,81 @@
         <v>794</v>
       </c>
       <c r="BD19" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="BE19" t="s">
         <v>796</v>
       </c>
       <c r="BF19" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="BG19" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="BH19" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="BI19" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="BJ19" t="s">
         <v>801</v>
       </c>
       <c r="BK19" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:63">
       <c r="A20" t="s">
-        <v>3158</v>
+        <v>3619</v>
       </c>
       <c r="B20" t="s">
         <v>803</v>
       </c>
       <c r="C20" t="s">
-        <v>3159</v>
+        <v>3154</v>
       </c>
       <c r="D20" t="s">
         <v>805</v>
       </c>
       <c r="E20" t="s">
-        <v>3160</v>
+        <v>3155</v>
       </c>
       <c r="F20" t="s">
         <v>807</v>
       </c>
       <c r="G20" t="s">
-        <v>3161</v>
+        <v>3156</v>
       </c>
       <c r="H20" t="s">
         <v>809</v>
       </c>
       <c r="I20" t="s">
-        <v>3162</v>
+        <v>3157</v>
       </c>
       <c r="J20" t="s">
-        <v>3163</v>
+        <v>3158</v>
       </c>
       <c r="K20" t="s">
-        <v>3164</v>
+        <v>3159</v>
       </c>
       <c r="L20" t="s">
         <v>811</v>
       </c>
       <c r="M20" t="s">
-        <v>3165</v>
+        <v>3160</v>
       </c>
       <c r="N20" t="s">
         <v>813</v>
       </c>
       <c r="O20" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
       <c r="P20" t="s">
         <v>815</v>
       </c>
       <c r="Q20" t="s">
-        <v>3167</v>
+        <v>3162</v>
       </c>
       <c r="R20" t="s">
         <v>817</v>
@@ -14553,13 +14557,13 @@
         <v>818</v>
       </c>
       <c r="U20" t="s">
-        <v>3168</v>
+        <v>3163</v>
       </c>
       <c r="V20" t="s">
         <v>820</v>
       </c>
       <c r="W20" t="s">
-        <v>3169</v>
+        <v>3164</v>
       </c>
       <c r="X20" t="s">
         <v>822</v>
@@ -14568,10 +14572,10 @@
         <v>823</v>
       </c>
       <c r="Z20" t="s">
-        <v>3170</v>
+        <v>3165</v>
       </c>
       <c r="AA20" t="s">
-        <v>3171</v>
+        <v>3166</v>
       </c>
       <c r="AB20" t="s">
         <v>826</v>
@@ -14580,10 +14584,10 @@
         <v>827</v>
       </c>
       <c r="AD20" t="s">
-        <v>3172</v>
+        <v>3167</v>
       </c>
       <c r="AE20" t="s">
-        <v>3173</v>
+        <v>3168</v>
       </c>
       <c r="AF20" t="s">
         <v>830</v>
@@ -14607,43 +14611,43 @@
         <v>836</v>
       </c>
       <c r="AN20" t="s">
-        <v>3174</v>
+        <v>3169</v>
       </c>
       <c r="AO20" t="s">
-        <v>3175</v>
+        <v>3170</v>
       </c>
       <c r="AP20" t="s">
-        <v>3176</v>
+        <v>3171</v>
       </c>
       <c r="AQ20" t="s">
         <v>840</v>
       </c>
       <c r="AR20" t="s">
-        <v>3177</v>
+        <v>3172</v>
       </c>
       <c r="AS20" t="s">
         <v>842</v>
       </c>
       <c r="AT20" t="s">
-        <v>3178</v>
+        <v>3173</v>
       </c>
       <c r="AU20" t="s">
         <v>844</v>
       </c>
       <c r="AV20" t="s">
-        <v>3179</v>
+        <v>3174</v>
       </c>
       <c r="AW20" t="s">
-        <v>3180</v>
+        <v>3175</v>
       </c>
       <c r="AX20" t="s">
         <v>847</v>
       </c>
       <c r="AY20" t="s">
-        <v>3181</v>
+        <v>3176</v>
       </c>
       <c r="AZ20" t="s">
-        <v>3182</v>
+        <v>3177</v>
       </c>
       <c r="BA20" t="s">
         <v>850</v>
@@ -14655,81 +14659,81 @@
         <v>852</v>
       </c>
       <c r="BD20" t="s">
-        <v>3183</v>
+        <v>3178</v>
       </c>
       <c r="BE20" t="s">
         <v>854</v>
       </c>
       <c r="BF20" t="s">
-        <v>3184</v>
+        <v>3179</v>
       </c>
       <c r="BG20" t="s">
-        <v>3185</v>
+        <v>3180</v>
       </c>
       <c r="BH20" t="s">
-        <v>3186</v>
+        <v>3181</v>
       </c>
       <c r="BI20" t="s">
-        <v>3187</v>
+        <v>3182</v>
       </c>
       <c r="BJ20" t="s">
         <v>859</v>
       </c>
       <c r="BK20" t="s">
-        <v>3188</v>
+        <v>3183</v>
       </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:63">
       <c r="A21" t="s">
-        <v>3189</v>
+        <v>3620</v>
       </c>
       <c r="B21" t="s">
         <v>861</v>
       </c>
       <c r="C21" t="s">
-        <v>3190</v>
+        <v>3184</v>
       </c>
       <c r="D21" t="s">
         <v>862</v>
       </c>
       <c r="E21" t="s">
-        <v>3191</v>
+        <v>3185</v>
       </c>
       <c r="F21" t="s">
         <v>863</v>
       </c>
       <c r="G21" t="s">
-        <v>3192</v>
+        <v>3186</v>
       </c>
       <c r="H21" t="s">
         <v>864</v>
       </c>
       <c r="I21" t="s">
-        <v>3193</v>
+        <v>3187</v>
       </c>
       <c r="J21" t="s">
-        <v>3194</v>
+        <v>3188</v>
       </c>
       <c r="K21" t="s">
-        <v>3195</v>
+        <v>3189</v>
       </c>
       <c r="L21" t="s">
         <v>867</v>
       </c>
       <c r="M21" t="s">
-        <v>3196</v>
+        <v>3190</v>
       </c>
       <c r="N21" t="s">
         <v>869</v>
       </c>
       <c r="O21" t="s">
-        <v>3197</v>
+        <v>3191</v>
       </c>
       <c r="P21" t="s">
         <v>871</v>
       </c>
       <c r="Q21" t="s">
-        <v>3198</v>
+        <v>3192</v>
       </c>
       <c r="R21" t="s">
         <v>873</v>
@@ -14738,13 +14742,13 @@
         <v>874</v>
       </c>
       <c r="U21" t="s">
-        <v>3199</v>
+        <v>3193</v>
       </c>
       <c r="V21" t="s">
         <v>876</v>
       </c>
       <c r="W21" t="s">
-        <v>3200</v>
+        <v>3194</v>
       </c>
       <c r="X21" t="s">
         <v>878</v>
@@ -14753,10 +14757,10 @@
         <v>879</v>
       </c>
       <c r="Z21" t="s">
-        <v>3201</v>
+        <v>3195</v>
       </c>
       <c r="AA21" t="s">
-        <v>3202</v>
+        <v>3196</v>
       </c>
       <c r="AB21" t="s">
         <v>882</v>
@@ -14765,10 +14769,10 @@
         <v>883</v>
       </c>
       <c r="AD21" t="s">
-        <v>3203</v>
+        <v>3197</v>
       </c>
       <c r="AE21" t="s">
-        <v>3204</v>
+        <v>3198</v>
       </c>
       <c r="AF21" t="s">
         <v>885</v>
@@ -14792,43 +14796,43 @@
         <v>891</v>
       </c>
       <c r="AN21" t="s">
-        <v>3205</v>
+        <v>3199</v>
       </c>
       <c r="AO21" t="s">
-        <v>3206</v>
+        <v>3200</v>
       </c>
       <c r="AP21" t="s">
-        <v>3207</v>
+        <v>3201</v>
       </c>
       <c r="AQ21" t="s">
         <v>894</v>
       </c>
       <c r="AR21" t="s">
-        <v>3208</v>
+        <v>3202</v>
       </c>
       <c r="AS21" t="s">
         <v>895</v>
       </c>
       <c r="AT21" t="s">
-        <v>3209</v>
+        <v>3203</v>
       </c>
       <c r="AU21" t="s">
         <v>897</v>
       </c>
       <c r="AV21" t="s">
-        <v>3210</v>
+        <v>3204</v>
       </c>
       <c r="AW21" t="s">
-        <v>3211</v>
+        <v>3205</v>
       </c>
       <c r="AX21" t="s">
         <v>900</v>
       </c>
       <c r="AY21" t="s">
-        <v>3212</v>
+        <v>3206</v>
       </c>
       <c r="AZ21" t="s">
-        <v>3213</v>
+        <v>3207</v>
       </c>
       <c r="BA21" t="s">
         <v>902</v>
@@ -14840,99 +14844,99 @@
         <v>904</v>
       </c>
       <c r="BD21" t="s">
-        <v>3214</v>
+        <v>3208</v>
       </c>
       <c r="BE21" t="s">
         <v>906</v>
       </c>
       <c r="BF21" t="s">
-        <v>3215</v>
+        <v>3209</v>
       </c>
       <c r="BG21" t="s">
-        <v>3216</v>
+        <v>3210</v>
       </c>
       <c r="BH21" t="s">
-        <v>3217</v>
+        <v>3211</v>
       </c>
       <c r="BI21" t="s">
-        <v>3218</v>
+        <v>3212</v>
       </c>
       <c r="BJ21" t="s">
         <v>910</v>
       </c>
       <c r="BK21" t="s">
-        <v>3219</v>
+        <v>3213</v>
       </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:63">
       <c r="A22" t="s">
-        <v>3220</v>
+        <v>3214</v>
       </c>
       <c r="B22" t="s">
         <v>912</v>
       </c>
       <c r="C22" t="s">
-        <v>3221</v>
+        <v>3215</v>
       </c>
       <c r="D22" t="s">
         <v>914</v>
       </c>
       <c r="E22" t="s">
-        <v>3222</v>
+        <v>3216</v>
       </c>
       <c r="F22" t="s">
         <v>916</v>
       </c>
       <c r="G22" t="s">
-        <v>3223</v>
+        <v>3217</v>
       </c>
       <c r="H22" t="s">
         <v>918</v>
       </c>
       <c r="I22" t="s">
-        <v>3224</v>
+        <v>3218</v>
       </c>
       <c r="J22" t="s">
-        <v>3225</v>
+        <v>3219</v>
       </c>
       <c r="K22" t="s">
-        <v>3226</v>
+        <v>3220</v>
       </c>
       <c r="L22" t="s">
         <v>920</v>
       </c>
       <c r="M22" t="s">
-        <v>3227</v>
+        <v>3221</v>
       </c>
       <c r="N22" t="s">
         <v>922</v>
       </c>
       <c r="O22" t="s">
-        <v>3228</v>
+        <v>3222</v>
       </c>
       <c r="P22" t="s">
         <v>924</v>
       </c>
       <c r="Q22" t="s">
-        <v>3229</v>
+        <v>3223</v>
       </c>
       <c r="R22" t="s">
         <v>926</v>
       </c>
       <c r="S22" t="s">
-        <v>3230</v>
+        <v>3224</v>
       </c>
       <c r="T22" t="s">
         <v>927</v>
       </c>
       <c r="U22" t="s">
-        <v>3231</v>
+        <v>3225</v>
       </c>
       <c r="V22" t="s">
         <v>929</v>
       </c>
       <c r="W22" t="s">
-        <v>3232</v>
+        <v>3226</v>
       </c>
       <c r="X22" t="s">
         <v>931</v>
@@ -14941,10 +14945,10 @@
         <v>932</v>
       </c>
       <c r="Z22" t="s">
-        <v>3233</v>
+        <v>3227</v>
       </c>
       <c r="AA22" t="s">
-        <v>3234</v>
+        <v>3228</v>
       </c>
       <c r="AB22" t="s">
         <v>935</v>
@@ -14953,10 +14957,10 @@
         <v>936</v>
       </c>
       <c r="AD22" t="s">
-        <v>3235</v>
+        <v>3229</v>
       </c>
       <c r="AE22" t="s">
-        <v>3236</v>
+        <v>3230</v>
       </c>
       <c r="AF22" t="s">
         <v>939</v>
@@ -14980,43 +14984,43 @@
         <v>945</v>
       </c>
       <c r="AN22" t="s">
-        <v>3237</v>
+        <v>3231</v>
       </c>
       <c r="AO22" t="s">
-        <v>3238</v>
+        <v>3232</v>
       </c>
       <c r="AP22" t="s">
-        <v>3239</v>
+        <v>3233</v>
       </c>
       <c r="AQ22" t="s">
         <v>949</v>
       </c>
       <c r="AR22" t="s">
-        <v>3240</v>
+        <v>3234</v>
       </c>
       <c r="AS22" t="s">
         <v>951</v>
       </c>
       <c r="AT22" t="s">
-        <v>3241</v>
+        <v>3235</v>
       </c>
       <c r="AU22" t="s">
         <v>953</v>
       </c>
       <c r="AV22" t="s">
-        <v>3242</v>
+        <v>3236</v>
       </c>
       <c r="AW22" t="s">
-        <v>3243</v>
+        <v>3237</v>
       </c>
       <c r="AX22" t="s">
         <v>956</v>
       </c>
       <c r="AY22" t="s">
-        <v>3244</v>
+        <v>3238</v>
       </c>
       <c r="AZ22" t="s">
-        <v>3245</v>
+        <v>3239</v>
       </c>
       <c r="BA22" t="s">
         <v>959</v>
@@ -15028,99 +15032,99 @@
         <v>961</v>
       </c>
       <c r="BD22" t="s">
-        <v>3246</v>
+        <v>3240</v>
       </c>
       <c r="BE22" t="s">
         <v>963</v>
       </c>
       <c r="BF22" t="s">
-        <v>3247</v>
+        <v>3241</v>
       </c>
       <c r="BG22" t="s">
-        <v>3248</v>
+        <v>3242</v>
       </c>
       <c r="BH22" t="s">
-        <v>3249</v>
+        <v>3243</v>
       </c>
       <c r="BI22" t="s">
-        <v>3250</v>
+        <v>3244</v>
       </c>
       <c r="BJ22" t="s">
         <v>968</v>
       </c>
       <c r="BK22" t="s">
-        <v>3251</v>
+        <v>3245</v>
       </c>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:63">
       <c r="A23" t="s">
-        <v>3252</v>
+        <v>3246</v>
       </c>
       <c r="B23" t="s">
         <v>970</v>
       </c>
       <c r="C23" t="s">
-        <v>3253</v>
+        <v>3247</v>
       </c>
       <c r="D23" t="s">
         <v>972</v>
       </c>
       <c r="E23" t="s">
-        <v>3254</v>
+        <v>3248</v>
       </c>
       <c r="F23" t="s">
         <v>974</v>
       </c>
       <c r="G23" t="s">
-        <v>3255</v>
+        <v>3249</v>
       </c>
       <c r="H23" t="s">
         <v>976</v>
       </c>
       <c r="I23" t="s">
-        <v>3256</v>
+        <v>3250</v>
       </c>
       <c r="J23" t="s">
-        <v>3257</v>
+        <v>3251</v>
       </c>
       <c r="K23" t="s">
-        <v>3258</v>
+        <v>3252</v>
       </c>
       <c r="L23" t="s">
         <v>978</v>
       </c>
       <c r="M23" t="s">
-        <v>3259</v>
+        <v>3253</v>
       </c>
       <c r="N23" t="s">
         <v>980</v>
       </c>
       <c r="O23" t="s">
-        <v>3260</v>
+        <v>3254</v>
       </c>
       <c r="P23" t="s">
         <v>982</v>
       </c>
       <c r="Q23" t="s">
-        <v>3261</v>
+        <v>3255</v>
       </c>
       <c r="R23" t="s">
         <v>984</v>
       </c>
       <c r="S23" t="s">
-        <v>3262</v>
+        <v>3256</v>
       </c>
       <c r="T23" t="s">
         <v>985</v>
       </c>
       <c r="U23" t="s">
-        <v>3263</v>
+        <v>3257</v>
       </c>
       <c r="V23" t="s">
         <v>987</v>
       </c>
       <c r="W23" t="s">
-        <v>3264</v>
+        <v>3258</v>
       </c>
       <c r="X23" t="s">
         <v>989</v>
@@ -15129,10 +15133,10 @@
         <v>990</v>
       </c>
       <c r="Z23" t="s">
-        <v>3265</v>
+        <v>3259</v>
       </c>
       <c r="AA23" t="s">
-        <v>3266</v>
+        <v>3260</v>
       </c>
       <c r="AB23" t="s">
         <v>993</v>
@@ -15141,10 +15145,10 @@
         <v>994</v>
       </c>
       <c r="AD23" t="s">
-        <v>3267</v>
+        <v>3261</v>
       </c>
       <c r="AE23" t="s">
-        <v>3268</v>
+        <v>3262</v>
       </c>
       <c r="AF23" t="s">
         <v>30</v>
@@ -15168,43 +15172,43 @@
         <v>999</v>
       </c>
       <c r="AN23" t="s">
-        <v>3269</v>
+        <v>3263</v>
       </c>
       <c r="AO23" t="s">
-        <v>3270</v>
+        <v>3264</v>
       </c>
       <c r="AP23" t="s">
-        <v>3271</v>
+        <v>3265</v>
       </c>
       <c r="AQ23" t="s">
         <v>1003</v>
       </c>
       <c r="AR23" t="s">
-        <v>3272</v>
+        <v>3266</v>
       </c>
       <c r="AS23" t="s">
         <v>1005</v>
       </c>
       <c r="AT23" t="s">
-        <v>3273</v>
+        <v>3267</v>
       </c>
       <c r="AU23" t="s">
         <v>1007</v>
       </c>
       <c r="AV23" t="s">
-        <v>3274</v>
+        <v>3268</v>
       </c>
       <c r="AW23" t="s">
-        <v>3275</v>
+        <v>3269</v>
       </c>
       <c r="AX23" t="s">
         <v>1010</v>
       </c>
       <c r="AY23" t="s">
-        <v>3276</v>
+        <v>3270</v>
       </c>
       <c r="AZ23" t="s">
-        <v>3277</v>
+        <v>3271</v>
       </c>
       <c r="BA23" t="s">
         <v>1013</v>
@@ -15216,99 +15220,99 @@
         <v>1015</v>
       </c>
       <c r="BD23" t="s">
-        <v>3278</v>
+        <v>3272</v>
       </c>
       <c r="BE23" t="s">
         <v>1017</v>
       </c>
       <c r="BF23" t="s">
-        <v>3279</v>
+        <v>3273</v>
       </c>
       <c r="BG23" t="s">
-        <v>3280</v>
+        <v>3274</v>
       </c>
       <c r="BH23" t="s">
-        <v>3281</v>
+        <v>3275</v>
       </c>
       <c r="BI23" t="s">
-        <v>3282</v>
+        <v>3276</v>
       </c>
       <c r="BJ23" t="s">
         <v>1022</v>
       </c>
       <c r="BK23" t="s">
-        <v>3283</v>
+        <v>3277</v>
       </c>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:63">
       <c r="A24" t="s">
-        <v>3284</v>
+        <v>3278</v>
       </c>
       <c r="B24" t="s">
         <v>1024</v>
       </c>
       <c r="C24" t="s">
-        <v>3285</v>
+        <v>3279</v>
       </c>
       <c r="D24" t="s">
         <v>1026</v>
       </c>
       <c r="E24" t="s">
-        <v>3286</v>
+        <v>3280</v>
       </c>
       <c r="F24" t="s">
         <v>1028</v>
       </c>
       <c r="G24" t="s">
-        <v>3287</v>
+        <v>3281</v>
       </c>
       <c r="H24" t="s">
         <v>1030</v>
       </c>
       <c r="I24" t="s">
-        <v>3288</v>
+        <v>3282</v>
       </c>
       <c r="J24" t="s">
-        <v>3289</v>
+        <v>3283</v>
       </c>
       <c r="K24" t="s">
-        <v>3290</v>
+        <v>3284</v>
       </c>
       <c r="L24" t="s">
         <v>1033</v>
       </c>
       <c r="M24" t="s">
-        <v>3291</v>
+        <v>3285</v>
       </c>
       <c r="N24" t="s">
         <v>1035</v>
       </c>
       <c r="O24" t="s">
-        <v>3292</v>
+        <v>3286</v>
       </c>
       <c r="P24" t="s">
         <v>1037</v>
       </c>
       <c r="Q24" t="s">
-        <v>3293</v>
+        <v>3287</v>
       </c>
       <c r="R24" t="s">
         <v>1039</v>
       </c>
       <c r="S24" t="s">
-        <v>3294</v>
+        <v>3288</v>
       </c>
       <c r="T24" t="s">
         <v>1040</v>
       </c>
       <c r="U24" t="s">
-        <v>3295</v>
+        <v>3289</v>
       </c>
       <c r="V24" t="s">
         <v>1042</v>
       </c>
       <c r="W24" t="s">
-        <v>3296</v>
+        <v>3290</v>
       </c>
       <c r="X24" t="s">
         <v>1044</v>
@@ -15317,10 +15321,10 @@
         <v>1045</v>
       </c>
       <c r="Z24" t="s">
-        <v>3297</v>
+        <v>3291</v>
       </c>
       <c r="AA24" t="s">
-        <v>3298</v>
+        <v>3292</v>
       </c>
       <c r="AB24" t="s">
         <v>1048</v>
@@ -15329,10 +15333,10 @@
         <v>1049</v>
       </c>
       <c r="AD24" t="s">
-        <v>3299</v>
+        <v>3293</v>
       </c>
       <c r="AE24" t="s">
-        <v>3300</v>
+        <v>3294</v>
       </c>
       <c r="AF24" t="s">
         <v>1052</v>
@@ -15356,43 +15360,43 @@
         <v>1058</v>
       </c>
       <c r="AN24" t="s">
-        <v>3301</v>
+        <v>3295</v>
       </c>
       <c r="AO24" t="s">
-        <v>3302</v>
+        <v>3296</v>
       </c>
       <c r="AP24" t="s">
-        <v>3303</v>
+        <v>3297</v>
       </c>
       <c r="AQ24" t="s">
         <v>1062</v>
       </c>
       <c r="AR24" t="s">
-        <v>3304</v>
+        <v>3298</v>
       </c>
       <c r="AS24" t="s">
         <v>1064</v>
       </c>
       <c r="AT24" t="s">
-        <v>3305</v>
+        <v>3299</v>
       </c>
       <c r="AU24" t="s">
         <v>1066</v>
       </c>
       <c r="AV24" t="s">
-        <v>3306</v>
+        <v>3300</v>
       </c>
       <c r="AW24" t="s">
-        <v>3307</v>
+        <v>3301</v>
       </c>
       <c r="AX24" t="s">
         <v>1069</v>
       </c>
       <c r="AY24" t="s">
-        <v>3308</v>
+        <v>3302</v>
       </c>
       <c r="AZ24" t="s">
-        <v>3309</v>
+        <v>3303</v>
       </c>
       <c r="BA24" t="s">
         <v>1072</v>
@@ -15404,99 +15408,99 @@
         <v>1074</v>
       </c>
       <c r="BD24" t="s">
-        <v>3310</v>
+        <v>3304</v>
       </c>
       <c r="BE24" t="s">
         <v>1076</v>
       </c>
       <c r="BF24" t="s">
-        <v>3311</v>
+        <v>3305</v>
       </c>
       <c r="BG24" t="s">
-        <v>3312</v>
+        <v>3306</v>
       </c>
       <c r="BH24" t="s">
-        <v>3313</v>
+        <v>3307</v>
       </c>
       <c r="BI24" t="s">
-        <v>3314</v>
+        <v>3308</v>
       </c>
       <c r="BJ24" t="s">
         <v>1081</v>
       </c>
       <c r="BK24" t="s">
-        <v>3315</v>
+        <v>3309</v>
       </c>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:63">
       <c r="A25" t="s">
-        <v>3316</v>
+        <v>3310</v>
       </c>
       <c r="B25" t="s">
         <v>1083</v>
       </c>
       <c r="C25" t="s">
-        <v>3317</v>
+        <v>3311</v>
       </c>
       <c r="D25" t="s">
         <v>1085</v>
       </c>
       <c r="E25" t="s">
-        <v>3318</v>
+        <v>3312</v>
       </c>
       <c r="F25" t="s">
         <v>1087</v>
       </c>
       <c r="G25" t="s">
-        <v>3319</v>
+        <v>3313</v>
       </c>
       <c r="H25" t="s">
         <v>1089</v>
       </c>
       <c r="I25" t="s">
-        <v>3320</v>
+        <v>3314</v>
       </c>
       <c r="J25" t="s">
-        <v>3321</v>
+        <v>3315</v>
       </c>
       <c r="K25" t="s">
-        <v>3322</v>
+        <v>3316</v>
       </c>
       <c r="L25" t="s">
         <v>1091</v>
       </c>
       <c r="M25" t="s">
-        <v>3323</v>
+        <v>3317</v>
       </c>
       <c r="N25" t="s">
         <v>1093</v>
       </c>
       <c r="O25" t="s">
-        <v>3324</v>
+        <v>3318</v>
       </c>
       <c r="P25" t="s">
         <v>1095</v>
       </c>
       <c r="Q25" t="s">
-        <v>3325</v>
+        <v>3319</v>
       </c>
       <c r="R25" t="s">
         <v>1097</v>
       </c>
       <c r="S25" t="s">
-        <v>3326</v>
+        <v>3320</v>
       </c>
       <c r="T25" t="s">
         <v>1098</v>
       </c>
       <c r="U25" t="s">
-        <v>3327</v>
+        <v>3321</v>
       </c>
       <c r="V25" t="s">
         <v>1100</v>
       </c>
       <c r="W25" t="s">
-        <v>3328</v>
+        <v>3322</v>
       </c>
       <c r="X25" t="s">
         <v>1102</v>
@@ -15505,10 +15509,10 @@
         <v>1103</v>
       </c>
       <c r="Z25" t="s">
-        <v>3329</v>
+        <v>3323</v>
       </c>
       <c r="AA25" t="s">
-        <v>3330</v>
+        <v>3324</v>
       </c>
       <c r="AB25" t="s">
         <v>1106</v>
@@ -15517,10 +15521,10 @@
         <v>1107</v>
       </c>
       <c r="AD25" t="s">
-        <v>3331</v>
+        <v>3325</v>
       </c>
       <c r="AE25" t="s">
-        <v>3332</v>
+        <v>3326</v>
       </c>
       <c r="AF25" t="s">
         <v>1110</v>
@@ -15544,43 +15548,43 @@
         <v>1116</v>
       </c>
       <c r="AN25" t="s">
-        <v>3333</v>
+        <v>3327</v>
       </c>
       <c r="AO25" t="s">
-        <v>3334</v>
+        <v>3328</v>
       </c>
       <c r="AP25" t="s">
-        <v>3335</v>
+        <v>3329</v>
       </c>
       <c r="AQ25" t="s">
         <v>1120</v>
       </c>
       <c r="AR25" t="s">
-        <v>3336</v>
+        <v>3330</v>
       </c>
       <c r="AS25" t="s">
         <v>1122</v>
       </c>
       <c r="AT25" t="s">
-        <v>3337</v>
+        <v>3331</v>
       </c>
       <c r="AU25" t="s">
         <v>1124</v>
       </c>
       <c r="AV25" t="s">
-        <v>3338</v>
+        <v>3332</v>
       </c>
       <c r="AW25" t="s">
-        <v>3339</v>
+        <v>3333</v>
       </c>
       <c r="AX25" t="s">
         <v>1127</v>
       </c>
       <c r="AY25" t="s">
-        <v>3340</v>
+        <v>3334</v>
       </c>
       <c r="AZ25" t="s">
-        <v>3341</v>
+        <v>3335</v>
       </c>
       <c r="BA25" t="s">
         <v>1130</v>
@@ -15592,99 +15596,99 @@
         <v>1132</v>
       </c>
       <c r="BD25" t="s">
-        <v>3342</v>
+        <v>3336</v>
       </c>
       <c r="BE25" t="s">
         <v>1134</v>
       </c>
       <c r="BF25" t="s">
-        <v>3343</v>
+        <v>3337</v>
       </c>
       <c r="BG25" t="s">
-        <v>3344</v>
+        <v>3338</v>
       </c>
       <c r="BH25" t="s">
-        <v>3345</v>
+        <v>3339</v>
       </c>
       <c r="BI25" t="s">
-        <v>3346</v>
+        <v>3340</v>
       </c>
       <c r="BJ25" t="s">
         <v>1139</v>
       </c>
       <c r="BK25" t="s">
-        <v>3347</v>
+        <v>3341</v>
       </c>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:63">
       <c r="A26" t="s">
-        <v>3348</v>
+        <v>3342</v>
       </c>
       <c r="B26" t="s">
         <v>1141</v>
       </c>
       <c r="C26" t="s">
-        <v>3349</v>
+        <v>3343</v>
       </c>
       <c r="D26" t="s">
         <v>1143</v>
       </c>
       <c r="E26" t="s">
-        <v>3350</v>
+        <v>3344</v>
       </c>
       <c r="F26" t="s">
         <v>1145</v>
       </c>
       <c r="G26" t="s">
-        <v>3351</v>
+        <v>3345</v>
       </c>
       <c r="H26" t="s">
         <v>1147</v>
       </c>
       <c r="I26" t="s">
-        <v>3352</v>
+        <v>3346</v>
       </c>
       <c r="J26" t="s">
-        <v>3353</v>
+        <v>3347</v>
       </c>
       <c r="K26" t="s">
-        <v>3354</v>
+        <v>3348</v>
       </c>
       <c r="L26" t="s">
         <v>1149</v>
       </c>
       <c r="M26" t="s">
-        <v>3355</v>
+        <v>3349</v>
       </c>
       <c r="N26" t="s">
         <v>1151</v>
       </c>
       <c r="O26" t="s">
-        <v>3356</v>
+        <v>3350</v>
       </c>
       <c r="P26" t="s">
         <v>1153</v>
       </c>
       <c r="Q26" t="s">
-        <v>3357</v>
+        <v>3351</v>
       </c>
       <c r="R26" t="s">
         <v>1155</v>
       </c>
       <c r="S26" t="s">
-        <v>3358</v>
+        <v>3352</v>
       </c>
       <c r="T26" t="s">
         <v>1156</v>
       </c>
       <c r="U26" t="s">
-        <v>3359</v>
+        <v>3353</v>
       </c>
       <c r="V26" t="s">
         <v>1158</v>
       </c>
       <c r="W26" t="s">
-        <v>3360</v>
+        <v>3354</v>
       </c>
       <c r="X26" t="s">
         <v>1160</v>
@@ -15693,10 +15697,10 @@
         <v>1161</v>
       </c>
       <c r="Z26" t="s">
-        <v>3361</v>
+        <v>3355</v>
       </c>
       <c r="AA26" t="s">
-        <v>3362</v>
+        <v>3356</v>
       </c>
       <c r="AB26" t="s">
         <v>1164</v>
@@ -15705,10 +15709,10 @@
         <v>1165</v>
       </c>
       <c r="AD26" t="s">
-        <v>3363</v>
+        <v>3357</v>
       </c>
       <c r="AE26" t="s">
-        <v>3364</v>
+        <v>3358</v>
       </c>
       <c r="AF26" t="s">
         <v>1168</v>
@@ -15732,43 +15736,43 @@
         <v>1174</v>
       </c>
       <c r="AN26" t="s">
-        <v>3365</v>
+        <v>3359</v>
       </c>
       <c r="AO26" t="s">
-        <v>3366</v>
+        <v>3360</v>
       </c>
       <c r="AP26" t="s">
-        <v>3367</v>
+        <v>3361</v>
       </c>
       <c r="AQ26" t="s">
         <v>1177</v>
       </c>
       <c r="AR26" t="s">
-        <v>3368</v>
+        <v>3362</v>
       </c>
       <c r="AS26" t="s">
         <v>1179</v>
       </c>
       <c r="AT26" t="s">
-        <v>3369</v>
+        <v>3363</v>
       </c>
       <c r="AU26" t="s">
         <v>1181</v>
       </c>
       <c r="AV26" t="s">
-        <v>3370</v>
+        <v>3364</v>
       </c>
       <c r="AW26" t="s">
-        <v>3371</v>
+        <v>3365</v>
       </c>
       <c r="AX26" t="s">
         <v>1184</v>
       </c>
       <c r="AY26" t="s">
-        <v>3372</v>
+        <v>3366</v>
       </c>
       <c r="AZ26" t="s">
-        <v>3373</v>
+        <v>3367</v>
       </c>
       <c r="BA26" t="s">
         <v>1187</v>
@@ -15780,99 +15784,99 @@
         <v>1189</v>
       </c>
       <c r="BD26" t="s">
-        <v>3374</v>
+        <v>3368</v>
       </c>
       <c r="BE26" t="s">
         <v>1191</v>
       </c>
       <c r="BF26" t="s">
-        <v>3375</v>
+        <v>3369</v>
       </c>
       <c r="BG26" t="s">
-        <v>3376</v>
+        <v>3370</v>
       </c>
       <c r="BH26" t="s">
-        <v>3377</v>
+        <v>3371</v>
       </c>
       <c r="BI26" t="s">
-        <v>3378</v>
+        <v>3372</v>
       </c>
       <c r="BJ26" t="s">
         <v>1196</v>
       </c>
       <c r="BK26" t="s">
-        <v>3379</v>
+        <v>3373</v>
       </c>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:63">
       <c r="A27" t="s">
-        <v>3380</v>
+        <v>3374</v>
       </c>
       <c r="B27" t="s">
         <v>1198</v>
       </c>
       <c r="C27" t="s">
-        <v>3381</v>
+        <v>3375</v>
       </c>
       <c r="D27" t="s">
         <v>1200</v>
       </c>
       <c r="E27" t="s">
-        <v>3382</v>
+        <v>3376</v>
       </c>
       <c r="F27" t="s">
         <v>1202</v>
       </c>
       <c r="G27" t="s">
-        <v>3383</v>
+        <v>3377</v>
       </c>
       <c r="H27" t="s">
         <v>1204</v>
       </c>
       <c r="I27" t="s">
-        <v>3384</v>
+        <v>3378</v>
       </c>
       <c r="J27" t="s">
-        <v>3385</v>
+        <v>3379</v>
       </c>
       <c r="K27" t="s">
-        <v>3386</v>
+        <v>3380</v>
       </c>
       <c r="L27" t="s">
         <v>1206</v>
       </c>
       <c r="M27" t="s">
-        <v>3387</v>
+        <v>3381</v>
       </c>
       <c r="N27" t="s">
         <v>1208</v>
       </c>
       <c r="O27" t="s">
-        <v>3388</v>
+        <v>3382</v>
       </c>
       <c r="P27" t="s">
         <v>1210</v>
       </c>
       <c r="Q27" t="s">
-        <v>3389</v>
+        <v>3383</v>
       </c>
       <c r="R27" t="s">
         <v>1212</v>
       </c>
       <c r="S27" t="s">
-        <v>3390</v>
+        <v>3384</v>
       </c>
       <c r="T27" t="s">
         <v>1213</v>
       </c>
       <c r="U27" t="s">
-        <v>3391</v>
+        <v>3385</v>
       </c>
       <c r="V27" t="s">
         <v>1215</v>
       </c>
       <c r="W27" t="s">
-        <v>3392</v>
+        <v>3386</v>
       </c>
       <c r="X27" t="s">
         <v>1217</v>
@@ -15881,10 +15885,10 @@
         <v>1218</v>
       </c>
       <c r="Z27" t="s">
-        <v>3393</v>
+        <v>3387</v>
       </c>
       <c r="AA27" t="s">
-        <v>3394</v>
+        <v>3388</v>
       </c>
       <c r="AB27" t="s">
         <v>1221</v>
@@ -15893,10 +15897,10 @@
         <v>1222</v>
       </c>
       <c r="AD27" t="s">
-        <v>3395</v>
+        <v>3389</v>
       </c>
       <c r="AE27" t="s">
-        <v>3396</v>
+        <v>3390</v>
       </c>
       <c r="AF27" t="s">
         <v>1225</v>
@@ -15920,43 +15924,43 @@
         <v>1230</v>
       </c>
       <c r="AN27" t="s">
-        <v>3397</v>
+        <v>3391</v>
       </c>
       <c r="AO27" t="s">
-        <v>3398</v>
+        <v>3392</v>
       </c>
       <c r="AP27" t="s">
-        <v>3399</v>
+        <v>3393</v>
       </c>
       <c r="AQ27" t="s">
         <v>1234</v>
       </c>
       <c r="AR27" t="s">
-        <v>3400</v>
+        <v>3394</v>
       </c>
       <c r="AS27" t="s">
         <v>1236</v>
       </c>
       <c r="AT27" t="s">
-        <v>3401</v>
+        <v>3395</v>
       </c>
       <c r="AU27" t="s">
         <v>1238</v>
       </c>
       <c r="AV27" t="s">
-        <v>3402</v>
+        <v>3396</v>
       </c>
       <c r="AW27" t="s">
-        <v>3403</v>
+        <v>3397</v>
       </c>
       <c r="AX27" t="s">
         <v>1241</v>
       </c>
       <c r="AY27" t="s">
-        <v>3404</v>
+        <v>3398</v>
       </c>
       <c r="AZ27" t="s">
-        <v>3405</v>
+        <v>3399</v>
       </c>
       <c r="BA27" t="s">
         <v>1244</v>
@@ -15968,31 +15972,31 @@
         <v>1246</v>
       </c>
       <c r="BD27" t="s">
-        <v>3406</v>
+        <v>3400</v>
       </c>
       <c r="BE27" t="s">
         <v>1248</v>
       </c>
       <c r="BF27" t="s">
-        <v>3407</v>
+        <v>3401</v>
       </c>
       <c r="BG27" t="s">
-        <v>3408</v>
+        <v>3402</v>
       </c>
       <c r="BH27" t="s">
-        <v>3409</v>
+        <v>3403</v>
       </c>
       <c r="BI27" t="s">
-        <v>3410</v>
+        <v>3404</v>
       </c>
       <c r="BJ27" t="s">
         <v>1253</v>
       </c>
       <c r="BK27" t="s">
-        <v>3411</v>
+        <v>3405</v>
       </c>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:63">
       <c r="A28" t="s">
         <v>1255</v>
       </c>
@@ -16168,9 +16172,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:63">
       <c r="A29" t="s">
-        <v>3412</v>
+        <v>3406</v>
       </c>
       <c r="B29" t="s">
         <v>1256</v>
@@ -16344,9 +16348,9 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:63">
       <c r="A30" t="s">
-        <v>3413</v>
+        <v>3407</v>
       </c>
       <c r="B30" t="s">
         <v>1313</v>
@@ -16376,7 +16380,7 @@
         <v>1321</v>
       </c>
       <c r="K30" t="s">
-        <v>3414</v>
+        <v>3408</v>
       </c>
       <c r="L30" t="s">
         <v>1322</v>
@@ -16484,7 +16488,7 @@
         <v>1352</v>
       </c>
       <c r="BA30" t="s">
-        <v>3415</v>
+        <v>3409</v>
       </c>
       <c r="BB30" t="s">
         <v>1353</v>
@@ -16493,22 +16497,22 @@
         <v>1354</v>
       </c>
       <c r="BD30" t="s">
-        <v>3416</v>
+        <v>3410</v>
       </c>
       <c r="BE30" t="s">
         <v>1355</v>
       </c>
       <c r="BF30" t="s">
-        <v>3417</v>
+        <v>3411</v>
       </c>
       <c r="BG30" t="s">
-        <v>3418</v>
+        <v>3412</v>
       </c>
       <c r="BH30" t="s">
         <v>1356</v>
       </c>
       <c r="BI30" t="s">
-        <v>3419</v>
+        <v>3413</v>
       </c>
       <c r="BJ30" t="s">
         <v>1357</v>
@@ -16517,9 +16521,9 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:63">
       <c r="A31" t="s">
-        <v>3420</v>
+        <v>3414</v>
       </c>
       <c r="B31" t="s">
         <v>1359</v>
@@ -16549,7 +16553,7 @@
         <v>1367</v>
       </c>
       <c r="K31" t="s">
-        <v>3421</v>
+        <v>3415</v>
       </c>
       <c r="L31" t="s">
         <v>1368</v>
@@ -16657,7 +16661,7 @@
         <v>1398</v>
       </c>
       <c r="BA31" t="s">
-        <v>3422</v>
+        <v>3416</v>
       </c>
       <c r="BB31" t="s">
         <v>1399</v>
@@ -16666,22 +16670,22 @@
         <v>1400</v>
       </c>
       <c r="BD31" t="s">
-        <v>3423</v>
+        <v>3417</v>
       </c>
       <c r="BE31" t="s">
         <v>1401</v>
       </c>
       <c r="BF31" t="s">
-        <v>3424</v>
+        <v>3418</v>
       </c>
       <c r="BG31" t="s">
-        <v>3425</v>
+        <v>3419</v>
       </c>
       <c r="BH31" t="s">
         <v>1402</v>
       </c>
       <c r="BI31" t="s">
-        <v>3426</v>
+        <v>3420</v>
       </c>
       <c r="BJ31" t="s">
         <v>1403</v>
@@ -16690,9 +16694,9 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:63">
       <c r="A32" t="s">
-        <v>3427</v>
+        <v>3421</v>
       </c>
       <c r="B32" t="s">
         <v>1405</v>
@@ -16722,7 +16726,7 @@
         <v>1413</v>
       </c>
       <c r="K32" t="s">
-        <v>3428</v>
+        <v>3422</v>
       </c>
       <c r="L32" t="s">
         <v>1414</v>
@@ -16830,7 +16834,7 @@
         <v>1444</v>
       </c>
       <c r="BA32" t="s">
-        <v>3429</v>
+        <v>3423</v>
       </c>
       <c r="BB32" t="s">
         <v>1445</v>
@@ -16839,22 +16843,22 @@
         <v>1446</v>
       </c>
       <c r="BD32" t="s">
-        <v>3430</v>
+        <v>3424</v>
       </c>
       <c r="BE32" t="s">
         <v>1447</v>
       </c>
       <c r="BF32" t="s">
-        <v>3431</v>
+        <v>3425</v>
       </c>
       <c r="BG32" t="s">
-        <v>3432</v>
+        <v>3426</v>
       </c>
       <c r="BH32" t="s">
         <v>1448</v>
       </c>
       <c r="BI32" t="s">
-        <v>3433</v>
+        <v>3427</v>
       </c>
       <c r="BJ32" t="s">
         <v>1449</v>
@@ -16863,9 +16867,9 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:63">
       <c r="A33" t="s">
-        <v>3434</v>
+        <v>3428</v>
       </c>
       <c r="B33" t="s">
         <v>1451</v>
@@ -16895,7 +16899,7 @@
         <v>1459</v>
       </c>
       <c r="K33" t="s">
-        <v>3435</v>
+        <v>3429</v>
       </c>
       <c r="L33" t="s">
         <v>1460</v>
@@ -17003,7 +17007,7 @@
         <v>1490</v>
       </c>
       <c r="BA33" t="s">
-        <v>3436</v>
+        <v>3430</v>
       </c>
       <c r="BB33" t="s">
         <v>1491</v>
@@ -17012,22 +17016,22 @@
         <v>1492</v>
       </c>
       <c r="BD33" t="s">
-        <v>3437</v>
+        <v>3431</v>
       </c>
       <c r="BE33" t="s">
         <v>1493</v>
       </c>
       <c r="BF33" t="s">
-        <v>3438</v>
+        <v>3432</v>
       </c>
       <c r="BG33" t="s">
-        <v>3439</v>
+        <v>3433</v>
       </c>
       <c r="BH33" t="s">
         <v>1494</v>
       </c>
       <c r="BI33" t="s">
-        <v>3440</v>
+        <v>3434</v>
       </c>
       <c r="BJ33" t="s">
         <v>1495</v>
@@ -17036,9 +17040,9 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:63">
       <c r="A34" t="s">
-        <v>3441</v>
+        <v>3435</v>
       </c>
       <c r="B34" t="s">
         <v>1497</v>
@@ -17068,7 +17072,7 @@
         <v>1505</v>
       </c>
       <c r="K34" t="s">
-        <v>3442</v>
+        <v>3436</v>
       </c>
       <c r="L34" t="s">
         <v>1506</v>
@@ -17176,7 +17180,7 @@
         <v>1536</v>
       </c>
       <c r="BA34" t="s">
-        <v>3443</v>
+        <v>3437</v>
       </c>
       <c r="BB34" t="s">
         <v>1537</v>
@@ -17185,22 +17189,22 @@
         <v>1538</v>
       </c>
       <c r="BD34" t="s">
-        <v>3444</v>
+        <v>3438</v>
       </c>
       <c r="BE34" t="s">
         <v>1539</v>
       </c>
       <c r="BF34" t="s">
-        <v>3445</v>
+        <v>3439</v>
       </c>
       <c r="BG34" t="s">
-        <v>3446</v>
+        <v>3440</v>
       </c>
       <c r="BH34" t="s">
         <v>1540</v>
       </c>
       <c r="BI34" t="s">
-        <v>3447</v>
+        <v>3441</v>
       </c>
       <c r="BJ34" t="s">
         <v>1541</v>
@@ -17209,9 +17213,9 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:63">
       <c r="A35" t="s">
-        <v>3448</v>
+        <v>3442</v>
       </c>
       <c r="B35" t="s">
         <v>1543</v>
@@ -17241,7 +17245,7 @@
         <v>1551</v>
       </c>
       <c r="K35" t="s">
-        <v>3449</v>
+        <v>3443</v>
       </c>
       <c r="L35" t="s">
         <v>1552</v>
@@ -17349,7 +17353,7 @@
         <v>1582</v>
       </c>
       <c r="BA35" t="s">
-        <v>3450</v>
+        <v>3444</v>
       </c>
       <c r="BB35" t="s">
         <v>1583</v>
@@ -17367,13 +17371,13 @@
         <v>1587</v>
       </c>
       <c r="BG35" t="s">
-        <v>3451</v>
+        <v>3445</v>
       </c>
       <c r="BH35" t="s">
         <v>1588</v>
       </c>
       <c r="BI35" t="s">
-        <v>3452</v>
+        <v>3446</v>
       </c>
       <c r="BJ35" t="s">
         <v>1589</v>
@@ -17382,9 +17386,9 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:63">
       <c r="A36" t="s">
-        <v>3453</v>
+        <v>3621</v>
       </c>
       <c r="B36" t="s">
         <v>1591</v>
@@ -17555,9 +17559,9 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:63">
       <c r="A37" t="s">
-        <v>3454</v>
+        <v>3622</v>
       </c>
       <c r="B37" t="s">
         <v>1591</v>
@@ -17728,9 +17732,9 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:63">
       <c r="A38" t="s">
-        <v>3455</v>
+        <v>3623</v>
       </c>
       <c r="B38" t="s">
         <v>1591</v>
@@ -17901,9 +17905,9 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:63">
       <c r="A39" t="s">
-        <v>3456</v>
+        <v>3624</v>
       </c>
       <c r="B39" t="s">
         <v>1591</v>
@@ -18074,9 +18078,9 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:63">
       <c r="A40" t="s">
-        <v>3457</v>
+        <v>3625</v>
       </c>
       <c r="B40" t="s">
         <v>1591</v>
@@ -18247,9 +18251,9 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:63">
       <c r="A41" t="s">
-        <v>3458</v>
+        <v>3626</v>
       </c>
       <c r="B41" t="s">
         <v>1591</v>
@@ -18420,9 +18424,9 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:63">
       <c r="A42" t="s">
-        <v>3459</v>
+        <v>3447</v>
       </c>
       <c r="B42" t="s">
         <v>1591</v>
@@ -18599,9 +18603,9 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:63">
       <c r="A43" t="s">
-        <v>3460</v>
+        <v>3448</v>
       </c>
       <c r="B43" t="s">
         <v>1591</v>
@@ -18778,9 +18782,9 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:63">
       <c r="A44" t="s">
-        <v>3461</v>
+        <v>3449</v>
       </c>
       <c r="B44" t="s">
         <v>1591</v>
@@ -18957,9 +18961,9 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:63">
       <c r="A45" t="s">
-        <v>3462</v>
+        <v>3450</v>
       </c>
       <c r="B45" t="s">
         <v>1591</v>
@@ -19136,9 +19140,9 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:63">
       <c r="A46" t="s">
-        <v>3463</v>
+        <v>3451</v>
       </c>
       <c r="B46" t="s">
         <v>1591</v>
@@ -19315,9 +19319,9 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:63">
       <c r="A47" t="s">
-        <v>3464</v>
+        <v>3452</v>
       </c>
       <c r="B47" t="s">
         <v>1591</v>
@@ -19494,9 +19498,9 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:63">
       <c r="A48" t="s">
-        <v>3465</v>
+        <v>3453</v>
       </c>
       <c r="B48" t="s">
         <v>1628</v>
@@ -19670,9 +19674,9 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:63">
       <c r="A49" t="s">
-        <v>3466</v>
+        <v>3614</v>
       </c>
       <c r="B49" t="s">
         <v>1685</v>
@@ -19699,10 +19703,10 @@
         <v>1692</v>
       </c>
       <c r="J49" t="s">
-        <v>3467</v>
+        <v>3454</v>
       </c>
       <c r="K49" t="s">
-        <v>3468</v>
+        <v>3455</v>
       </c>
       <c r="L49" t="s">
         <v>1693</v>
@@ -19843,9 +19847,9 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:63">
       <c r="A50" t="s">
-        <v>3469</v>
+        <v>3456</v>
       </c>
       <c r="B50" t="s">
         <v>1735</v>
@@ -20019,9 +20023,9 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:63">
       <c r="A51" t="s">
-        <v>3470</v>
+        <v>3457</v>
       </c>
       <c r="B51" t="s">
         <v>1792</v>
@@ -20048,10 +20052,10 @@
         <v>1799</v>
       </c>
       <c r="J51" t="s">
-        <v>3471</v>
+        <v>3458</v>
       </c>
       <c r="K51" t="s">
-        <v>3472</v>
+        <v>3459</v>
       </c>
       <c r="L51" t="s">
         <v>1800</v>
@@ -20081,7 +20085,7 @@
         <v>1808</v>
       </c>
       <c r="W51" t="s">
-        <v>3473</v>
+        <v>3460</v>
       </c>
       <c r="X51" t="s">
         <v>1809</v>
@@ -20186,9 +20190,9 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:63">
       <c r="A52" t="s">
-        <v>3474</v>
+        <v>3627</v>
       </c>
       <c r="B52" t="s">
         <v>1840</v>
@@ -20215,10 +20219,10 @@
         <v>1847</v>
       </c>
       <c r="J52" t="s">
-        <v>3475</v>
+        <v>3461</v>
       </c>
       <c r="K52" t="s">
-        <v>3476</v>
+        <v>3462</v>
       </c>
       <c r="L52" t="s">
         <v>1848</v>
@@ -20245,7 +20249,7 @@
         <v>1855</v>
       </c>
       <c r="V52" t="s">
-        <v>3477</v>
+        <v>3463</v>
       </c>
       <c r="W52" t="s">
         <v>1856</v>
@@ -20365,9 +20369,9 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:63">
       <c r="A53" t="s">
-        <v>3478</v>
+        <v>3628</v>
       </c>
       <c r="B53" t="s">
         <v>1893</v>
@@ -20394,10 +20398,10 @@
         <v>1900</v>
       </c>
       <c r="J53" t="s">
-        <v>3479</v>
+        <v>3464</v>
       </c>
       <c r="K53" t="s">
-        <v>3480</v>
+        <v>3465</v>
       </c>
       <c r="L53" t="s">
         <v>1901</v>
@@ -20424,7 +20428,7 @@
         <v>1908</v>
       </c>
       <c r="V53" t="s">
-        <v>3481</v>
+        <v>3466</v>
       </c>
       <c r="W53" t="s">
         <v>1909</v>
@@ -20544,9 +20548,9 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:63">
       <c r="A54" t="s">
-        <v>3482</v>
+        <v>3629</v>
       </c>
       <c r="B54" t="s">
         <v>1946</v>
@@ -20573,10 +20577,10 @@
         <v>1953</v>
       </c>
       <c r="J54" t="s">
-        <v>3483</v>
+        <v>3467</v>
       </c>
       <c r="K54" t="s">
-        <v>3484</v>
+        <v>3468</v>
       </c>
       <c r="L54" t="s">
         <v>1954</v>
@@ -20603,7 +20607,7 @@
         <v>1961</v>
       </c>
       <c r="V54" t="s">
-        <v>3485</v>
+        <v>3469</v>
       </c>
       <c r="W54" t="s">
         <v>1962</v>
@@ -20723,9 +20727,9 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:63">
       <c r="A55" t="s">
-        <v>3486</v>
+        <v>3630</v>
       </c>
       <c r="B55" t="s">
         <v>1999</v>
@@ -20752,10 +20756,10 @@
         <v>2006</v>
       </c>
       <c r="J55" t="s">
-        <v>3487</v>
+        <v>3470</v>
       </c>
       <c r="K55" t="s">
-        <v>3488</v>
+        <v>3471</v>
       </c>
       <c r="L55" t="s">
         <v>2007</v>
@@ -20782,7 +20786,7 @@
         <v>2014</v>
       </c>
       <c r="V55" t="s">
-        <v>3489</v>
+        <v>3472</v>
       </c>
       <c r="W55" t="s">
         <v>2015</v>
@@ -20902,9 +20906,9 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:63">
       <c r="A56" t="s">
-        <v>3490</v>
+        <v>3631</v>
       </c>
       <c r="B56" t="s">
         <v>2052</v>
@@ -20931,10 +20935,10 @@
         <v>2059</v>
       </c>
       <c r="J56" t="s">
-        <v>3491</v>
+        <v>3473</v>
       </c>
       <c r="K56" t="s">
-        <v>3492</v>
+        <v>3474</v>
       </c>
       <c r="L56" t="s">
         <v>2060</v>
@@ -20961,7 +20965,7 @@
         <v>2067</v>
       </c>
       <c r="V56" t="s">
-        <v>3493</v>
+        <v>3475</v>
       </c>
       <c r="W56" t="s">
         <v>2068</v>
@@ -21081,9 +21085,9 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:63">
       <c r="A57" t="s">
-        <v>3494</v>
+        <v>3632</v>
       </c>
       <c r="B57" t="s">
         <v>2105</v>
@@ -21110,10 +21114,10 @@
         <v>2112</v>
       </c>
       <c r="J57" t="s">
-        <v>3495</v>
+        <v>3476</v>
       </c>
       <c r="K57" t="s">
-        <v>3496</v>
+        <v>3477</v>
       </c>
       <c r="L57" t="s">
         <v>2113</v>
@@ -21140,7 +21144,7 @@
         <v>2120</v>
       </c>
       <c r="V57" t="s">
-        <v>3497</v>
+        <v>3478</v>
       </c>
       <c r="W57" t="s">
         <v>2121</v>
@@ -21260,9 +21264,9 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:63">
       <c r="A58" t="s">
-        <v>3498</v>
+        <v>3479</v>
       </c>
       <c r="B58" t="s">
         <v>2158</v>
@@ -21289,10 +21293,10 @@
         <v>2165</v>
       </c>
       <c r="J58" t="s">
-        <v>3499</v>
+        <v>3480</v>
       </c>
       <c r="K58" t="s">
-        <v>3500</v>
+        <v>3481</v>
       </c>
       <c r="L58" t="s">
         <v>2166</v>
@@ -21439,9 +21443,9 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="59" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:63">
       <c r="A59" t="s">
-        <v>3501</v>
+        <v>3482</v>
       </c>
       <c r="B59" t="s">
         <v>2212</v>
@@ -21468,10 +21472,10 @@
         <v>2219</v>
       </c>
       <c r="J59" t="s">
-        <v>3502</v>
+        <v>3483</v>
       </c>
       <c r="K59" t="s">
-        <v>3503</v>
+        <v>3484</v>
       </c>
       <c r="L59" t="s">
         <v>2220</v>
@@ -21618,9 +21622,9 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="60" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:63">
       <c r="A60" t="s">
-        <v>3504</v>
+        <v>3485</v>
       </c>
       <c r="B60" t="s">
         <v>2266</v>
@@ -21647,10 +21651,10 @@
         <v>2273</v>
       </c>
       <c r="J60" t="s">
-        <v>3505</v>
+        <v>3486</v>
       </c>
       <c r="K60" t="s">
-        <v>3506</v>
+        <v>3487</v>
       </c>
       <c r="L60" t="s">
         <v>2274</v>
@@ -21797,9 +21801,9 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:63">
       <c r="A61" t="s">
-        <v>3507</v>
+        <v>3488</v>
       </c>
       <c r="B61" t="s">
         <v>2320</v>
@@ -21826,10 +21830,10 @@
         <v>2327</v>
       </c>
       <c r="J61" t="s">
-        <v>3508</v>
+        <v>3489</v>
       </c>
       <c r="K61" t="s">
-        <v>3509</v>
+        <v>3490</v>
       </c>
       <c r="L61" t="s">
         <v>2328</v>
@@ -21976,9 +21980,9 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:63">
       <c r="A62" t="s">
-        <v>3510</v>
+        <v>3491</v>
       </c>
       <c r="B62" t="s">
         <v>2374</v>
@@ -22005,10 +22009,10 @@
         <v>2381</v>
       </c>
       <c r="J62" t="s">
-        <v>3511</v>
+        <v>3492</v>
       </c>
       <c r="K62" t="s">
-        <v>3512</v>
+        <v>3493</v>
       </c>
       <c r="L62" t="s">
         <v>2382</v>
@@ -22155,9 +22159,9 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:63">
       <c r="A63" t="s">
-        <v>3513</v>
+        <v>3494</v>
       </c>
       <c r="B63" t="s">
         <v>2428</v>
@@ -22184,10 +22188,10 @@
         <v>2435</v>
       </c>
       <c r="J63" t="s">
-        <v>3514</v>
+        <v>3495</v>
       </c>
       <c r="K63" t="s">
-        <v>3515</v>
+        <v>3496</v>
       </c>
       <c r="L63" t="s">
         <v>2436</v>
@@ -22334,9 +22338,9 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="64" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:63">
       <c r="A64" t="s">
-        <v>3516</v>
+        <v>3497</v>
       </c>
       <c r="B64" t="s">
         <v>107</v>
@@ -22366,7 +22370,7 @@
         <v>115</v>
       </c>
       <c r="K64" t="s">
-        <v>3517</v>
+        <v>3498</v>
       </c>
       <c r="L64" t="s">
         <v>2483</v>
@@ -22504,9 +22508,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="65" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:63">
       <c r="A65" t="s">
-        <v>3518</v>
+        <v>3499</v>
       </c>
       <c r="B65" t="s">
         <v>2499</v>
@@ -22533,10 +22537,10 @@
         <v>2506</v>
       </c>
       <c r="J65" t="s">
-        <v>3519</v>
+        <v>3500</v>
       </c>
       <c r="K65" t="s">
-        <v>3520</v>
+        <v>3501</v>
       </c>
       <c r="L65" t="s">
         <v>2507</v>
@@ -22677,9 +22681,9 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="66" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:63">
       <c r="A66" t="s">
-        <v>3521</v>
+        <v>3502</v>
       </c>
       <c r="B66" t="s">
         <v>107</v>
@@ -22709,7 +22713,7 @@
         <v>115</v>
       </c>
       <c r="K66" t="s">
-        <v>3517</v>
+        <v>3498</v>
       </c>
       <c r="L66" t="s">
         <v>2483</v>
@@ -22853,9 +22857,9 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="67" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:63">
       <c r="A67" t="s">
-        <v>3522</v>
+        <v>3503</v>
       </c>
       <c r="B67" t="s">
         <v>2563</v>
@@ -23008,9 +23012,9 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="68" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:63">
       <c r="A68" t="s">
-        <v>3523</v>
+        <v>3504</v>
       </c>
       <c r="B68" t="s">
         <v>107</v>
@@ -23163,9 +23167,9 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="69" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:63">
       <c r="A69" t="s">
-        <v>3524</v>
+        <v>3505</v>
       </c>
       <c r="B69" t="s">
         <v>2590</v>
@@ -23339,9 +23343,9 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="70" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:63">
       <c r="A70" t="s">
-        <v>3525</v>
+        <v>3506</v>
       </c>
       <c r="B70" t="s">
         <v>2647</v>
@@ -23368,10 +23372,10 @@
         <v>2654</v>
       </c>
       <c r="J70" t="s">
-        <v>3526</v>
+        <v>3507</v>
       </c>
       <c r="K70" t="s">
-        <v>3527</v>
+        <v>3508</v>
       </c>
       <c r="L70" t="s">
         <v>2655</v>
@@ -23401,7 +23405,7 @@
         <v>2663</v>
       </c>
       <c r="W70" t="s">
-        <v>3528</v>
+        <v>3509</v>
       </c>
       <c r="X70" t="s">
         <v>2664</v>
@@ -23506,9 +23510,9 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="71" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:63">
       <c r="A71" t="s">
-        <v>3529</v>
+        <v>3633</v>
       </c>
       <c r="B71" t="s">
         <v>2695</v>
@@ -23535,10 +23539,10 @@
         <v>578</v>
       </c>
       <c r="J71" t="s">
-        <v>3530</v>
+        <v>3510</v>
       </c>
       <c r="K71" t="s">
-        <v>3531</v>
+        <v>3511</v>
       </c>
       <c r="L71" t="s">
         <v>2699</v>
@@ -23565,7 +23569,7 @@
         <v>587</v>
       </c>
       <c r="V71" t="s">
-        <v>3532</v>
+        <v>3512</v>
       </c>
       <c r="W71" t="s">
         <v>589</v>
@@ -23685,9 +23689,9 @@
         <v>628</v>
       </c>
     </row>
-    <row r="72" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:63">
       <c r="A72" t="s">
-        <v>3533</v>
+        <v>3634</v>
       </c>
       <c r="B72" t="s">
         <v>2718</v>
@@ -23714,10 +23718,10 @@
         <v>636</v>
       </c>
       <c r="J72" t="s">
-        <v>3534</v>
+        <v>3513</v>
       </c>
       <c r="K72" t="s">
-        <v>3535</v>
+        <v>3514</v>
       </c>
       <c r="L72" t="s">
         <v>2722</v>
@@ -23744,7 +23748,7 @@
         <v>645</v>
       </c>
       <c r="V72" t="s">
-        <v>3536</v>
+        <v>3515</v>
       </c>
       <c r="W72" t="s">
         <v>647</v>
@@ -23864,9 +23868,9 @@
         <v>686</v>
       </c>
     </row>
-    <row r="73" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:63">
       <c r="A73" t="s">
-        <v>3537</v>
+        <v>3635</v>
       </c>
       <c r="B73" t="s">
         <v>2741</v>
@@ -23893,10 +23897,10 @@
         <v>694</v>
       </c>
       <c r="J73" t="s">
-        <v>3538</v>
+        <v>3516</v>
       </c>
       <c r="K73" t="s">
-        <v>3539</v>
+        <v>3517</v>
       </c>
       <c r="L73" t="s">
         <v>2745</v>
@@ -23923,7 +23927,7 @@
         <v>703</v>
       </c>
       <c r="V73" t="s">
-        <v>3540</v>
+        <v>3518</v>
       </c>
       <c r="W73" t="s">
         <v>705</v>
@@ -24043,9 +24047,9 @@
         <v>744</v>
       </c>
     </row>
-    <row r="74" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:63">
       <c r="A74" t="s">
-        <v>3541</v>
+        <v>3636</v>
       </c>
       <c r="B74" t="s">
         <v>2764</v>
@@ -24072,10 +24076,10 @@
         <v>810</v>
       </c>
       <c r="J74" t="s">
-        <v>3542</v>
+        <v>3519</v>
       </c>
       <c r="K74" t="s">
-        <v>3543</v>
+        <v>3520</v>
       </c>
       <c r="L74" t="s">
         <v>2768</v>
@@ -24102,7 +24106,7 @@
         <v>819</v>
       </c>
       <c r="V74" t="s">
-        <v>3544</v>
+        <v>3521</v>
       </c>
       <c r="W74" t="s">
         <v>821</v>
@@ -24222,9 +24226,9 @@
         <v>860</v>
       </c>
     </row>
-    <row r="75" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:63">
       <c r="A75" t="s">
-        <v>3545</v>
+        <v>3637</v>
       </c>
       <c r="B75" t="s">
         <v>2787</v>
@@ -24251,10 +24255,10 @@
         <v>752</v>
       </c>
       <c r="J75" t="s">
-        <v>3546</v>
+        <v>3522</v>
       </c>
       <c r="K75" t="s">
-        <v>3547</v>
+        <v>3523</v>
       </c>
       <c r="L75" t="s">
         <v>2791</v>
@@ -24281,7 +24285,7 @@
         <v>761</v>
       </c>
       <c r="V75" t="s">
-        <v>3548</v>
+        <v>3524</v>
       </c>
       <c r="W75" t="s">
         <v>763</v>
@@ -24401,9 +24405,9 @@
         <v>802</v>
       </c>
     </row>
-    <row r="76" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:63">
       <c r="A76" t="s">
-        <v>3545</v>
+        <v>3637</v>
       </c>
       <c r="B76" t="s">
         <v>107</v>
@@ -24430,10 +24434,10 @@
         <v>865</v>
       </c>
       <c r="J76" t="s">
-        <v>3549</v>
+        <v>3525</v>
       </c>
       <c r="K76" t="s">
-        <v>3517</v>
+        <v>3498</v>
       </c>
       <c r="L76" t="s">
         <v>2483</v>
@@ -24460,7 +24464,7 @@
         <v>875</v>
       </c>
       <c r="V76" t="s">
-        <v>3550</v>
+        <v>3526</v>
       </c>
       <c r="W76" t="s">
         <v>877</v>
@@ -24580,9 +24584,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="77" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:63">
       <c r="A77" t="s">
-        <v>3551</v>
+        <v>3527</v>
       </c>
       <c r="B77" t="s">
         <v>2811</v>
@@ -24609,10 +24613,10 @@
         <v>919</v>
       </c>
       <c r="J77" t="s">
-        <v>3552</v>
+        <v>3528</v>
       </c>
       <c r="K77" t="s">
-        <v>3553</v>
+        <v>3529</v>
       </c>
       <c r="L77" t="s">
         <v>2815</v>
@@ -24759,9 +24763,9 @@
         <v>969</v>
       </c>
     </row>
-    <row r="78" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:63">
       <c r="A78" t="s">
-        <v>3554</v>
+        <v>3530</v>
       </c>
       <c r="B78" t="s">
         <v>2835</v>
@@ -24788,10 +24792,10 @@
         <v>977</v>
       </c>
       <c r="J78" t="s">
-        <v>3555</v>
+        <v>3531</v>
       </c>
       <c r="K78" t="s">
-        <v>3556</v>
+        <v>3532</v>
       </c>
       <c r="L78" t="s">
         <v>2839</v>
@@ -24938,9 +24942,9 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="79" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:63">
       <c r="A79" t="s">
-        <v>3557</v>
+        <v>3533</v>
       </c>
       <c r="B79" t="s">
         <v>2563</v>
@@ -24967,10 +24971,10 @@
         <v>1031</v>
       </c>
       <c r="J79" t="s">
-        <v>3558</v>
+        <v>3534</v>
       </c>
       <c r="K79" t="s">
-        <v>3559</v>
+        <v>3535</v>
       </c>
       <c r="L79" t="s">
         <v>2568</v>
@@ -25117,9 +25121,9 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="80" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:63">
       <c r="A80" t="s">
-        <v>3560</v>
+        <v>3536</v>
       </c>
       <c r="B80" t="s">
         <v>2863</v>
@@ -25146,10 +25150,10 @@
         <v>1090</v>
       </c>
       <c r="J80" t="s">
-        <v>3561</v>
+        <v>3537</v>
       </c>
       <c r="K80" t="s">
-        <v>3562</v>
+        <v>3538</v>
       </c>
       <c r="L80" t="s">
         <v>2867</v>
@@ -25296,9 +25300,9 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="81" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:63">
       <c r="A81" t="s">
-        <v>3563</v>
+        <v>3539</v>
       </c>
       <c r="B81" t="s">
         <v>2887</v>
@@ -25325,10 +25329,10 @@
         <v>1148</v>
       </c>
       <c r="J81" t="s">
-        <v>3564</v>
+        <v>3540</v>
       </c>
       <c r="K81" t="s">
-        <v>3565</v>
+        <v>3541</v>
       </c>
       <c r="L81" t="s">
         <v>2891</v>
@@ -25475,9 +25479,9 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="82" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:63">
       <c r="A82" t="s">
-        <v>3566</v>
+        <v>3542</v>
       </c>
       <c r="B82" t="s">
         <v>2911</v>
@@ -25504,10 +25508,10 @@
         <v>1205</v>
       </c>
       <c r="J82" t="s">
-        <v>3567</v>
+        <v>3543</v>
       </c>
       <c r="K82" t="s">
-        <v>3568</v>
+        <v>3544</v>
       </c>
       <c r="L82" t="s">
         <v>2915</v>
@@ -25654,9 +25658,9 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="83" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:63">
       <c r="A83" t="s">
-        <v>3569</v>
+        <v>3545</v>
       </c>
       <c r="B83" t="s">
         <v>2935</v>
@@ -25683,9 +25687,9 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="84" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:63">
       <c r="A84" t="s">
-        <v>3570</v>
+        <v>3546</v>
       </c>
       <c r="B84" t="s">
         <v>2943</v>

--- a/paradigms/paradigms_excel/paradigms_trans.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="1900" windowWidth="27760" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1680" windowWidth="27760" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="3798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="3799">
   <si>
     <t>Class number</t>
   </si>
@@ -11421,6 +11421,9 @@
   </si>
   <si>
     <t>-m</t>
+  </si>
+  <si>
+    <t>-vil</t>
   </si>
 </sst>
 </file>
@@ -11739,7 +11742,7 @@
   <dimension ref="A1:BM87"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12452,10 +12455,10 @@
         <v>3782</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3782</v>
+        <v>3798</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3782</v>
+        <v>3798</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>3783</v>

--- a/paradigms/paradigms_excel/paradigms_trans.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans.xlsx
@@ -11742,7 +11742,7 @@
   <dimension ref="A1:BM87"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A5" sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11946,449 +11946,449 @@
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="Z2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AA2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AC2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AE2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="AH2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>3797</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>3798</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>3797</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>3798</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>3797</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>3798</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>3797</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>3798</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>3797</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>3798</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>3797</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>3798</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>3797</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>3798</v>
+        <v>58</v>
       </c>
       <c r="P3" t="s">
-        <v>3797</v>
+        <v>59</v>
       </c>
       <c r="Q3" t="s">
-        <v>3798</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
-        <v>3797</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>3798</v>
+        <v>60</v>
       </c>
       <c r="T3" t="s">
-        <v>3797</v>
+        <v>61</v>
       </c>
       <c r="U3" t="s">
-        <v>3798</v>
+        <v>61</v>
       </c>
       <c r="V3" t="s">
-        <v>3797</v>
+        <v>58</v>
       </c>
       <c r="W3" t="s">
-        <v>3798</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>3797</v>
+        <v>59</v>
       </c>
       <c r="Y3" t="s">
-        <v>3798</v>
+        <v>59</v>
       </c>
       <c r="Z3" t="s">
-        <v>3797</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="s">
-        <v>3797</v>
+        <v>60</v>
       </c>
       <c r="AB3" t="s">
-        <v>3798</v>
+        <v>60</v>
       </c>
       <c r="AC3" t="s">
-        <v>3798</v>
+        <v>60</v>
       </c>
       <c r="AD3" t="s">
-        <v>3797</v>
+        <v>62</v>
       </c>
       <c r="AE3" t="s">
-        <v>3797</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="s">
-        <v>3798</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s">
-        <v>3798</v>
+        <v>61</v>
       </c>
       <c r="AH3" t="s">
-        <v>3798</v>
+        <v>61</v>
       </c>
       <c r="AI3" t="s">
-        <v>3797</v>
+        <v>61</v>
       </c>
       <c r="AJ3" t="s">
-        <v>3797</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s">
-        <v>3798</v>
+        <v>61</v>
       </c>
       <c r="AL3" t="s">
-        <v>3798</v>
+        <v>61</v>
       </c>
       <c r="AM3" t="s">
-        <v>3797</v>
+        <v>61</v>
       </c>
       <c r="AN3" t="s">
-        <v>3797</v>
+        <v>62</v>
       </c>
       <c r="AO3" t="s">
-        <v>3798</v>
+        <v>62</v>
       </c>
       <c r="AP3" t="s">
-        <v>3798</v>
+        <v>60</v>
       </c>
       <c r="AQ3" t="s">
-        <v>3798</v>
+        <v>62</v>
       </c>
       <c r="AR3" t="s">
-        <v>3797</v>
+        <v>60</v>
       </c>
       <c r="AS3" t="s">
-        <v>3798</v>
+        <v>60</v>
       </c>
       <c r="AT3" t="s">
-        <v>3797</v>
+        <v>60</v>
       </c>
       <c r="AU3" t="s">
-        <v>3798</v>
+        <v>62</v>
       </c>
       <c r="AV3" t="s">
-        <v>3797</v>
+        <v>60</v>
       </c>
       <c r="AW3" t="s">
-        <v>3798</v>
+        <v>62</v>
       </c>
       <c r="AX3" t="s">
-        <v>3798</v>
+        <v>62</v>
       </c>
       <c r="AY3" t="s">
-        <v>3798</v>
+        <v>60</v>
       </c>
       <c r="AZ3" t="s">
-        <v>3797</v>
+        <v>62</v>
       </c>
       <c r="BA3" t="s">
-        <v>3798</v>
+        <v>62</v>
       </c>
       <c r="BB3" t="s">
-        <v>3798</v>
+        <v>60</v>
       </c>
       <c r="BC3" t="s">
-        <v>3797</v>
+        <v>60</v>
       </c>
       <c r="BD3" t="s">
-        <v>3797</v>
+        <v>62</v>
       </c>
       <c r="BE3" t="s">
-        <v>3797</v>
+        <v>60</v>
       </c>
       <c r="BF3" t="s">
-        <v>3798</v>
+        <v>62</v>
       </c>
       <c r="BG3" t="s">
-        <v>3797</v>
+        <v>62</v>
       </c>
       <c r="BH3" t="s">
-        <v>3798</v>
+        <v>60</v>
       </c>
       <c r="BI3" t="s">
-        <v>3798</v>
+        <v>60</v>
       </c>
       <c r="BJ3" t="s">
-        <v>3798</v>
+        <v>60</v>
       </c>
       <c r="BK3" t="s">
-        <v>3798</v>
+        <v>60</v>
       </c>
       <c r="BL3" t="s">
-        <v>3797</v>
+        <v>62</v>
       </c>
       <c r="BM3" t="s">
-        <v>3798</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3798</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>3797</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>3798</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>3797</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>3798</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3798</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>3797</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>3798</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>3797</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>3798</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="R4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="T4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="U4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="V4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="W4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="X4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>3798</v>
       </c>
       <c r="Z4" t="s">
-        <v>69</v>
+        <v>3797</v>
       </c>
       <c r="AA4" t="s">
-        <v>70</v>
+        <v>3797</v>
       </c>
       <c r="AB4" t="s">
-        <v>69</v>
+        <v>3798</v>
       </c>
       <c r="AC4" t="s">
-        <v>70</v>
+        <v>3798</v>
       </c>
       <c r="AD4" t="s">
-        <v>69</v>
+        <v>3797</v>
       </c>
       <c r="AE4" t="s">
-        <v>70</v>
+        <v>3797</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>3798</v>
       </c>
       <c r="AG4" t="s">
-        <v>71</v>
+        <v>3798</v>
       </c>
       <c r="AH4" t="s">
-        <v>72</v>
+        <v>3798</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>3798</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.2">

--- a/paradigms/paradigms_excel/paradigms_trans.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans.xlsx
@@ -11742,7 +11742,7 @@
   <dimension ref="A1:BM87"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12440,593 +12440,593 @@
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3778</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3778</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3779</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3779</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3795</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>3795</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>3780</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>3780</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>3781</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>3781</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>3782</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>3782</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>3783</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>3782</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>3784</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>3784</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>3785</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>3785</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>3786</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>3786</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>3787</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>3787</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>3788</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>3788</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>3787</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>3789</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>3787</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>3789</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>3780</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>3778</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>3786</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>3787</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>3790</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>3779</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>3791</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>3792</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>3793</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>3794</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>3780</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>3780</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>3780</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>3780</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>3778</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>3778</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>3780</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>3780</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>3778</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>3780</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>3778</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>3779</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>3780</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>3778</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>3779</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>3779</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>3778</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>3778</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>3789</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>3780</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>3789</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>3780</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>3780</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>3779</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>3778</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>3779</v>
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" t="s">
+        <v>96</v>
+      </c>
+      <c r="S6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" t="s">
+        <v>99</v>
+      </c>
+      <c r="V6" t="s">
+        <v>100</v>
+      </c>
+      <c r="W6" t="s">
+        <v>101</v>
+      </c>
+      <c r="X6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>133</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>140</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>141</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="Q7" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="R7" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="S7" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="T7" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="U7" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="V7" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="Z7" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="AA7" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="AB7" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="AC7" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="AD7" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="AE7" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="AF7" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="AG7" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="AH7" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="AI7" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="AJ7" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="AK7" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="AL7" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="AM7" t="s">
-        <v>1230</v>
+        <v>117</v>
       </c>
       <c r="AN7" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="AO7" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="AP7" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="AQ7" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="AR7" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="AS7" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="AT7" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="AU7" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="AV7" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="AW7" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="AX7" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="AY7" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="AZ7" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="BA7" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="BB7" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="BC7" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="BD7" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="BE7" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="BF7" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="BG7" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="BH7" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="BI7" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="BJ7" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="BK7" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="BL7" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="BM7" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8" t="s">
-        <v>151</v>
-      </c>
-      <c r="I8" t="s">
-        <v>152</v>
-      </c>
-      <c r="J8" t="s">
-        <v>153</v>
-      </c>
-      <c r="K8" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" t="s">
-        <v>155</v>
-      </c>
-      <c r="M8" t="s">
-        <v>156</v>
-      </c>
-      <c r="N8" t="s">
-        <v>157</v>
-      </c>
-      <c r="O8" t="s">
-        <v>158</v>
-      </c>
-      <c r="P8" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>160</v>
-      </c>
-      <c r="R8" t="s">
-        <v>161</v>
-      </c>
-      <c r="S8" t="s">
-        <v>162</v>
-      </c>
-      <c r="T8" t="s">
-        <v>163</v>
-      </c>
-      <c r="U8" t="s">
-        <v>164</v>
-      </c>
-      <c r="V8" t="s">
-        <v>165</v>
-      </c>
-      <c r="W8" t="s">
-        <v>166</v>
-      </c>
-      <c r="X8" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>179</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>180</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>183</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>188</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>191</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>192</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>193</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>195</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>196</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>197</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>199</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>200</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>201</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>202</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>203</v>
+        <v>78</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3779</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3795</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>3795</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>3781</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>3781</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>3782</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>3782</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>3783</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>3782</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>3784</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>3784</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>3785</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>3785</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>3786</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>3786</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>3788</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>3788</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>3789</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>3789</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>3786</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>3779</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>3791</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>3792</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>3793</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>3794</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>3779</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>3779</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>3779</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>3789</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>3789</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>3779</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>3779</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">

--- a/paradigms/paradigms_excel/paradigms_trans.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding/ArmenianVerbs/paradigms/paradigms_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding and data/ArmenianVerbs/paradigms/paradigms_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11741,8 +11741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AB34" workbookViewId="0">
-      <selection activeCell="AM46" sqref="AM46"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AR3" sqref="AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12134,7 +12134,7 @@
         <v>60</v>
       </c>
       <c r="AT3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AU3" t="s">
         <v>62</v>

--- a/paradigms/paradigms_excel/paradigms_trans.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="3799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="3798">
   <si>
     <t>Class number</t>
   </si>
@@ -8253,9 +8253,6 @@
   </si>
   <si>
     <t>ijnak</t>
-  </si>
-  <si>
-    <t>xad͡zek</t>
   </si>
   <si>
     <t>xaɣak</t>
@@ -11741,8 +11738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="AT59" workbookViewId="0">
+      <selection activeCell="BH72" sqref="BH72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12199,201 +12196,201 @@
         <v>63</v>
       </c>
       <c r="B4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C4" t="s">
         <v>3380</v>
       </c>
-      <c r="C4" t="s">
-        <v>3381</v>
-      </c>
       <c r="D4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="E4" t="s">
         <v>3380</v>
       </c>
-      <c r="E4" t="s">
-        <v>3381</v>
-      </c>
       <c r="F4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="G4" t="s">
         <v>3380</v>
       </c>
-      <c r="G4" t="s">
-        <v>3381</v>
-      </c>
       <c r="H4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="I4" t="s">
         <v>3380</v>
       </c>
-      <c r="I4" t="s">
-        <v>3381</v>
-      </c>
       <c r="J4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="K4" t="s">
         <v>3380</v>
       </c>
-      <c r="K4" t="s">
-        <v>3381</v>
-      </c>
       <c r="L4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="M4" t="s">
         <v>3380</v>
       </c>
-      <c r="M4" t="s">
-        <v>3381</v>
-      </c>
       <c r="N4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="O4" t="s">
         <v>3380</v>
       </c>
-      <c r="O4" t="s">
-        <v>3381</v>
-      </c>
       <c r="P4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="Q4" t="s">
         <v>3380</v>
       </c>
-      <c r="Q4" t="s">
-        <v>3381</v>
-      </c>
       <c r="R4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="S4" t="s">
         <v>3380</v>
       </c>
-      <c r="S4" t="s">
-        <v>3381</v>
-      </c>
       <c r="T4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="U4" t="s">
         <v>3380</v>
       </c>
-      <c r="U4" t="s">
-        <v>3381</v>
-      </c>
       <c r="V4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="W4" t="s">
         <v>3380</v>
       </c>
-      <c r="W4" t="s">
-        <v>3381</v>
-      </c>
       <c r="X4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="Y4" t="s">
         <v>3380</v>
       </c>
-      <c r="Y4" t="s">
-        <v>3381</v>
-      </c>
       <c r="Z4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="AB4" t="s">
         <v>3380</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>3380</v>
       </c>
-      <c r="AB4" t="s">
-        <v>3381</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>3381</v>
-      </c>
       <c r="AD4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="AF4" t="s">
         <v>3380</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>3380</v>
       </c>
-      <c r="AF4" t="s">
-        <v>3381</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>3381</v>
-      </c>
       <c r="AH4" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="AI4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="AK4" t="s">
         <v>3380</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>3380</v>
       </c>
-      <c r="AK4" t="s">
-        <v>3381</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>3381</v>
-      </c>
       <c r="AM4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="AO4" t="s">
         <v>3380</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>3380</v>
       </c>
-      <c r="AO4" t="s">
-        <v>3381</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>3381</v>
-      </c>
       <c r="AQ4" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="AR4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="AS4" t="s">
         <v>3380</v>
       </c>
-      <c r="AS4" t="s">
-        <v>3381</v>
-      </c>
       <c r="AT4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="AU4" t="s">
         <v>3380</v>
       </c>
-      <c r="AU4" t="s">
-        <v>3381</v>
-      </c>
       <c r="AV4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="AW4" t="s">
         <v>3380</v>
       </c>
-      <c r="AW4" t="s">
-        <v>3381</v>
-      </c>
       <c r="AX4" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="AY4" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="AZ4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="BA4" t="s">
         <v>3380</v>
       </c>
-      <c r="BA4" t="s">
-        <v>3381</v>
-      </c>
       <c r="BB4" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="BC4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="BF4" t="s">
         <v>3380</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BG4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="BH4" t="s">
         <v>3380</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BI4" t="s">
         <v>3380</v>
       </c>
-      <c r="BF4" t="s">
-        <v>3381</v>
-      </c>
-      <c r="BG4" t="s">
+      <c r="BJ4" t="s">
         <v>3380</v>
       </c>
-      <c r="BH4" t="s">
-        <v>3381</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>3381</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>3381</v>
-      </c>
       <c r="BK4" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="BL4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="BM4" t="s">
         <v>3380</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>3381</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -12837,196 +12834,196 @@
         <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>3362</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>3362</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>3363</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>3363</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>3379</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>3379</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>3364</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>3364</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>3365</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>3365</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>3366</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>3366</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>3367</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>3366</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>3368</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>3368</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>3369</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>3369</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>3370</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>3370</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>3371</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>3371</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>3372</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>3372</v>
       </c>
-      <c r="Z8" s="1" t="s">
-        <v>3371</v>
-      </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="AH8" s="1" t="s">
         <v>3373</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>3371</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>3373</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>3364</v>
-      </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>3362</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>3370</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>3371</v>
-      </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>3374</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="AN8" s="1" t="s">
         <v>3363</v>
       </c>
-      <c r="AJ8" s="1" t="s">
-        <v>3375</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>3376</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>3377</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>3378</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>3364</v>
-      </c>
       <c r="AO8" s="1" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="AR8" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="AY8" s="1" t="s">
         <v>3362</v>
       </c>
-      <c r="AS8" s="1" t="s">
+      <c r="AZ8" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="BB8" s="1" t="s">
         <v>3362</v>
       </c>
-      <c r="AT8" s="1" t="s">
-        <v>3364</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>3364</v>
-      </c>
-      <c r="AV8" s="1" t="s">
+      <c r="BC8" s="1" t="s">
         <v>3362</v>
       </c>
-      <c r="AW8" s="1" t="s">
-        <v>3364</v>
-      </c>
-      <c r="AX8" s="1" t="s">
+      <c r="BD8" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="BK8" s="1" t="s">
         <v>3362</v>
       </c>
-      <c r="AY8" s="1" t="s">
-        <v>3363</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>3364</v>
-      </c>
-      <c r="BA8" s="1" t="s">
+      <c r="BL8" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="BM8" s="1" t="s">
         <v>3362</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>3363</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>3363</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>3362</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>3362</v>
-      </c>
-      <c r="BF8" s="1" t="s">
-        <v>3373</v>
-      </c>
-      <c r="BG8" s="1" t="s">
-        <v>3364</v>
-      </c>
-      <c r="BH8" s="1" t="s">
-        <v>3373</v>
-      </c>
-      <c r="BI8" s="1" t="s">
-        <v>3364</v>
-      </c>
-      <c r="BJ8" s="1" t="s">
-        <v>3364</v>
-      </c>
-      <c r="BK8" s="1" t="s">
-        <v>3363</v>
-      </c>
-      <c r="BL8" s="1" t="s">
-        <v>3362</v>
-      </c>
-      <c r="BM8" s="1" t="s">
-        <v>3363</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">
@@ -13932,16 +13929,16 @@
         <v>484</v>
       </c>
       <c r="D14" t="s">
+        <v>3682</v>
+      </c>
+      <c r="E14" t="s">
         <v>3683</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>3684</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>3685</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3686</v>
       </c>
       <c r="H14" t="s">
         <v>485</v>
@@ -13974,58 +13971,58 @@
         <v>494</v>
       </c>
       <c r="R14" t="s">
+        <v>3686</v>
+      </c>
+      <c r="S14" t="s">
         <v>3687</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>3688</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>3689</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>3690</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>3691</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>3692</v>
-      </c>
-      <c r="X14" t="s">
-        <v>3693</v>
       </c>
       <c r="Y14" t="s">
         <v>495</v>
       </c>
       <c r="Z14" t="s">
+        <v>3693</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>3693</v>
+      </c>
+      <c r="AB14" t="s">
         <v>3694</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AC14" t="s">
         <v>3694</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AD14" t="s">
         <v>3695</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
         <v>3695</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>3696</v>
       </c>
-      <c r="AE14" t="s">
-        <v>3696</v>
-      </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>3697</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AN14" t="s">
         <v>3698</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AO14" t="s">
         <v>3699</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>3700</v>
       </c>
       <c r="AP14" t="s">
         <v>496</v>
@@ -14040,10 +14037,10 @@
         <v>499</v>
       </c>
       <c r="AT14" t="s">
+        <v>3700</v>
+      </c>
+      <c r="AU14" t="s">
         <v>3701</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>3702</v>
       </c>
       <c r="AV14" t="s">
         <v>500</v>
@@ -14055,7 +14052,7 @@
         <v>502</v>
       </c>
       <c r="AY14" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="AZ14" t="s">
         <v>503</v>
@@ -14064,10 +14061,10 @@
         <v>504</v>
       </c>
       <c r="BB14" t="s">
+        <v>3702</v>
+      </c>
+      <c r="BC14" t="s">
         <v>3703</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>3704</v>
       </c>
       <c r="BD14" t="s">
         <v>505</v>
@@ -14076,25 +14073,25 @@
         <v>506</v>
       </c>
       <c r="BF14" t="s">
+        <v>3704</v>
+      </c>
+      <c r="BG14" t="s">
         <v>3705</v>
       </c>
-      <c r="BG14" t="s">
+      <c r="BH14" t="s">
         <v>3706</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BI14" t="s">
         <v>3707</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>3708</v>
       </c>
       <c r="BJ14" t="s">
         <v>507</v>
       </c>
       <c r="BK14" t="s">
+        <v>3708</v>
+      </c>
+      <c r="BL14" t="s">
         <v>3709</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>3710</v>
       </c>
       <c r="BM14" t="s">
         <v>508</v>
@@ -14839,10 +14836,10 @@
         <v>733</v>
       </c>
       <c r="H19" t="s">
+        <v>3382</v>
+      </c>
+      <c r="I19" t="s">
         <v>3383</v>
-      </c>
-      <c r="I19" t="s">
-        <v>3384</v>
       </c>
       <c r="J19" t="s">
         <v>734</v>
@@ -14878,10 +14875,10 @@
         <v>744</v>
       </c>
       <c r="V19" t="s">
+        <v>3384</v>
+      </c>
+      <c r="W19" t="s">
         <v>3385</v>
-      </c>
-      <c r="W19" t="s">
-        <v>3386</v>
       </c>
       <c r="X19" t="s">
         <v>745</v>
@@ -14890,19 +14887,19 @@
         <v>746</v>
       </c>
       <c r="Z19" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AA19" t="s">
         <v>747</v>
       </c>
       <c r="AB19" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="AC19" t="s">
         <v>748</v>
       </c>
       <c r="AD19" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="AE19" t="s">
         <v>749</v>
@@ -14911,7 +14908,7 @@
         <v>750</v>
       </c>
       <c r="AH19" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AI19" t="s">
         <v>751</v>
@@ -14923,22 +14920,22 @@
         <v>753</v>
       </c>
       <c r="AL19" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="AM19" t="s">
         <v>754</v>
       </c>
       <c r="AN19" t="s">
+        <v>3391</v>
+      </c>
+      <c r="AO19" t="s">
         <v>3392</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AP19" t="s">
         <v>3393</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" t="s">
         <v>3394</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>3395</v>
       </c>
       <c r="AR19" t="s">
         <v>755</v>
@@ -14947,16 +14944,16 @@
         <v>756</v>
       </c>
       <c r="AT19" t="s">
+        <v>3395</v>
+      </c>
+      <c r="AU19" t="s">
         <v>3396</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>3397</v>
       </c>
       <c r="AV19" t="s">
         <v>757</v>
       </c>
       <c r="AW19" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="AX19" t="s">
         <v>758</v>
@@ -14965,7 +14962,7 @@
         <v>759</v>
       </c>
       <c r="AZ19" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="BA19" t="s">
         <v>760</v>
@@ -14986,16 +14983,16 @@
         <v>765</v>
       </c>
       <c r="BG19" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="BH19" t="s">
         <v>766</v>
       </c>
       <c r="BI19" t="s">
+        <v>3400</v>
+      </c>
+      <c r="BJ19" t="s">
         <v>3401</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>3402</v>
       </c>
       <c r="BK19" t="s">
         <v>767</v>
@@ -15030,10 +15027,10 @@
         <v>776</v>
       </c>
       <c r="H20" t="s">
+        <v>3402</v>
+      </c>
+      <c r="I20" t="s">
         <v>3403</v>
-      </c>
-      <c r="I20" t="s">
-        <v>3404</v>
       </c>
       <c r="J20" t="s">
         <v>777</v>
@@ -15069,10 +15066,10 @@
         <v>787</v>
       </c>
       <c r="V20" t="s">
+        <v>3404</v>
+      </c>
+      <c r="W20" t="s">
         <v>3405</v>
-      </c>
-      <c r="W20" t="s">
-        <v>3406</v>
       </c>
       <c r="X20" t="s">
         <v>788</v>
@@ -15081,19 +15078,19 @@
         <v>789</v>
       </c>
       <c r="Z20" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="AA20" t="s">
         <v>790</v>
       </c>
       <c r="AB20" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="AC20" t="s">
         <v>791</v>
       </c>
       <c r="AD20" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="AE20" t="s">
         <v>792</v>
@@ -15102,7 +15099,7 @@
         <v>793</v>
       </c>
       <c r="AH20" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="AI20" t="s">
         <v>794</v>
@@ -15114,22 +15111,22 @@
         <v>796</v>
       </c>
       <c r="AL20" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="AM20" t="s">
         <v>797</v>
       </c>
       <c r="AN20" t="s">
+        <v>3411</v>
+      </c>
+      <c r="AO20" t="s">
         <v>3412</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AP20" t="s">
         <v>3413</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AQ20" t="s">
         <v>3414</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>3415</v>
       </c>
       <c r="AR20" t="s">
         <v>798</v>
@@ -15138,16 +15135,16 @@
         <v>799</v>
       </c>
       <c r="AT20" t="s">
+        <v>3415</v>
+      </c>
+      <c r="AU20" t="s">
         <v>3416</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>3417</v>
       </c>
       <c r="AV20" t="s">
         <v>800</v>
       </c>
       <c r="AW20" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="AX20" t="s">
         <v>801</v>
@@ -15156,7 +15153,7 @@
         <v>802</v>
       </c>
       <c r="AZ20" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="BA20" t="s">
         <v>803</v>
@@ -15177,16 +15174,16 @@
         <v>808</v>
       </c>
       <c r="BG20" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="BH20" t="s">
         <v>809</v>
       </c>
       <c r="BI20" t="s">
+        <v>3420</v>
+      </c>
+      <c r="BJ20" t="s">
         <v>3421</v>
-      </c>
-      <c r="BJ20" t="s">
-        <v>3422</v>
       </c>
       <c r="BK20" t="s">
         <v>810</v>
@@ -15221,10 +15218,10 @@
         <v>819</v>
       </c>
       <c r="H21" t="s">
+        <v>3422</v>
+      </c>
+      <c r="I21" t="s">
         <v>3423</v>
-      </c>
-      <c r="I21" t="s">
-        <v>3424</v>
       </c>
       <c r="J21" t="s">
         <v>820</v>
@@ -15260,10 +15257,10 @@
         <v>830</v>
       </c>
       <c r="V21" t="s">
+        <v>3424</v>
+      </c>
+      <c r="W21" t="s">
         <v>3425</v>
-      </c>
-      <c r="W21" t="s">
-        <v>3426</v>
       </c>
       <c r="X21" t="s">
         <v>831</v>
@@ -15272,19 +15269,19 @@
         <v>832</v>
       </c>
       <c r="Z21" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="AA21" t="s">
         <v>833</v>
       </c>
       <c r="AB21" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="AC21" t="s">
         <v>834</v>
       </c>
       <c r="AD21" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="AE21" t="s">
         <v>835</v>
@@ -15293,7 +15290,7 @@
         <v>836</v>
       </c>
       <c r="AH21" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="AI21" t="s">
         <v>837</v>
@@ -15305,22 +15302,22 @@
         <v>839</v>
       </c>
       <c r="AL21" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="AM21" t="s">
         <v>840</v>
       </c>
       <c r="AN21" t="s">
+        <v>3431</v>
+      </c>
+      <c r="AO21" t="s">
         <v>3432</v>
       </c>
-      <c r="AO21" t="s">
+      <c r="AP21" t="s">
         <v>3433</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AQ21" t="s">
         <v>3434</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>3435</v>
       </c>
       <c r="AR21" t="s">
         <v>841</v>
@@ -15329,16 +15326,16 @@
         <v>842</v>
       </c>
       <c r="AT21" t="s">
+        <v>3435</v>
+      </c>
+      <c r="AU21" t="s">
         <v>3436</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>3437</v>
       </c>
       <c r="AV21" t="s">
         <v>843</v>
       </c>
       <c r="AW21" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="AX21" t="s">
         <v>844</v>
@@ -15347,7 +15344,7 @@
         <v>845</v>
       </c>
       <c r="AZ21" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="BA21" t="s">
         <v>846</v>
@@ -15368,16 +15365,16 @@
         <v>851</v>
       </c>
       <c r="BG21" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="BH21" t="s">
         <v>852</v>
       </c>
       <c r="BI21" t="s">
+        <v>3440</v>
+      </c>
+      <c r="BJ21" t="s">
         <v>3441</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>3442</v>
       </c>
       <c r="BK21" t="s">
         <v>853</v>
@@ -15412,10 +15409,10 @@
         <v>862</v>
       </c>
       <c r="H22" t="s">
+        <v>3442</v>
+      </c>
+      <c r="I22" t="s">
         <v>3443</v>
-      </c>
-      <c r="I22" t="s">
-        <v>3444</v>
       </c>
       <c r="J22" t="s">
         <v>863</v>
@@ -15451,10 +15448,10 @@
         <v>873</v>
       </c>
       <c r="V22" t="s">
+        <v>3444</v>
+      </c>
+      <c r="W22" t="s">
         <v>3445</v>
-      </c>
-      <c r="W22" t="s">
-        <v>3446</v>
       </c>
       <c r="X22" t="s">
         <v>874</v>
@@ -15463,19 +15460,19 @@
         <v>875</v>
       </c>
       <c r="Z22" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="AA22" t="s">
         <v>876</v>
       </c>
       <c r="AB22" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="AC22" t="s">
         <v>877</v>
       </c>
       <c r="AD22" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="AE22" t="s">
         <v>878</v>
@@ -15484,7 +15481,7 @@
         <v>879</v>
       </c>
       <c r="AH22" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="AI22" t="s">
         <v>880</v>
@@ -15496,22 +15493,22 @@
         <v>882</v>
       </c>
       <c r="AL22" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="AM22" t="s">
         <v>883</v>
       </c>
       <c r="AN22" t="s">
+        <v>3451</v>
+      </c>
+      <c r="AO22" t="s">
         <v>3452</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AP22" t="s">
         <v>3453</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
         <v>3454</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>3455</v>
       </c>
       <c r="AR22" t="s">
         <v>884</v>
@@ -15520,16 +15517,16 @@
         <v>885</v>
       </c>
       <c r="AT22" t="s">
+        <v>3455</v>
+      </c>
+      <c r="AU22" t="s">
         <v>3456</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>3457</v>
       </c>
       <c r="AV22" t="s">
         <v>886</v>
       </c>
       <c r="AW22" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="AX22" t="s">
         <v>887</v>
@@ -15538,7 +15535,7 @@
         <v>888</v>
       </c>
       <c r="AZ22" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="BA22" t="s">
         <v>889</v>
@@ -15559,16 +15556,16 @@
         <v>894</v>
       </c>
       <c r="BG22" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="BH22" t="s">
         <v>895</v>
       </c>
       <c r="BI22" t="s">
+        <v>3460</v>
+      </c>
+      <c r="BJ22" t="s">
         <v>3461</v>
-      </c>
-      <c r="BJ22" t="s">
-        <v>3462</v>
       </c>
       <c r="BK22" t="s">
         <v>896</v>
@@ -15603,10 +15600,10 @@
         <v>905</v>
       </c>
       <c r="H23" t="s">
+        <v>3462</v>
+      </c>
+      <c r="I23" t="s">
         <v>3463</v>
-      </c>
-      <c r="I23" t="s">
-        <v>3464</v>
       </c>
       <c r="J23" t="s">
         <v>906</v>
@@ -15642,10 +15639,10 @@
         <v>916</v>
       </c>
       <c r="V23" t="s">
+        <v>3464</v>
+      </c>
+      <c r="W23" t="s">
         <v>3465</v>
-      </c>
-      <c r="W23" t="s">
-        <v>3466</v>
       </c>
       <c r="X23" t="s">
         <v>917</v>
@@ -15654,19 +15651,19 @@
         <v>918</v>
       </c>
       <c r="Z23" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="AA23" t="s">
         <v>919</v>
       </c>
       <c r="AB23" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="AC23" t="s">
         <v>920</v>
       </c>
       <c r="AD23" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="AE23" t="s">
         <v>921</v>
@@ -15675,7 +15672,7 @@
         <v>922</v>
       </c>
       <c r="AH23" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="AI23" t="s">
         <v>923</v>
@@ -15687,22 +15684,22 @@
         <v>925</v>
       </c>
       <c r="AL23" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="AM23" t="s">
         <v>926</v>
       </c>
       <c r="AN23" t="s">
+        <v>3471</v>
+      </c>
+      <c r="AO23" t="s">
         <v>3472</v>
       </c>
-      <c r="AO23" t="s">
+      <c r="AP23" t="s">
         <v>3473</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AQ23" t="s">
         <v>3474</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>3475</v>
       </c>
       <c r="AR23" t="s">
         <v>927</v>
@@ -15711,16 +15708,16 @@
         <v>928</v>
       </c>
       <c r="AT23" t="s">
+        <v>3475</v>
+      </c>
+      <c r="AU23" t="s">
         <v>3476</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>3477</v>
       </c>
       <c r="AV23" t="s">
         <v>929</v>
       </c>
       <c r="AW23" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="AX23" t="s">
         <v>930</v>
@@ -15729,7 +15726,7 @@
         <v>931</v>
       </c>
       <c r="AZ23" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="BA23" t="s">
         <v>932</v>
@@ -15750,16 +15747,16 @@
         <v>937</v>
       </c>
       <c r="BG23" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="BH23" t="s">
         <v>938</v>
       </c>
       <c r="BI23" t="s">
+        <v>3480</v>
+      </c>
+      <c r="BJ23" t="s">
         <v>3481</v>
-      </c>
-      <c r="BJ23" t="s">
-        <v>3482</v>
       </c>
       <c r="BK23" t="s">
         <v>939</v>
@@ -16955,10 +16952,10 @@
         <v>1327</v>
       </c>
       <c r="H30" t="s">
+        <v>3710</v>
+      </c>
+      <c r="I30" t="s">
         <v>3711</v>
-      </c>
-      <c r="I30" t="s">
-        <v>3712</v>
       </c>
       <c r="J30" t="s">
         <v>1328</v>
@@ -16997,10 +16994,10 @@
         <v>1339</v>
       </c>
       <c r="V30" t="s">
+        <v>3712</v>
+      </c>
+      <c r="W30" t="s">
         <v>3713</v>
-      </c>
-      <c r="W30" t="s">
-        <v>3714</v>
       </c>
       <c r="X30" t="s">
         <v>1340</v>
@@ -17009,19 +17006,19 @@
         <v>1341</v>
       </c>
       <c r="Z30" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="AA30" t="s">
         <v>1342</v>
       </c>
       <c r="AB30" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="AC30" t="s">
         <v>1343</v>
       </c>
       <c r="AD30" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="AE30" t="s">
         <v>1344</v>
@@ -17030,7 +17027,7 @@
         <v>1345</v>
       </c>
       <c r="AH30" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="AI30" t="s">
         <v>1346</v>
@@ -17042,22 +17039,22 @@
         <v>1348</v>
       </c>
       <c r="AL30" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="AM30" t="s">
         <v>117</v>
       </c>
       <c r="AN30" t="s">
+        <v>3719</v>
+      </c>
+      <c r="AO30" t="s">
         <v>3720</v>
       </c>
-      <c r="AO30" t="s">
+      <c r="AP30" t="s">
         <v>3721</v>
       </c>
-      <c r="AP30" t="s">
+      <c r="AQ30" t="s">
         <v>3722</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>3723</v>
       </c>
       <c r="AR30" t="s">
         <v>1349</v>
@@ -17066,16 +17063,16 @@
         <v>1350</v>
       </c>
       <c r="AT30" t="s">
+        <v>3723</v>
+      </c>
+      <c r="AU30" t="s">
         <v>3724</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>3725</v>
       </c>
       <c r="AV30" t="s">
         <v>1351</v>
       </c>
       <c r="AW30" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="AX30" t="s">
         <v>1352</v>
@@ -17084,7 +17081,7 @@
         <v>1353</v>
       </c>
       <c r="AZ30" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="BA30" t="s">
         <v>1354</v>
@@ -17105,16 +17102,16 @@
         <v>1359</v>
       </c>
       <c r="BG30" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="BH30" t="s">
         <v>1360</v>
       </c>
       <c r="BI30" t="s">
+        <v>3728</v>
+      </c>
+      <c r="BJ30" t="s">
         <v>3729</v>
-      </c>
-      <c r="BJ30" t="s">
-        <v>3730</v>
       </c>
       <c r="BK30" t="s">
         <v>1361</v>
@@ -17680,16 +17677,16 @@
         <v>1482</v>
       </c>
       <c r="D34" t="s">
+        <v>3770</v>
+      </c>
+      <c r="E34" t="s">
         <v>3771</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>3772</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>3773</v>
-      </c>
-      <c r="G34" t="s">
-        <v>3774</v>
       </c>
       <c r="H34" t="s">
         <v>1483</v>
@@ -17722,58 +17719,58 @@
         <v>1492</v>
       </c>
       <c r="R34" t="s">
+        <v>3774</v>
+      </c>
+      <c r="S34" t="s">
         <v>3775</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>3776</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>3777</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>3778</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>3779</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>3780</v>
-      </c>
-      <c r="X34" t="s">
-        <v>3781</v>
       </c>
       <c r="Y34" t="s">
         <v>1493</v>
       </c>
       <c r="Z34" t="s">
+        <v>3781</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>3781</v>
+      </c>
+      <c r="AB34" t="s">
         <v>3782</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AC34" t="s">
         <v>3782</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AD34" t="s">
         <v>3783</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AE34" t="s">
         <v>3783</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AF34" t="s">
         <v>3784</v>
       </c>
-      <c r="AE34" t="s">
-        <v>3784</v>
-      </c>
-      <c r="AF34" t="s">
+      <c r="AH34" t="s">
         <v>3785</v>
       </c>
-      <c r="AH34" t="s">
+      <c r="AN34" t="s">
         <v>3786</v>
       </c>
-      <c r="AN34" t="s">
+      <c r="AO34" t="s">
         <v>3787</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>3788</v>
       </c>
       <c r="AP34" t="s">
         <v>1494</v>
@@ -17788,10 +17785,10 @@
         <v>1497</v>
       </c>
       <c r="AT34" t="s">
+        <v>3788</v>
+      </c>
+      <c r="AU34" t="s">
         <v>3789</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>3790</v>
       </c>
       <c r="AV34" t="s">
         <v>1498</v>
@@ -17803,7 +17800,7 @@
         <v>1500</v>
       </c>
       <c r="AY34" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="AZ34" t="s">
         <v>1501</v>
@@ -17812,10 +17809,10 @@
         <v>1502</v>
       </c>
       <c r="BB34" t="s">
+        <v>3790</v>
+      </c>
+      <c r="BC34" t="s">
         <v>3791</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>3792</v>
       </c>
       <c r="BD34" t="s">
         <v>1503</v>
@@ -17824,25 +17821,25 @@
         <v>1504</v>
       </c>
       <c r="BF34" t="s">
+        <v>3792</v>
+      </c>
+      <c r="BG34" t="s">
         <v>3793</v>
       </c>
-      <c r="BG34" t="s">
+      <c r="BH34" t="s">
         <v>3794</v>
       </c>
-      <c r="BH34" t="s">
+      <c r="BI34" t="s">
         <v>3795</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>3796</v>
       </c>
       <c r="BJ34" t="s">
         <v>1505</v>
       </c>
       <c r="BK34" t="s">
+        <v>3796</v>
+      </c>
+      <c r="BL34" t="s">
         <v>3797</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>3798</v>
       </c>
       <c r="BM34" t="s">
         <v>1506</v>
@@ -18659,7 +18656,7 @@
         <v>1728</v>
       </c>
       <c r="AL39" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="AM39" t="s">
         <v>1730</v>
@@ -18838,7 +18835,7 @@
         <v>1728</v>
       </c>
       <c r="AL40" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="AM40" t="s">
         <v>1733</v>
@@ -19017,7 +19014,7 @@
         <v>1728</v>
       </c>
       <c r="AL41" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="AM41" t="s">
         <v>1736</v>
@@ -19196,7 +19193,7 @@
         <v>1728</v>
       </c>
       <c r="AL42" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="AM42" t="s">
         <v>1739</v>
@@ -19375,7 +19372,7 @@
         <v>1728</v>
       </c>
       <c r="AL43" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="AM43" t="s">
         <v>1742</v>
@@ -20664,7 +20661,7 @@
         <v>1728</v>
       </c>
       <c r="AL50" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="AM50" t="s">
         <v>1769</v>
@@ -21487,10 +21484,10 @@
         <v>2004</v>
       </c>
       <c r="H55" t="s">
+        <v>3487</v>
+      </c>
+      <c r="I55" t="s">
         <v>3488</v>
-      </c>
-      <c r="I55" t="s">
-        <v>3489</v>
       </c>
       <c r="J55" t="s">
         <v>2005</v>
@@ -21523,10 +21520,10 @@
         <v>2014</v>
       </c>
       <c r="V55" t="s">
+        <v>3489</v>
+      </c>
+      <c r="W55" t="s">
         <v>3490</v>
-      </c>
-      <c r="W55" t="s">
-        <v>3491</v>
       </c>
       <c r="X55" t="s">
         <v>2015</v>
@@ -21535,19 +21532,19 @@
         <v>2016</v>
       </c>
       <c r="Z55" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="AA55" t="s">
         <v>2017</v>
       </c>
       <c r="AB55" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="AC55" t="s">
         <v>2018</v>
       </c>
       <c r="AD55" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="AE55" t="s">
         <v>2019</v>
@@ -21556,10 +21553,10 @@
         <v>2020</v>
       </c>
       <c r="AG55" t="s">
+        <v>3494</v>
+      </c>
+      <c r="AH55" t="s">
         <v>3495</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>3496</v>
       </c>
       <c r="AJ55" t="s">
         <v>1729</v>
@@ -21568,19 +21565,19 @@
         <v>2021</v>
       </c>
       <c r="AL55" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="AN55" t="s">
+        <v>3496</v>
+      </c>
+      <c r="AO55" t="s">
         <v>3497</v>
       </c>
-      <c r="AO55" t="s">
+      <c r="AP55" t="s">
         <v>3498</v>
       </c>
-      <c r="AP55" t="s">
+      <c r="AQ55" t="s">
         <v>3499</v>
-      </c>
-      <c r="AQ55" t="s">
-        <v>3500</v>
       </c>
       <c r="AR55" t="s">
         <v>2022</v>
@@ -21589,16 +21586,16 @@
         <v>2023</v>
       </c>
       <c r="AT55" t="s">
+        <v>3500</v>
+      </c>
+      <c r="AU55" t="s">
         <v>3501</v>
-      </c>
-      <c r="AU55" t="s">
-        <v>3502</v>
       </c>
       <c r="AV55" t="s">
         <v>2024</v>
       </c>
       <c r="AW55" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="AX55" t="s">
         <v>2025</v>
@@ -21607,7 +21604,7 @@
         <v>2026</v>
       </c>
       <c r="AZ55" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="BA55" t="s">
         <v>2027</v>
@@ -21628,16 +21625,16 @@
         <v>2032</v>
       </c>
       <c r="BG55" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="BH55" t="s">
         <v>2033</v>
       </c>
       <c r="BI55" t="s">
+        <v>3505</v>
+      </c>
+      <c r="BJ55" t="s">
         <v>3506</v>
-      </c>
-      <c r="BJ55" t="s">
-        <v>3507</v>
       </c>
       <c r="BK55" t="s">
         <v>2034</v>
@@ -21672,10 +21669,10 @@
         <v>2043</v>
       </c>
       <c r="H56" t="s">
+        <v>3507</v>
+      </c>
+      <c r="I56" t="s">
         <v>3508</v>
-      </c>
-      <c r="I56" t="s">
-        <v>3509</v>
       </c>
       <c r="J56" t="s">
         <v>2044</v>
@@ -21708,10 +21705,10 @@
         <v>2053</v>
       </c>
       <c r="V56" t="s">
+        <v>3509</v>
+      </c>
+      <c r="W56" t="s">
         <v>3510</v>
-      </c>
-      <c r="W56" t="s">
-        <v>3511</v>
       </c>
       <c r="X56" t="s">
         <v>2054</v>
@@ -21720,19 +21717,19 @@
         <v>2055</v>
       </c>
       <c r="Z56" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="AA56" t="s">
         <v>2056</v>
       </c>
       <c r="AB56" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="AC56" t="s">
         <v>2057</v>
       </c>
       <c r="AD56" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="AE56" t="s">
         <v>2058</v>
@@ -21741,10 +21738,10 @@
         <v>2059</v>
       </c>
       <c r="AG56" t="s">
+        <v>3514</v>
+      </c>
+      <c r="AH56" t="s">
         <v>3515</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>3516</v>
       </c>
       <c r="AJ56" t="s">
         <v>1732</v>
@@ -21753,19 +21750,19 @@
         <v>2060</v>
       </c>
       <c r="AL56" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="AN56" t="s">
+        <v>3516</v>
+      </c>
+      <c r="AO56" t="s">
         <v>3517</v>
       </c>
-      <c r="AO56" t="s">
+      <c r="AP56" t="s">
         <v>3518</v>
       </c>
-      <c r="AP56" t="s">
+      <c r="AQ56" t="s">
         <v>3519</v>
-      </c>
-      <c r="AQ56" t="s">
-        <v>3520</v>
       </c>
       <c r="AR56" t="s">
         <v>2061</v>
@@ -21774,16 +21771,16 @@
         <v>2062</v>
       </c>
       <c r="AT56" t="s">
+        <v>3520</v>
+      </c>
+      <c r="AU56" t="s">
         <v>3521</v>
-      </c>
-      <c r="AU56" t="s">
-        <v>3522</v>
       </c>
       <c r="AV56" t="s">
         <v>2063</v>
       </c>
       <c r="AW56" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="AX56" t="s">
         <v>2064</v>
@@ -21792,7 +21789,7 @@
         <v>2065</v>
       </c>
       <c r="AZ56" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="BA56" t="s">
         <v>2066</v>
@@ -21813,16 +21810,16 @@
         <v>2071</v>
       </c>
       <c r="BG56" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="BH56" t="s">
         <v>2072</v>
       </c>
       <c r="BI56" t="s">
+        <v>3525</v>
+      </c>
+      <c r="BJ56" t="s">
         <v>3526</v>
-      </c>
-      <c r="BJ56" t="s">
-        <v>3527</v>
       </c>
       <c r="BK56" t="s">
         <v>2073</v>
@@ -21857,10 +21854,10 @@
         <v>2082</v>
       </c>
       <c r="H57" t="s">
+        <v>3527</v>
+      </c>
+      <c r="I57" t="s">
         <v>3528</v>
-      </c>
-      <c r="I57" t="s">
-        <v>3529</v>
       </c>
       <c r="J57" t="s">
         <v>2083</v>
@@ -21893,10 +21890,10 @@
         <v>2092</v>
       </c>
       <c r="V57" t="s">
+        <v>3529</v>
+      </c>
+      <c r="W57" t="s">
         <v>3530</v>
-      </c>
-      <c r="W57" t="s">
-        <v>3531</v>
       </c>
       <c r="X57" t="s">
         <v>2093</v>
@@ -21905,19 +21902,19 @@
         <v>2094</v>
       </c>
       <c r="Z57" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="AA57" t="s">
         <v>2095</v>
       </c>
       <c r="AB57" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="AC57" t="s">
         <v>2096</v>
       </c>
       <c r="AD57" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="AE57" t="s">
         <v>2097</v>
@@ -21926,10 +21923,10 @@
         <v>2098</v>
       </c>
       <c r="AG57" t="s">
+        <v>3534</v>
+      </c>
+      <c r="AH57" t="s">
         <v>3535</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>3536</v>
       </c>
       <c r="AJ57" t="s">
         <v>1735</v>
@@ -21938,19 +21935,19 @@
         <v>2099</v>
       </c>
       <c r="AL57" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="AN57" t="s">
+        <v>3536</v>
+      </c>
+      <c r="AO57" t="s">
         <v>3537</v>
       </c>
-      <c r="AO57" t="s">
+      <c r="AP57" t="s">
         <v>3538</v>
       </c>
-      <c r="AP57" t="s">
+      <c r="AQ57" t="s">
         <v>3539</v>
-      </c>
-      <c r="AQ57" t="s">
-        <v>3540</v>
       </c>
       <c r="AR57" t="s">
         <v>2100</v>
@@ -21959,16 +21956,16 @@
         <v>2101</v>
       </c>
       <c r="AT57" t="s">
+        <v>3540</v>
+      </c>
+      <c r="AU57" t="s">
         <v>3541</v>
-      </c>
-      <c r="AU57" t="s">
-        <v>3542</v>
       </c>
       <c r="AV57" t="s">
         <v>2102</v>
       </c>
       <c r="AW57" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="AX57" t="s">
         <v>2103</v>
@@ -21977,7 +21974,7 @@
         <v>2104</v>
       </c>
       <c r="AZ57" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="BA57" t="s">
         <v>2105</v>
@@ -21998,16 +21995,16 @@
         <v>2110</v>
       </c>
       <c r="BG57" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="BH57" t="s">
         <v>2111</v>
       </c>
       <c r="BI57" t="s">
+        <v>3545</v>
+      </c>
+      <c r="BJ57" t="s">
         <v>3546</v>
-      </c>
-      <c r="BJ57" t="s">
-        <v>3547</v>
       </c>
       <c r="BK57" t="s">
         <v>2112</v>
@@ -22042,10 +22039,10 @@
         <v>2121</v>
       </c>
       <c r="H58" t="s">
+        <v>3547</v>
+      </c>
+      <c r="I58" t="s">
         <v>3548</v>
-      </c>
-      <c r="I58" t="s">
-        <v>3549</v>
       </c>
       <c r="J58" t="s">
         <v>2122</v>
@@ -22078,10 +22075,10 @@
         <v>2131</v>
       </c>
       <c r="V58" t="s">
+        <v>3549</v>
+      </c>
+      <c r="W58" t="s">
         <v>3550</v>
-      </c>
-      <c r="W58" t="s">
-        <v>3551</v>
       </c>
       <c r="X58" t="s">
         <v>2132</v>
@@ -22090,19 +22087,19 @@
         <v>2133</v>
       </c>
       <c r="Z58" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="AA58" t="s">
         <v>2134</v>
       </c>
       <c r="AB58" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="AC58" t="s">
         <v>2135</v>
       </c>
       <c r="AD58" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="AE58" t="s">
         <v>2136</v>
@@ -22111,10 +22108,10 @@
         <v>2137</v>
       </c>
       <c r="AG58" t="s">
+        <v>3554</v>
+      </c>
+      <c r="AH58" t="s">
         <v>3555</v>
-      </c>
-      <c r="AH58" t="s">
-        <v>3556</v>
       </c>
       <c r="AJ58" t="s">
         <v>1738</v>
@@ -22123,19 +22120,19 @@
         <v>2138</v>
       </c>
       <c r="AL58" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="AN58" t="s">
+        <v>3556</v>
+      </c>
+      <c r="AO58" t="s">
         <v>3557</v>
       </c>
-      <c r="AO58" t="s">
+      <c r="AP58" t="s">
         <v>3558</v>
       </c>
-      <c r="AP58" t="s">
+      <c r="AQ58" t="s">
         <v>3559</v>
-      </c>
-      <c r="AQ58" t="s">
-        <v>3560</v>
       </c>
       <c r="AR58" t="s">
         <v>2139</v>
@@ -22144,16 +22141,16 @@
         <v>2140</v>
       </c>
       <c r="AT58" t="s">
+        <v>3560</v>
+      </c>
+      <c r="AU58" t="s">
         <v>3561</v>
-      </c>
-      <c r="AU58" t="s">
-        <v>3562</v>
       </c>
       <c r="AV58" t="s">
         <v>2141</v>
       </c>
       <c r="AW58" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="AX58" t="s">
         <v>2142</v>
@@ -22162,7 +22159,7 @@
         <v>2143</v>
       </c>
       <c r="AZ58" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="BA58" t="s">
         <v>2144</v>
@@ -22183,16 +22180,16 @@
         <v>2149</v>
       </c>
       <c r="BG58" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="BH58" t="s">
         <v>2150</v>
       </c>
       <c r="BI58" t="s">
+        <v>3565</v>
+      </c>
+      <c r="BJ58" t="s">
         <v>3566</v>
-      </c>
-      <c r="BJ58" t="s">
-        <v>3567</v>
       </c>
       <c r="BK58" t="s">
         <v>2151</v>
@@ -22227,10 +22224,10 @@
         <v>2160</v>
       </c>
       <c r="H59" t="s">
+        <v>3567</v>
+      </c>
+      <c r="I59" t="s">
         <v>3568</v>
-      </c>
-      <c r="I59" t="s">
-        <v>3569</v>
       </c>
       <c r="J59" t="s">
         <v>2161</v>
@@ -22263,10 +22260,10 @@
         <v>2170</v>
       </c>
       <c r="V59" t="s">
+        <v>3569</v>
+      </c>
+      <c r="W59" t="s">
         <v>3570</v>
-      </c>
-      <c r="W59" t="s">
-        <v>3571</v>
       </c>
       <c r="X59" t="s">
         <v>2171</v>
@@ -22275,19 +22272,19 @@
         <v>2172</v>
       </c>
       <c r="Z59" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="AA59" t="s">
         <v>2173</v>
       </c>
       <c r="AB59" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="AC59" t="s">
         <v>2174</v>
       </c>
       <c r="AD59" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="AE59" t="s">
         <v>2175</v>
@@ -22296,10 +22293,10 @@
         <v>2176</v>
       </c>
       <c r="AG59" t="s">
+        <v>3574</v>
+      </c>
+      <c r="AH59" t="s">
         <v>3575</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>3576</v>
       </c>
       <c r="AJ59" t="s">
         <v>1741</v>
@@ -22308,19 +22305,19 @@
         <v>2177</v>
       </c>
       <c r="AL59" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="AN59" t="s">
+        <v>3576</v>
+      </c>
+      <c r="AO59" t="s">
         <v>3577</v>
       </c>
-      <c r="AO59" t="s">
+      <c r="AP59" t="s">
         <v>3578</v>
       </c>
-      <c r="AP59" t="s">
+      <c r="AQ59" t="s">
         <v>3579</v>
-      </c>
-      <c r="AQ59" t="s">
-        <v>3580</v>
       </c>
       <c r="AR59" t="s">
         <v>2178</v>
@@ -22329,16 +22326,16 @@
         <v>2179</v>
       </c>
       <c r="AT59" t="s">
+        <v>3580</v>
+      </c>
+      <c r="AU59" t="s">
         <v>3581</v>
-      </c>
-      <c r="AU59" t="s">
-        <v>3582</v>
       </c>
       <c r="AV59" t="s">
         <v>2180</v>
       </c>
       <c r="AW59" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="AX59" t="s">
         <v>2181</v>
@@ -22347,7 +22344,7 @@
         <v>2182</v>
       </c>
       <c r="AZ59" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="BA59" t="s">
         <v>2183</v>
@@ -22368,16 +22365,16 @@
         <v>2188</v>
       </c>
       <c r="BG59" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="BH59" t="s">
         <v>2189</v>
       </c>
       <c r="BI59" t="s">
+        <v>3585</v>
+      </c>
+      <c r="BJ59" t="s">
         <v>3586</v>
-      </c>
-      <c r="BJ59" t="s">
-        <v>3587</v>
       </c>
       <c r="BK59" t="s">
         <v>2190</v>
@@ -23522,10 +23519,10 @@
         <v>2553</v>
       </c>
       <c r="H66" t="s">
+        <v>3730</v>
+      </c>
+      <c r="I66" t="s">
         <v>3731</v>
-      </c>
-      <c r="I66" t="s">
-        <v>3732</v>
       </c>
       <c r="J66" t="s">
         <v>2554</v>
@@ -23558,10 +23555,10 @@
         <v>2563</v>
       </c>
       <c r="V66" t="s">
+        <v>3732</v>
+      </c>
+      <c r="W66" t="s">
         <v>3733</v>
-      </c>
-      <c r="W66" t="s">
-        <v>3734</v>
       </c>
       <c r="X66" t="s">
         <v>2564</v>
@@ -23570,19 +23567,19 @@
         <v>2565</v>
       </c>
       <c r="Z66" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="AA66" t="s">
         <v>2566</v>
       </c>
       <c r="AB66" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="AC66" t="s">
         <v>2567</v>
       </c>
       <c r="AD66" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="AE66" t="s">
         <v>2568</v>
@@ -23591,10 +23588,10 @@
         <v>2569</v>
       </c>
       <c r="AG66" t="s">
+        <v>3737</v>
+      </c>
+      <c r="AH66" t="s">
         <v>3738</v>
-      </c>
-      <c r="AH66" t="s">
-        <v>3739</v>
       </c>
       <c r="AJ66" t="s">
         <v>1768</v>
@@ -23603,19 +23600,19 @@
         <v>2570</v>
       </c>
       <c r="AL66" t="s">
+        <v>3739</v>
+      </c>
+      <c r="AN66" t="s">
         <v>3740</v>
       </c>
-      <c r="AN66" t="s">
+      <c r="AO66" t="s">
         <v>3741</v>
       </c>
-      <c r="AO66" t="s">
+      <c r="AP66" t="s">
         <v>3742</v>
       </c>
-      <c r="AP66" t="s">
+      <c r="AQ66" t="s">
         <v>3743</v>
-      </c>
-      <c r="AQ66" t="s">
-        <v>3744</v>
       </c>
       <c r="AR66" t="s">
         <v>2571</v>
@@ -23624,16 +23621,16 @@
         <v>2572</v>
       </c>
       <c r="AT66" t="s">
+        <v>3744</v>
+      </c>
+      <c r="AU66" t="s">
         <v>3745</v>
-      </c>
-      <c r="AU66" t="s">
-        <v>3746</v>
       </c>
       <c r="AV66" t="s">
         <v>2573</v>
       </c>
       <c r="AW66" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="AX66" t="s">
         <v>2574</v>
@@ -23642,7 +23639,7 @@
         <v>2575</v>
       </c>
       <c r="AZ66" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="BA66" t="s">
         <v>2576</v>
@@ -23663,16 +23660,16 @@
         <v>2581</v>
       </c>
       <c r="BG66" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="BH66" t="s">
         <v>2582</v>
       </c>
       <c r="BI66" t="s">
+        <v>3749</v>
+      </c>
+      <c r="BJ66" t="s">
         <v>3750</v>
-      </c>
-      <c r="BJ66" t="s">
-        <v>3751</v>
       </c>
       <c r="BK66" t="s">
         <v>2583</v>
@@ -24364,27 +24361,27 @@
         <v>2741</v>
       </c>
       <c r="BH70" t="s">
+        <v>3186</v>
+      </c>
+      <c r="BI70" t="s">
         <v>2742</v>
       </c>
-      <c r="BI70" t="s">
+      <c r="BJ70" t="s">
         <v>2743</v>
       </c>
-      <c r="BJ70" t="s">
+      <c r="BK70" t="s">
         <v>2744</v>
       </c>
-      <c r="BK70" t="s">
+      <c r="BL70" t="s">
         <v>2745</v>
       </c>
-      <c r="BL70" t="s">
+      <c r="BM70" t="s">
         <v>2746</v>
-      </c>
-      <c r="BM70" t="s">
-        <v>2747</v>
       </c>
     </row>
     <row r="71" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="B71" t="s">
         <v>205</v>
@@ -24411,10 +24408,10 @@
         <v>2588</v>
       </c>
       <c r="J71" t="s">
+        <v>2748</v>
+      </c>
+      <c r="K71" t="s">
         <v>2749</v>
-      </c>
-      <c r="K71" t="s">
-        <v>2750</v>
       </c>
       <c r="L71" t="s">
         <v>2591</v>
@@ -24483,7 +24480,7 @@
         <v>237</v>
       </c>
       <c r="AT71" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="AU71" t="s">
         <v>2612</v>
@@ -24519,13 +24516,13 @@
         <v>248</v>
       </c>
       <c r="BF71" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="BG71" t="s">
         <v>2619</v>
       </c>
       <c r="BH71" t="s">
-        <v>251</v>
+        <v>2620</v>
       </c>
       <c r="BI71" t="s">
         <v>2621</v>
@@ -24545,455 +24542,455 @@
     </row>
     <row r="72" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B72" t="s">
         <v>2753</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>2754</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>2755</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>2756</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>2757</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>2758</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>2759</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>2760</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>2761</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>2762</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>2763</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>2764</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>2765</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>2766</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>2767</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>2768</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>2769</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>2770</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>2771</v>
       </c>
-      <c r="T72" t="s">
+      <c r="U72" t="s">
         <v>2772</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>2773</v>
       </c>
-      <c r="V72" t="s">
+      <c r="W72" t="s">
         <v>2774</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>2775</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>2776</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>2777</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>2778</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>2779</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AC72" t="s">
         <v>2780</v>
       </c>
-      <c r="AC72" t="s">
+      <c r="AD72" t="s">
         <v>2781</v>
       </c>
-      <c r="AD72" t="s">
+      <c r="AE72" t="s">
         <v>2782</v>
       </c>
-      <c r="AE72" t="s">
+      <c r="AF72" t="s">
         <v>2783</v>
       </c>
-      <c r="AF72" t="s">
+      <c r="AG72" t="s">
         <v>2784</v>
       </c>
-      <c r="AG72" t="s">
+      <c r="AI72" t="s">
         <v>2785</v>
       </c>
-      <c r="AI72" t="s">
+      <c r="AN72" t="s">
         <v>2786</v>
       </c>
-      <c r="AN72" t="s">
+      <c r="AO72" t="s">
         <v>2787</v>
       </c>
-      <c r="AO72" t="s">
+      <c r="AP72" t="s">
         <v>2788</v>
       </c>
-      <c r="AP72" t="s">
+      <c r="AQ72" t="s">
         <v>2789</v>
       </c>
-      <c r="AQ72" t="s">
+      <c r="AR72" t="s">
         <v>2790</v>
       </c>
-      <c r="AR72" t="s">
+      <c r="AS72" t="s">
         <v>2791</v>
       </c>
-      <c r="AS72" t="s">
+      <c r="AT72" t="s">
         <v>2792</v>
       </c>
-      <c r="AT72" t="s">
+      <c r="AU72" t="s">
         <v>2793</v>
       </c>
-      <c r="AU72" t="s">
+      <c r="AV72" t="s">
         <v>2794</v>
       </c>
-      <c r="AV72" t="s">
+      <c r="AW72" t="s">
         <v>2795</v>
       </c>
-      <c r="AW72" t="s">
+      <c r="AX72" t="s">
         <v>2796</v>
       </c>
-      <c r="AX72" t="s">
+      <c r="AY72" t="s">
         <v>2797</v>
       </c>
-      <c r="AY72" t="s">
+      <c r="AZ72" t="s">
         <v>2798</v>
       </c>
-      <c r="AZ72" t="s">
+      <c r="BA72" t="s">
         <v>2799</v>
       </c>
-      <c r="BA72" t="s">
+      <c r="BB72" t="s">
         <v>2800</v>
       </c>
-      <c r="BB72" t="s">
+      <c r="BC72" t="s">
         <v>2801</v>
       </c>
-      <c r="BC72" t="s">
+      <c r="BD72" t="s">
         <v>2802</v>
       </c>
-      <c r="BD72" t="s">
+      <c r="BE72" t="s">
         <v>2803</v>
       </c>
-      <c r="BE72" t="s">
+      <c r="BF72" t="s">
         <v>2804</v>
       </c>
-      <c r="BF72" t="s">
+      <c r="BG72" t="s">
         <v>2805</v>
       </c>
-      <c r="BG72" t="s">
+      <c r="BH72" t="s">
         <v>2806</v>
       </c>
-      <c r="BH72" t="s">
+      <c r="BI72" t="s">
         <v>2807</v>
       </c>
-      <c r="BI72" t="s">
+      <c r="BJ72" t="s">
         <v>2808</v>
       </c>
-      <c r="BJ72" t="s">
+      <c r="BK72" t="s">
         <v>2809</v>
       </c>
-      <c r="BK72" t="s">
+      <c r="BL72" t="s">
         <v>2810</v>
       </c>
-      <c r="BL72" t="s">
+      <c r="BM72" t="s">
         <v>2811</v>
-      </c>
-      <c r="BM72" t="s">
-        <v>2812</v>
       </c>
     </row>
     <row r="73" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B73" t="s">
         <v>2813</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>2814</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>2815</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>2816</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>2817</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>2818</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>2819</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>2820</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>2821</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>2822</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>2823</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>2824</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>2825</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>2826</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>2827</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>2828</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
+        <v>2825</v>
+      </c>
+      <c r="S73" t="s">
         <v>2829</v>
       </c>
-      <c r="R73" t="s">
-        <v>2826</v>
-      </c>
-      <c r="S73" t="s">
+      <c r="V73" t="s">
         <v>2830</v>
       </c>
-      <c r="V73" t="s">
+      <c r="W73" t="s">
         <v>2831</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>2832</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>2833</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>2834</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
+        <v>2834</v>
+      </c>
+      <c r="AB73" t="s">
         <v>2835</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AC73" t="s">
         <v>2835</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AD73" t="s">
         <v>2836</v>
       </c>
-      <c r="AC73" t="s">
+      <c r="AE73" t="s">
         <v>2836</v>
       </c>
-      <c r="AD73" t="s">
+      <c r="AF73" t="s">
         <v>2837</v>
       </c>
-      <c r="AE73" t="s">
-        <v>2837</v>
-      </c>
-      <c r="AF73" t="s">
+      <c r="AH73" t="s">
         <v>2838</v>
       </c>
-      <c r="AH73" t="s">
+      <c r="AN73" t="s">
         <v>2839</v>
       </c>
-      <c r="AN73" t="s">
+      <c r="AO73" t="s">
         <v>2840</v>
       </c>
-      <c r="AO73" t="s">
+      <c r="AP73" t="s">
         <v>2841</v>
       </c>
-      <c r="AP73" t="s">
+      <c r="AQ73" t="s">
         <v>2842</v>
       </c>
-      <c r="AQ73" t="s">
+      <c r="AR73" t="s">
         <v>2843</v>
       </c>
-      <c r="AR73" t="s">
+      <c r="AS73" t="s">
         <v>2844</v>
       </c>
-      <c r="AS73" t="s">
+      <c r="AT73" t="s">
         <v>2845</v>
       </c>
-      <c r="AT73" t="s">
+      <c r="AU73" t="s">
         <v>2846</v>
       </c>
-      <c r="AU73" t="s">
+      <c r="AV73" t="s">
         <v>2847</v>
       </c>
-      <c r="AV73" t="s">
+      <c r="AW73" t="s">
         <v>2848</v>
       </c>
-      <c r="AW73" t="s">
+      <c r="AX73" t="s">
         <v>2849</v>
       </c>
-      <c r="AX73" t="s">
+      <c r="AY73" t="s">
         <v>2850</v>
       </c>
-      <c r="AY73" t="s">
+      <c r="AZ73" t="s">
         <v>2851</v>
       </c>
-      <c r="AZ73" t="s">
+      <c r="BA73" t="s">
         <v>2852</v>
       </c>
-      <c r="BA73" t="s">
+      <c r="BB73" t="s">
         <v>2853</v>
       </c>
-      <c r="BB73" t="s">
+      <c r="BC73" t="s">
         <v>2854</v>
       </c>
-      <c r="BC73" t="s">
+      <c r="BD73" t="s">
         <v>2855</v>
       </c>
-      <c r="BD73" t="s">
+      <c r="BE73" t="s">
         <v>2856</v>
       </c>
-      <c r="BE73" t="s">
+      <c r="BF73" t="s">
         <v>2857</v>
       </c>
-      <c r="BF73" t="s">
+      <c r="BG73" t="s">
         <v>2858</v>
       </c>
-      <c r="BG73" t="s">
+      <c r="BH73" t="s">
         <v>2859</v>
       </c>
-      <c r="BH73" t="s">
+      <c r="BI73" t="s">
         <v>2860</v>
       </c>
-      <c r="BI73" t="s">
+      <c r="BJ73" t="s">
         <v>2861</v>
       </c>
-      <c r="BJ73" t="s">
+      <c r="BK73" t="s">
         <v>2862</v>
       </c>
-      <c r="BK73" t="s">
+      <c r="BL73" t="s">
         <v>2863</v>
       </c>
-      <c r="BL73" t="s">
+      <c r="BM73" t="s">
         <v>2864</v>
-      </c>
-      <c r="BM73" t="s">
-        <v>2865</v>
       </c>
     </row>
     <row r="74" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B74" t="s">
         <v>2866</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>2867</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>2868</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>2869</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>2870</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>2871</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
+        <v>3587</v>
+      </c>
+      <c r="I74" t="s">
+        <v>3588</v>
+      </c>
+      <c r="J74" t="s">
         <v>2872</v>
       </c>
-      <c r="H74" t="s">
-        <v>3588</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="K74" t="s">
+        <v>2873</v>
+      </c>
+      <c r="L74" t="s">
+        <v>2874</v>
+      </c>
+      <c r="M74" t="s">
+        <v>2875</v>
+      </c>
+      <c r="N74" t="s">
+        <v>2876</v>
+      </c>
+      <c r="O74" t="s">
+        <v>2877</v>
+      </c>
+      <c r="P74" t="s">
+        <v>2878</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>2879</v>
+      </c>
+      <c r="R74" t="s">
+        <v>2880</v>
+      </c>
+      <c r="S74" t="s">
+        <v>2881</v>
+      </c>
+      <c r="V74" t="s">
         <v>3589</v>
       </c>
-      <c r="J74" t="s">
-        <v>2873</v>
-      </c>
-      <c r="K74" t="s">
-        <v>2874</v>
-      </c>
-      <c r="L74" t="s">
-        <v>2875</v>
-      </c>
-      <c r="M74" t="s">
-        <v>2876</v>
-      </c>
-      <c r="N74" t="s">
-        <v>2877</v>
-      </c>
-      <c r="O74" t="s">
-        <v>2878</v>
-      </c>
-      <c r="P74" t="s">
-        <v>2879</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>2880</v>
-      </c>
-      <c r="R74" t="s">
-        <v>2881</v>
-      </c>
-      <c r="S74" t="s">
+      <c r="W74" t="s">
+        <v>3590</v>
+      </c>
+      <c r="X74" t="s">
         <v>2882</v>
       </c>
-      <c r="V74" t="s">
-        <v>3590</v>
-      </c>
-      <c r="W74" t="s">
+      <c r="Y74" t="s">
+        <v>2883</v>
+      </c>
+      <c r="Z74" t="s">
         <v>3591</v>
       </c>
-      <c r="X74" t="s">
-        <v>2883</v>
-      </c>
-      <c r="Y74" t="s">
+      <c r="AA74" t="s">
         <v>2884</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AB74" t="s">
         <v>3592</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AC74" t="s">
         <v>2885</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AD74" t="s">
         <v>3593</v>
       </c>
-      <c r="AC74" t="s">
+      <c r="AE74" t="s">
         <v>2886</v>
       </c>
-      <c r="AD74" t="s">
+      <c r="AF74" t="s">
+        <v>2887</v>
+      </c>
+      <c r="AG74" t="s">
         <v>3594</v>
       </c>
-      <c r="AE74" t="s">
-        <v>2887</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>2888</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>3595</v>
-      </c>
       <c r="AH74" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AJ74" t="s">
         <v>752</v>
@@ -25002,183 +24999,183 @@
         <v>753</v>
       </c>
       <c r="AL74" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="AN74" t="s">
+        <v>3595</v>
+      </c>
+      <c r="AO74" t="s">
         <v>3596</v>
       </c>
-      <c r="AO74" t="s">
+      <c r="AP74" t="s">
         <v>3597</v>
       </c>
-      <c r="AP74" t="s">
+      <c r="AQ74" t="s">
         <v>3598</v>
       </c>
-      <c r="AQ74" t="s">
+      <c r="AR74" t="s">
+        <v>2888</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>2889</v>
+      </c>
+      <c r="AT74" t="s">
         <v>3599</v>
       </c>
-      <c r="AR74" t="s">
-        <v>2889</v>
-      </c>
-      <c r="AS74" t="s">
+      <c r="AU74" t="s">
+        <v>3600</v>
+      </c>
+      <c r="AV74" t="s">
         <v>2890</v>
       </c>
-      <c r="AT74" t="s">
-        <v>3600</v>
-      </c>
-      <c r="AU74" t="s">
+      <c r="AW74" t="s">
         <v>3601</v>
       </c>
-      <c r="AV74" t="s">
+      <c r="AX74" t="s">
         <v>2891</v>
       </c>
-      <c r="AW74" t="s">
+      <c r="AY74" t="s">
+        <v>2892</v>
+      </c>
+      <c r="AZ74" t="s">
         <v>3602</v>
       </c>
-      <c r="AX74" t="s">
-        <v>2892</v>
-      </c>
-      <c r="AY74" t="s">
+      <c r="BA74" t="s">
         <v>2893</v>
       </c>
-      <c r="AZ74" t="s">
+      <c r="BB74" t="s">
+        <v>2894</v>
+      </c>
+      <c r="BC74" t="s">
+        <v>2895</v>
+      </c>
+      <c r="BD74" t="s">
+        <v>2896</v>
+      </c>
+      <c r="BE74" t="s">
+        <v>2897</v>
+      </c>
+      <c r="BF74" t="s">
+        <v>2898</v>
+      </c>
+      <c r="BG74" t="s">
         <v>3603</v>
       </c>
-      <c r="BA74" t="s">
-        <v>2894</v>
-      </c>
-      <c r="BB74" t="s">
-        <v>2895</v>
-      </c>
-      <c r="BC74" t="s">
-        <v>2896</v>
-      </c>
-      <c r="BD74" t="s">
-        <v>2897</v>
-      </c>
-      <c r="BE74" t="s">
-        <v>2898</v>
-      </c>
-      <c r="BF74" t="s">
+      <c r="BH74" t="s">
         <v>2899</v>
       </c>
-      <c r="BG74" t="s">
+      <c r="BI74" t="s">
         <v>3604</v>
       </c>
-      <c r="BH74" t="s">
+      <c r="BJ74" t="s">
+        <v>3605</v>
+      </c>
+      <c r="BK74" t="s">
         <v>2900</v>
       </c>
-      <c r="BI74" t="s">
-        <v>3605</v>
-      </c>
-      <c r="BJ74" t="s">
-        <v>3606</v>
-      </c>
-      <c r="BK74" t="s">
+      <c r="BL74" t="s">
         <v>2901</v>
       </c>
-      <c r="BL74" t="s">
+      <c r="BM74" t="s">
         <v>2902</v>
-      </c>
-      <c r="BM74" t="s">
-        <v>2903</v>
       </c>
     </row>
     <row r="75" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B75" t="s">
         <v>2904</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>2905</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>2906</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>2907</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>2908</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>2909</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
+        <v>3606</v>
+      </c>
+      <c r="I75" t="s">
+        <v>3607</v>
+      </c>
+      <c r="J75" t="s">
         <v>2910</v>
       </c>
-      <c r="H75" t="s">
-        <v>3607</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="K75" t="s">
+        <v>2911</v>
+      </c>
+      <c r="L75" t="s">
+        <v>2912</v>
+      </c>
+      <c r="M75" t="s">
+        <v>2913</v>
+      </c>
+      <c r="N75" t="s">
+        <v>2914</v>
+      </c>
+      <c r="O75" t="s">
+        <v>2915</v>
+      </c>
+      <c r="P75" t="s">
+        <v>2916</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>2917</v>
+      </c>
+      <c r="R75" t="s">
+        <v>2918</v>
+      </c>
+      <c r="S75" t="s">
+        <v>2919</v>
+      </c>
+      <c r="V75" t="s">
         <v>3608</v>
       </c>
-      <c r="J75" t="s">
-        <v>2911</v>
-      </c>
-      <c r="K75" t="s">
-        <v>2912</v>
-      </c>
-      <c r="L75" t="s">
-        <v>2913</v>
-      </c>
-      <c r="M75" t="s">
-        <v>2914</v>
-      </c>
-      <c r="N75" t="s">
-        <v>2915</v>
-      </c>
-      <c r="O75" t="s">
-        <v>2916</v>
-      </c>
-      <c r="P75" t="s">
-        <v>2917</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>2918</v>
-      </c>
-      <c r="R75" t="s">
-        <v>2919</v>
-      </c>
-      <c r="S75" t="s">
+      <c r="W75" t="s">
+        <v>3609</v>
+      </c>
+      <c r="X75" t="s">
         <v>2920</v>
       </c>
-      <c r="V75" t="s">
-        <v>3609</v>
-      </c>
-      <c r="W75" t="s">
+      <c r="Y75" t="s">
+        <v>2921</v>
+      </c>
+      <c r="Z75" t="s">
         <v>3610</v>
       </c>
-      <c r="X75" t="s">
-        <v>2921</v>
-      </c>
-      <c r="Y75" t="s">
+      <c r="AA75" t="s">
         <v>2922</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AB75" t="s">
         <v>3611</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AC75" t="s">
         <v>2923</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AD75" t="s">
         <v>3612</v>
       </c>
-      <c r="AC75" t="s">
+      <c r="AE75" t="s">
         <v>2924</v>
       </c>
-      <c r="AD75" t="s">
+      <c r="AF75" t="s">
+        <v>2925</v>
+      </c>
+      <c r="AG75" t="s">
         <v>3613</v>
       </c>
-      <c r="AE75" t="s">
-        <v>2925</v>
-      </c>
-      <c r="AF75" t="s">
-        <v>2926</v>
-      </c>
-      <c r="AG75" t="s">
-        <v>3614</v>
-      </c>
       <c r="AH75" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="AJ75" t="s">
         <v>795</v>
@@ -25187,183 +25184,183 @@
         <v>796</v>
       </c>
       <c r="AL75" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="AN75" t="s">
+        <v>3614</v>
+      </c>
+      <c r="AO75" t="s">
         <v>3615</v>
       </c>
-      <c r="AO75" t="s">
+      <c r="AP75" t="s">
         <v>3616</v>
       </c>
-      <c r="AP75" t="s">
+      <c r="AQ75" t="s">
         <v>3617</v>
       </c>
-      <c r="AQ75" t="s">
+      <c r="AR75" t="s">
+        <v>2926</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>2927</v>
+      </c>
+      <c r="AT75" t="s">
         <v>3618</v>
       </c>
-      <c r="AR75" t="s">
-        <v>2927</v>
-      </c>
-      <c r="AS75" t="s">
+      <c r="AU75" t="s">
+        <v>3619</v>
+      </c>
+      <c r="AV75" t="s">
         <v>2928</v>
       </c>
-      <c r="AT75" t="s">
-        <v>3619</v>
-      </c>
-      <c r="AU75" t="s">
+      <c r="AW75" t="s">
         <v>3620</v>
       </c>
-      <c r="AV75" t="s">
+      <c r="AX75" t="s">
         <v>2929</v>
       </c>
-      <c r="AW75" t="s">
+      <c r="AY75" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AZ75" t="s">
         <v>3621</v>
       </c>
-      <c r="AX75" t="s">
-        <v>2930</v>
-      </c>
-      <c r="AY75" t="s">
+      <c r="BA75" t="s">
         <v>2931</v>
       </c>
-      <c r="AZ75" t="s">
+      <c r="BB75" t="s">
+        <v>2932</v>
+      </c>
+      <c r="BC75" t="s">
+        <v>2933</v>
+      </c>
+      <c r="BD75" t="s">
+        <v>2934</v>
+      </c>
+      <c r="BE75" t="s">
+        <v>2935</v>
+      </c>
+      <c r="BF75" t="s">
+        <v>2936</v>
+      </c>
+      <c r="BG75" t="s">
         <v>3622</v>
       </c>
-      <c r="BA75" t="s">
-        <v>2932</v>
-      </c>
-      <c r="BB75" t="s">
-        <v>2933</v>
-      </c>
-      <c r="BC75" t="s">
-        <v>2934</v>
-      </c>
-      <c r="BD75" t="s">
-        <v>2935</v>
-      </c>
-      <c r="BE75" t="s">
-        <v>2936</v>
-      </c>
-      <c r="BF75" t="s">
+      <c r="BH75" t="s">
         <v>2937</v>
       </c>
-      <c r="BG75" t="s">
+      <c r="BI75" t="s">
         <v>3623</v>
       </c>
-      <c r="BH75" t="s">
+      <c r="BJ75" t="s">
+        <v>3624</v>
+      </c>
+      <c r="BK75" t="s">
         <v>2938</v>
       </c>
-      <c r="BI75" t="s">
-        <v>3624</v>
-      </c>
-      <c r="BJ75" t="s">
-        <v>3625</v>
-      </c>
-      <c r="BK75" t="s">
+      <c r="BL75" t="s">
         <v>2939</v>
       </c>
-      <c r="BL75" t="s">
+      <c r="BM75" t="s">
         <v>2940</v>
-      </c>
-      <c r="BM75" t="s">
-        <v>2941</v>
       </c>
     </row>
     <row r="76" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B76" t="s">
         <v>2942</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>2943</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>2944</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>2945</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>2946</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>2947</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
+        <v>3625</v>
+      </c>
+      <c r="I76" t="s">
+        <v>3626</v>
+      </c>
+      <c r="J76" t="s">
         <v>2948</v>
       </c>
-      <c r="H76" t="s">
-        <v>3626</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="K76" t="s">
+        <v>2949</v>
+      </c>
+      <c r="L76" t="s">
+        <v>2950</v>
+      </c>
+      <c r="M76" t="s">
+        <v>2951</v>
+      </c>
+      <c r="N76" t="s">
+        <v>2952</v>
+      </c>
+      <c r="O76" t="s">
+        <v>2953</v>
+      </c>
+      <c r="P76" t="s">
+        <v>2954</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>2955</v>
+      </c>
+      <c r="R76" t="s">
+        <v>2956</v>
+      </c>
+      <c r="S76" t="s">
+        <v>2957</v>
+      </c>
+      <c r="V76" t="s">
         <v>3627</v>
       </c>
-      <c r="J76" t="s">
-        <v>2949</v>
-      </c>
-      <c r="K76" t="s">
-        <v>2950</v>
-      </c>
-      <c r="L76" t="s">
-        <v>2951</v>
-      </c>
-      <c r="M76" t="s">
-        <v>2952</v>
-      </c>
-      <c r="N76" t="s">
-        <v>2953</v>
-      </c>
-      <c r="O76" t="s">
-        <v>2954</v>
-      </c>
-      <c r="P76" t="s">
-        <v>2955</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>2956</v>
-      </c>
-      <c r="R76" t="s">
-        <v>2957</v>
-      </c>
-      <c r="S76" t="s">
+      <c r="W76" t="s">
+        <v>3628</v>
+      </c>
+      <c r="X76" t="s">
         <v>2958</v>
       </c>
-      <c r="V76" t="s">
-        <v>3628</v>
-      </c>
-      <c r="W76" t="s">
+      <c r="Y76" t="s">
+        <v>2959</v>
+      </c>
+      <c r="Z76" t="s">
         <v>3629</v>
       </c>
-      <c r="X76" t="s">
-        <v>2959</v>
-      </c>
-      <c r="Y76" t="s">
+      <c r="AA76" t="s">
         <v>2960</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AB76" t="s">
         <v>3630</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AC76" t="s">
         <v>2961</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AD76" t="s">
         <v>3631</v>
       </c>
-      <c r="AC76" t="s">
+      <c r="AE76" t="s">
         <v>2962</v>
       </c>
-      <c r="AD76" t="s">
+      <c r="AF76" t="s">
+        <v>2963</v>
+      </c>
+      <c r="AG76" t="s">
         <v>3632</v>
       </c>
-      <c r="AE76" t="s">
-        <v>2963</v>
-      </c>
-      <c r="AF76" t="s">
-        <v>2964</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>3633</v>
-      </c>
       <c r="AH76" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="AJ76" t="s">
         <v>838</v>
@@ -25372,183 +25369,183 @@
         <v>839</v>
       </c>
       <c r="AL76" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="AN76" t="s">
+        <v>3633</v>
+      </c>
+      <c r="AO76" t="s">
         <v>3634</v>
       </c>
-      <c r="AO76" t="s">
+      <c r="AP76" t="s">
         <v>3635</v>
       </c>
-      <c r="AP76" t="s">
+      <c r="AQ76" t="s">
         <v>3636</v>
       </c>
-      <c r="AQ76" t="s">
+      <c r="AR76" t="s">
+        <v>2964</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>2965</v>
+      </c>
+      <c r="AT76" t="s">
         <v>3637</v>
       </c>
-      <c r="AR76" t="s">
-        <v>2965</v>
-      </c>
-      <c r="AS76" t="s">
+      <c r="AU76" t="s">
+        <v>3638</v>
+      </c>
+      <c r="AV76" t="s">
         <v>2966</v>
       </c>
-      <c r="AT76" t="s">
-        <v>3638</v>
-      </c>
-      <c r="AU76" t="s">
+      <c r="AW76" t="s">
         <v>3639</v>
       </c>
-      <c r="AV76" t="s">
+      <c r="AX76" t="s">
         <v>2967</v>
       </c>
-      <c r="AW76" t="s">
+      <c r="AY76" t="s">
+        <v>2968</v>
+      </c>
+      <c r="AZ76" t="s">
         <v>3640</v>
       </c>
-      <c r="AX76" t="s">
-        <v>2968</v>
-      </c>
-      <c r="AY76" t="s">
+      <c r="BA76" t="s">
         <v>2969</v>
       </c>
-      <c r="AZ76" t="s">
+      <c r="BB76" t="s">
+        <v>2970</v>
+      </c>
+      <c r="BC76" t="s">
+        <v>2971</v>
+      </c>
+      <c r="BD76" t="s">
+        <v>2972</v>
+      </c>
+      <c r="BE76" t="s">
+        <v>2973</v>
+      </c>
+      <c r="BF76" t="s">
+        <v>2974</v>
+      </c>
+      <c r="BG76" t="s">
         <v>3641</v>
       </c>
-      <c r="BA76" t="s">
-        <v>2970</v>
-      </c>
-      <c r="BB76" t="s">
-        <v>2971</v>
-      </c>
-      <c r="BC76" t="s">
-        <v>2972</v>
-      </c>
-      <c r="BD76" t="s">
-        <v>2973</v>
-      </c>
-      <c r="BE76" t="s">
-        <v>2974</v>
-      </c>
-      <c r="BF76" t="s">
+      <c r="BH76" t="s">
         <v>2975</v>
       </c>
-      <c r="BG76" t="s">
+      <c r="BI76" t="s">
         <v>3642</v>
       </c>
-      <c r="BH76" t="s">
+      <c r="BJ76" t="s">
+        <v>3643</v>
+      </c>
+      <c r="BK76" t="s">
         <v>2976</v>
       </c>
-      <c r="BI76" t="s">
-        <v>3643</v>
-      </c>
-      <c r="BJ76" t="s">
-        <v>3644</v>
-      </c>
-      <c r="BK76" t="s">
+      <c r="BL76" t="s">
         <v>2977</v>
       </c>
-      <c r="BL76" t="s">
+      <c r="BM76" t="s">
         <v>2978</v>
-      </c>
-      <c r="BM76" t="s">
-        <v>2979</v>
       </c>
     </row>
     <row r="77" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B77" t="s">
         <v>2980</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>2981</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>2982</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>2983</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>2984</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>2985</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
+        <v>3644</v>
+      </c>
+      <c r="I77" t="s">
+        <v>3645</v>
+      </c>
+      <c r="J77" t="s">
         <v>2986</v>
       </c>
-      <c r="H77" t="s">
-        <v>3645</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="K77" t="s">
+        <v>2987</v>
+      </c>
+      <c r="L77" t="s">
+        <v>2988</v>
+      </c>
+      <c r="M77" t="s">
+        <v>2989</v>
+      </c>
+      <c r="N77" t="s">
+        <v>2990</v>
+      </c>
+      <c r="O77" t="s">
+        <v>2991</v>
+      </c>
+      <c r="P77" t="s">
+        <v>2992</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>2993</v>
+      </c>
+      <c r="R77" t="s">
+        <v>2994</v>
+      </c>
+      <c r="S77" t="s">
+        <v>2995</v>
+      </c>
+      <c r="V77" t="s">
         <v>3646</v>
       </c>
-      <c r="J77" t="s">
-        <v>2987</v>
-      </c>
-      <c r="K77" t="s">
-        <v>2988</v>
-      </c>
-      <c r="L77" t="s">
-        <v>2989</v>
-      </c>
-      <c r="M77" t="s">
-        <v>2990</v>
-      </c>
-      <c r="N77" t="s">
-        <v>2991</v>
-      </c>
-      <c r="O77" t="s">
-        <v>2992</v>
-      </c>
-      <c r="P77" t="s">
-        <v>2993</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>2994</v>
-      </c>
-      <c r="R77" t="s">
-        <v>2995</v>
-      </c>
-      <c r="S77" t="s">
+      <c r="W77" t="s">
+        <v>3647</v>
+      </c>
+      <c r="X77" t="s">
         <v>2996</v>
       </c>
-      <c r="V77" t="s">
-        <v>3647</v>
-      </c>
-      <c r="W77" t="s">
+      <c r="Y77" t="s">
+        <v>2997</v>
+      </c>
+      <c r="Z77" t="s">
         <v>3648</v>
       </c>
-      <c r="X77" t="s">
-        <v>2997</v>
-      </c>
-      <c r="Y77" t="s">
+      <c r="AA77" t="s">
         <v>2998</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AB77" t="s">
         <v>3649</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AC77" t="s">
         <v>2999</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AD77" t="s">
         <v>3650</v>
       </c>
-      <c r="AC77" t="s">
+      <c r="AE77" t="s">
         <v>3000</v>
       </c>
-      <c r="AD77" t="s">
+      <c r="AF77" t="s">
+        <v>3001</v>
+      </c>
+      <c r="AG77" t="s">
         <v>3651</v>
       </c>
-      <c r="AE77" t="s">
-        <v>3001</v>
-      </c>
-      <c r="AF77" t="s">
-        <v>3002</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>3652</v>
-      </c>
       <c r="AH77" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="AJ77" t="s">
         <v>924</v>
@@ -25557,183 +25554,183 @@
         <v>925</v>
       </c>
       <c r="AL77" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="AN77" t="s">
+        <v>3652</v>
+      </c>
+      <c r="AO77" t="s">
         <v>3653</v>
       </c>
-      <c r="AO77" t="s">
+      <c r="AP77" t="s">
         <v>3654</v>
       </c>
-      <c r="AP77" t="s">
+      <c r="AQ77" t="s">
         <v>3655</v>
       </c>
-      <c r="AQ77" t="s">
+      <c r="AR77" t="s">
+        <v>3002</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>3003</v>
+      </c>
+      <c r="AT77" t="s">
         <v>3656</v>
       </c>
-      <c r="AR77" t="s">
-        <v>3003</v>
-      </c>
-      <c r="AS77" t="s">
+      <c r="AU77" t="s">
+        <v>3657</v>
+      </c>
+      <c r="AV77" t="s">
         <v>3004</v>
       </c>
-      <c r="AT77" t="s">
-        <v>3657</v>
-      </c>
-      <c r="AU77" t="s">
+      <c r="AW77" t="s">
         <v>3658</v>
       </c>
-      <c r="AV77" t="s">
+      <c r="AX77" t="s">
         <v>3005</v>
       </c>
-      <c r="AW77" t="s">
+      <c r="AY77" t="s">
+        <v>3006</v>
+      </c>
+      <c r="AZ77" t="s">
         <v>3659</v>
       </c>
-      <c r="AX77" t="s">
-        <v>3006</v>
-      </c>
-      <c r="AY77" t="s">
+      <c r="BA77" t="s">
         <v>3007</v>
       </c>
-      <c r="AZ77" t="s">
+      <c r="BB77" t="s">
+        <v>3008</v>
+      </c>
+      <c r="BC77" t="s">
+        <v>3009</v>
+      </c>
+      <c r="BD77" t="s">
+        <v>3010</v>
+      </c>
+      <c r="BE77" t="s">
+        <v>3011</v>
+      </c>
+      <c r="BF77" t="s">
+        <v>3012</v>
+      </c>
+      <c r="BG77" t="s">
         <v>3660</v>
       </c>
-      <c r="BA77" t="s">
-        <v>3008</v>
-      </c>
-      <c r="BB77" t="s">
-        <v>3009</v>
-      </c>
-      <c r="BC77" t="s">
-        <v>3010</v>
-      </c>
-      <c r="BD77" t="s">
-        <v>3011</v>
-      </c>
-      <c r="BE77" t="s">
-        <v>3012</v>
-      </c>
-      <c r="BF77" t="s">
+      <c r="BH77" t="s">
         <v>3013</v>
       </c>
-      <c r="BG77" t="s">
+      <c r="BI77" t="s">
         <v>3661</v>
       </c>
-      <c r="BH77" t="s">
+      <c r="BJ77" t="s">
+        <v>3662</v>
+      </c>
+      <c r="BK77" t="s">
         <v>3014</v>
       </c>
-      <c r="BI77" t="s">
-        <v>3662</v>
-      </c>
-      <c r="BJ77" t="s">
-        <v>3663</v>
-      </c>
-      <c r="BK77" t="s">
+      <c r="BL77" t="s">
         <v>3015</v>
       </c>
-      <c r="BL77" t="s">
+      <c r="BM77" t="s">
         <v>3016</v>
-      </c>
-      <c r="BM77" t="s">
-        <v>3017</v>
       </c>
     </row>
     <row r="78" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B78" t="s">
         <v>3018</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>3019</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>3020</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>3021</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>3022</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>3023</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
+        <v>3663</v>
+      </c>
+      <c r="I78" t="s">
+        <v>3664</v>
+      </c>
+      <c r="J78" t="s">
         <v>3024</v>
       </c>
-      <c r="H78" t="s">
-        <v>3664</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="K78" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L78" t="s">
+        <v>3026</v>
+      </c>
+      <c r="M78" t="s">
+        <v>3027</v>
+      </c>
+      <c r="N78" t="s">
+        <v>3028</v>
+      </c>
+      <c r="O78" t="s">
+        <v>3029</v>
+      </c>
+      <c r="P78" t="s">
+        <v>3030</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>3031</v>
+      </c>
+      <c r="R78" t="s">
+        <v>3032</v>
+      </c>
+      <c r="S78" t="s">
+        <v>3033</v>
+      </c>
+      <c r="V78" t="s">
         <v>3665</v>
       </c>
-      <c r="J78" t="s">
-        <v>3025</v>
-      </c>
-      <c r="K78" t="s">
-        <v>3026</v>
-      </c>
-      <c r="L78" t="s">
-        <v>3027</v>
-      </c>
-      <c r="M78" t="s">
-        <v>3028</v>
-      </c>
-      <c r="N78" t="s">
-        <v>3029</v>
-      </c>
-      <c r="O78" t="s">
-        <v>3030</v>
-      </c>
-      <c r="P78" t="s">
-        <v>3031</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>3032</v>
-      </c>
-      <c r="R78" t="s">
-        <v>3033</v>
-      </c>
-      <c r="S78" t="s">
+      <c r="W78" t="s">
+        <v>3666</v>
+      </c>
+      <c r="X78" t="s">
         <v>3034</v>
       </c>
-      <c r="V78" t="s">
-        <v>3666</v>
-      </c>
-      <c r="W78" t="s">
+      <c r="Y78" t="s">
+        <v>3035</v>
+      </c>
+      <c r="Z78" t="s">
         <v>3667</v>
       </c>
-      <c r="X78" t="s">
-        <v>3035</v>
-      </c>
-      <c r="Y78" t="s">
+      <c r="AA78" t="s">
         <v>3036</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AB78" t="s">
         <v>3668</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AC78" t="s">
         <v>3037</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AD78" t="s">
         <v>3669</v>
       </c>
-      <c r="AC78" t="s">
+      <c r="AE78" t="s">
         <v>3038</v>
       </c>
-      <c r="AD78" t="s">
+      <c r="AF78" t="s">
+        <v>3039</v>
+      </c>
+      <c r="AG78" t="s">
         <v>3670</v>
       </c>
-      <c r="AE78" t="s">
-        <v>3039</v>
-      </c>
-      <c r="AF78" t="s">
-        <v>3040</v>
-      </c>
-      <c r="AG78" t="s">
-        <v>3671</v>
-      </c>
       <c r="AH78" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="AJ78" t="s">
         <v>881</v>
@@ -25742,90 +25739,90 @@
         <v>882</v>
       </c>
       <c r="AL78" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="AN78" t="s">
+        <v>3671</v>
+      </c>
+      <c r="AO78" t="s">
         <v>3672</v>
       </c>
-      <c r="AO78" t="s">
+      <c r="AP78" t="s">
         <v>3673</v>
       </c>
-      <c r="AP78" t="s">
+      <c r="AQ78" t="s">
         <v>3674</v>
       </c>
-      <c r="AQ78" t="s">
+      <c r="AR78" t="s">
+        <v>3040</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>3041</v>
+      </c>
+      <c r="AT78" t="s">
         <v>3675</v>
       </c>
-      <c r="AR78" t="s">
-        <v>3041</v>
-      </c>
-      <c r="AS78" t="s">
+      <c r="AU78" t="s">
+        <v>3676</v>
+      </c>
+      <c r="AV78" t="s">
         <v>3042</v>
       </c>
-      <c r="AT78" t="s">
-        <v>3676</v>
-      </c>
-      <c r="AU78" t="s">
+      <c r="AW78" t="s">
         <v>3677</v>
       </c>
-      <c r="AV78" t="s">
+      <c r="AX78" t="s">
         <v>3043</v>
       </c>
-      <c r="AW78" t="s">
+      <c r="AY78" t="s">
+        <v>3044</v>
+      </c>
+      <c r="AZ78" t="s">
         <v>3678</v>
       </c>
-      <c r="AX78" t="s">
-        <v>3044</v>
-      </c>
-      <c r="AY78" t="s">
+      <c r="BA78" t="s">
         <v>3045</v>
       </c>
-      <c r="AZ78" t="s">
+      <c r="BB78" t="s">
+        <v>3046</v>
+      </c>
+      <c r="BC78" t="s">
+        <v>3047</v>
+      </c>
+      <c r="BD78" t="s">
+        <v>3048</v>
+      </c>
+      <c r="BE78" t="s">
+        <v>3049</v>
+      </c>
+      <c r="BF78" t="s">
+        <v>3050</v>
+      </c>
+      <c r="BG78" t="s">
         <v>3679</v>
       </c>
-      <c r="BA78" t="s">
-        <v>3046</v>
-      </c>
-      <c r="BB78" t="s">
-        <v>3047</v>
-      </c>
-      <c r="BC78" t="s">
-        <v>3048</v>
-      </c>
-      <c r="BD78" t="s">
-        <v>3049</v>
-      </c>
-      <c r="BE78" t="s">
-        <v>3050</v>
-      </c>
-      <c r="BF78" t="s">
+      <c r="BH78" t="s">
         <v>3051</v>
       </c>
-      <c r="BG78" t="s">
+      <c r="BI78" t="s">
         <v>3680</v>
       </c>
-      <c r="BH78" t="s">
+      <c r="BJ78" t="s">
+        <v>3681</v>
+      </c>
+      <c r="BK78" t="s">
         <v>3052</v>
       </c>
-      <c r="BI78" t="s">
-        <v>3681</v>
-      </c>
-      <c r="BJ78" t="s">
-        <v>3682</v>
-      </c>
-      <c r="BK78" t="s">
+      <c r="BL78" t="s">
         <v>3053</v>
       </c>
-      <c r="BL78" t="s">
+      <c r="BM78" t="s">
         <v>3054</v>
-      </c>
-      <c r="BM78" t="s">
-        <v>3055</v>
       </c>
     </row>
     <row r="79" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="B79" t="s">
         <v>205</v>
@@ -25852,7 +25849,7 @@
         <v>2588</v>
       </c>
       <c r="J79" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="K79" t="s">
         <v>2590</v>
@@ -25864,16 +25861,16 @@
         <v>2592</v>
       </c>
       <c r="N79" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="O79" t="s">
         <v>2594</v>
       </c>
       <c r="P79" t="s">
+        <v>3057</v>
+      </c>
+      <c r="Q79" t="s">
         <v>3058</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>3059</v>
       </c>
       <c r="R79" t="s">
         <v>2593</v>
@@ -25888,10 +25885,10 @@
         <v>2597</v>
       </c>
       <c r="X79" t="s">
+        <v>3059</v>
+      </c>
+      <c r="Y79" t="s">
         <v>3060</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>3061</v>
       </c>
       <c r="Z79" t="s">
         <v>2598</v>
@@ -25984,7 +25981,7 @@
         <v>248</v>
       </c>
       <c r="BF79" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="BG79" t="s">
         <v>2619</v>
@@ -26010,97 +26007,97 @@
     </row>
     <row r="80" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B80" t="s">
         <v>3062</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>3063</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>3064</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>3065</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>3066</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>3067</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>3068</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>3069</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>3070</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>3071</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>3072</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>3073</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>3074</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>3075</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>3076</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>3077</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="R80" t="s">
         <v>3078</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
         <v>3079</v>
       </c>
-      <c r="S80" t="s">
+      <c r="V80" t="s">
         <v>3080</v>
       </c>
-      <c r="V80" t="s">
+      <c r="W80" t="s">
         <v>3081</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>3082</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>3083</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>3084</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>3085</v>
       </c>
-      <c r="AA80" t="s">
+      <c r="AB80" t="s">
         <v>3086</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AC80" t="s">
         <v>3087</v>
       </c>
-      <c r="AC80" t="s">
+      <c r="AD80" t="s">
         <v>3088</v>
       </c>
-      <c r="AD80" t="s">
+      <c r="AE80" t="s">
         <v>3089</v>
       </c>
-      <c r="AE80" t="s">
+      <c r="AF80" t="s">
         <v>3090</v>
       </c>
-      <c r="AF80" t="s">
+      <c r="AG80" t="s">
         <v>3091</v>
-      </c>
-      <c r="AG80" t="s">
-        <v>3092</v>
       </c>
       <c r="AH80" t="s">
         <v>1037</v>
@@ -26115,177 +26112,177 @@
         <v>1041</v>
       </c>
       <c r="AN80" t="s">
+        <v>3092</v>
+      </c>
+      <c r="AO80" t="s">
         <v>3093</v>
       </c>
-      <c r="AO80" t="s">
+      <c r="AP80" t="s">
         <v>3094</v>
       </c>
-      <c r="AP80" t="s">
+      <c r="AQ80" t="s">
         <v>3095</v>
       </c>
-      <c r="AQ80" t="s">
+      <c r="AR80" t="s">
         <v>3096</v>
       </c>
-      <c r="AR80" t="s">
+      <c r="AS80" t="s">
         <v>3097</v>
       </c>
-      <c r="AS80" t="s">
+      <c r="AT80" t="s">
         <v>3098</v>
       </c>
-      <c r="AT80" t="s">
+      <c r="AU80" t="s">
         <v>3099</v>
       </c>
-      <c r="AU80" t="s">
+      <c r="AV80" t="s">
         <v>3100</v>
       </c>
-      <c r="AV80" t="s">
+      <c r="AW80" t="s">
         <v>3101</v>
       </c>
-      <c r="AW80" t="s">
+      <c r="AX80" t="s">
         <v>3102</v>
       </c>
-      <c r="AX80" t="s">
+      <c r="AY80" t="s">
         <v>3103</v>
       </c>
-      <c r="AY80" t="s">
+      <c r="AZ80" t="s">
         <v>3104</v>
       </c>
-      <c r="AZ80" t="s">
+      <c r="BA80" t="s">
         <v>3105</v>
       </c>
-      <c r="BA80" t="s">
+      <c r="BB80" t="s">
         <v>3106</v>
       </c>
-      <c r="BB80" t="s">
+      <c r="BC80" t="s">
         <v>3107</v>
       </c>
-      <c r="BC80" t="s">
+      <c r="BD80" t="s">
         <v>3108</v>
       </c>
-      <c r="BD80" t="s">
+      <c r="BE80" t="s">
         <v>3109</v>
       </c>
-      <c r="BE80" t="s">
+      <c r="BF80" t="s">
         <v>3110</v>
       </c>
-      <c r="BF80" t="s">
+      <c r="BG80" t="s">
         <v>3111</v>
       </c>
-      <c r="BG80" t="s">
+      <c r="BH80" t="s">
         <v>3112</v>
       </c>
-      <c r="BH80" t="s">
+      <c r="BI80" t="s">
         <v>3113</v>
       </c>
-      <c r="BI80" t="s">
+      <c r="BJ80" t="s">
         <v>3114</v>
       </c>
-      <c r="BJ80" t="s">
+      <c r="BK80" t="s">
         <v>3115</v>
       </c>
-      <c r="BK80" t="s">
+      <c r="BL80" t="s">
         <v>3116</v>
       </c>
-      <c r="BL80" t="s">
+      <c r="BM80" t="s">
         <v>3117</v>
-      </c>
-      <c r="BM80" t="s">
-        <v>3118</v>
       </c>
     </row>
     <row r="81" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B81" t="s">
         <v>3119</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>3120</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>3121</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>3122</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>3123</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>3124</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>3125</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>3126</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>3127</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>3128</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>3129</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>3130</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>3131</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>3132</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>3133</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>3134</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>3135</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>3136</v>
       </c>
-      <c r="S81" t="s">
+      <c r="V81" t="s">
         <v>3137</v>
       </c>
-      <c r="V81" t="s">
+      <c r="W81" t="s">
         <v>3138</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>3139</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>3140</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>3141</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>3142</v>
       </c>
-      <c r="AA81" t="s">
+      <c r="AB81" t="s">
         <v>3143</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AC81" t="s">
         <v>3144</v>
       </c>
-      <c r="AC81" t="s">
+      <c r="AD81" t="s">
         <v>3145</v>
       </c>
-      <c r="AD81" t="s">
+      <c r="AE81" t="s">
         <v>3146</v>
       </c>
-      <c r="AE81" t="s">
+      <c r="AF81" t="s">
         <v>3147</v>
       </c>
-      <c r="AF81" t="s">
+      <c r="AG81" t="s">
         <v>3148</v>
-      </c>
-      <c r="AG81" t="s">
-        <v>3149</v>
       </c>
       <c r="AH81" t="s">
         <v>112</v>
@@ -26300,87 +26297,87 @@
         <v>116</v>
       </c>
       <c r="AN81" t="s">
+        <v>3149</v>
+      </c>
+      <c r="AO81" t="s">
         <v>3150</v>
       </c>
-      <c r="AO81" t="s">
+      <c r="AP81" t="s">
         <v>3151</v>
       </c>
-      <c r="AP81" t="s">
+      <c r="AQ81" t="s">
         <v>3152</v>
       </c>
-      <c r="AQ81" t="s">
+      <c r="AR81" t="s">
         <v>3153</v>
       </c>
-      <c r="AR81" t="s">
+      <c r="AS81" t="s">
         <v>3154</v>
       </c>
-      <c r="AS81" t="s">
+      <c r="AT81" t="s">
         <v>3155</v>
       </c>
-      <c r="AT81" t="s">
+      <c r="AU81" t="s">
         <v>3156</v>
       </c>
-      <c r="AU81" t="s">
+      <c r="AV81" t="s">
         <v>3157</v>
       </c>
-      <c r="AV81" t="s">
+      <c r="AW81" t="s">
         <v>3158</v>
       </c>
-      <c r="AW81" t="s">
+      <c r="AX81" t="s">
         <v>3159</v>
       </c>
-      <c r="AX81" t="s">
+      <c r="AY81" t="s">
         <v>3160</v>
       </c>
-      <c r="AY81" t="s">
+      <c r="AZ81" t="s">
         <v>3161</v>
       </c>
-      <c r="AZ81" t="s">
+      <c r="BA81" t="s">
         <v>3162</v>
       </c>
-      <c r="BA81" t="s">
+      <c r="BB81" t="s">
         <v>3163</v>
       </c>
-      <c r="BB81" t="s">
+      <c r="BC81" t="s">
         <v>3164</v>
       </c>
-      <c r="BC81" t="s">
+      <c r="BD81" t="s">
         <v>3165</v>
       </c>
-      <c r="BD81" t="s">
+      <c r="BE81" t="s">
         <v>3166</v>
       </c>
-      <c r="BE81" t="s">
+      <c r="BF81" t="s">
         <v>3167</v>
       </c>
-      <c r="BF81" t="s">
+      <c r="BG81" t="s">
         <v>3168</v>
       </c>
-      <c r="BG81" t="s">
+      <c r="BH81" t="s">
         <v>3169</v>
       </c>
-      <c r="BH81" t="s">
+      <c r="BI81" t="s">
         <v>3170</v>
       </c>
-      <c r="BI81" t="s">
+      <c r="BJ81" t="s">
         <v>3171</v>
       </c>
-      <c r="BJ81" t="s">
+      <c r="BK81" t="s">
         <v>3172</v>
       </c>
-      <c r="BK81" t="s">
+      <c r="BL81" t="s">
         <v>3173</v>
       </c>
-      <c r="BL81" t="s">
+      <c r="BM81" t="s">
         <v>3174</v>
-      </c>
-      <c r="BM81" t="s">
-        <v>3175</v>
       </c>
     </row>
     <row r="82" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="B82" t="s">
         <v>2696</v>
@@ -26407,10 +26404,10 @@
         <v>2703</v>
       </c>
       <c r="J82" t="s">
+        <v>3176</v>
+      </c>
+      <c r="K82" t="s">
         <v>3177</v>
-      </c>
-      <c r="K82" t="s">
-        <v>3178</v>
       </c>
       <c r="L82" t="s">
         <v>2706</v>
@@ -26419,16 +26416,16 @@
         <v>2707</v>
       </c>
       <c r="N82" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="O82" t="s">
         <v>2709</v>
       </c>
       <c r="P82" t="s">
+        <v>3179</v>
+      </c>
+      <c r="Q82" t="s">
         <v>3180</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>3181</v>
       </c>
       <c r="R82" t="s">
         <v>2710</v>
@@ -26443,10 +26440,10 @@
         <v>2713</v>
       </c>
       <c r="X82" t="s">
+        <v>3181</v>
+      </c>
+      <c r="Y82" t="s">
         <v>3182</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>3183</v>
       </c>
       <c r="Z82" t="s">
         <v>2714</v>
@@ -26503,7 +26500,7 @@
         <v>2727</v>
       </c>
       <c r="AT82" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="AU82" t="s">
         <v>2729</v>
@@ -26527,10 +26524,10 @@
         <v>2735</v>
       </c>
       <c r="BB82" t="s">
+        <v>3184</v>
+      </c>
+      <c r="BC82" t="s">
         <v>3185</v>
-      </c>
-      <c r="BC82" t="s">
-        <v>3186</v>
       </c>
       <c r="BD82" t="s">
         <v>2738</v>
@@ -26545,117 +26542,117 @@
         <v>2741</v>
       </c>
       <c r="BH82" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="BI82" t="s">
+        <v>2742</v>
+      </c>
+      <c r="BJ82" t="s">
         <v>2743</v>
       </c>
-      <c r="BJ82" t="s">
+      <c r="BK82" t="s">
         <v>2744</v>
       </c>
-      <c r="BK82" t="s">
+      <c r="BL82" t="s">
         <v>2745</v>
       </c>
-      <c r="BL82" t="s">
+      <c r="BM82" t="s">
         <v>2746</v>
-      </c>
-      <c r="BM82" t="s">
-        <v>2747</v>
       </c>
     </row>
     <row r="83" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B83" t="s">
         <v>3188</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>3189</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>3190</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>3191</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>3192</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>3193</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>3194</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>3195</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>3196</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>3197</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>3198</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>3199</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>3200</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>3201</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>3202</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>3203</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
         <v>3204</v>
       </c>
-      <c r="R83" t="s">
+      <c r="S83" t="s">
         <v>3205</v>
       </c>
-      <c r="S83" t="s">
+      <c r="V83" t="s">
         <v>3206</v>
       </c>
-      <c r="V83" t="s">
+      <c r="W83" t="s">
         <v>3207</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>3208</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>3209</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>3210</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>3211</v>
       </c>
-      <c r="AA83" t="s">
+      <c r="AB83" t="s">
         <v>3212</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AC83" t="s">
         <v>3213</v>
       </c>
-      <c r="AC83" t="s">
+      <c r="AD83" t="s">
         <v>3214</v>
       </c>
-      <c r="AD83" t="s">
+      <c r="AE83" t="s">
         <v>3215</v>
       </c>
-      <c r="AE83" t="s">
+      <c r="AF83" t="s">
         <v>3216</v>
       </c>
-      <c r="AF83" t="s">
+      <c r="AG83" t="s">
         <v>3217</v>
-      </c>
-      <c r="AG83" t="s">
-        <v>3218</v>
       </c>
       <c r="AH83" t="s">
         <v>1225</v>
@@ -26670,177 +26667,177 @@
         <v>1229</v>
       </c>
       <c r="AN83" t="s">
+        <v>3218</v>
+      </c>
+      <c r="AO83" t="s">
         <v>3219</v>
       </c>
-      <c r="AO83" t="s">
+      <c r="AP83" t="s">
         <v>3220</v>
       </c>
-      <c r="AP83" t="s">
+      <c r="AQ83" t="s">
         <v>3221</v>
       </c>
-      <c r="AQ83" t="s">
+      <c r="AR83" t="s">
         <v>3222</v>
       </c>
-      <c r="AR83" t="s">
+      <c r="AS83" t="s">
         <v>3223</v>
       </c>
-      <c r="AS83" t="s">
+      <c r="AT83" t="s">
         <v>3224</v>
       </c>
-      <c r="AT83" t="s">
+      <c r="AU83" t="s">
         <v>3225</v>
       </c>
-      <c r="AU83" t="s">
+      <c r="AV83" t="s">
         <v>3226</v>
       </c>
-      <c r="AV83" t="s">
+      <c r="AW83" t="s">
         <v>3227</v>
       </c>
-      <c r="AW83" t="s">
+      <c r="AX83" t="s">
         <v>3228</v>
       </c>
-      <c r="AX83" t="s">
+      <c r="AY83" t="s">
         <v>3229</v>
       </c>
-      <c r="AY83" t="s">
+      <c r="AZ83" t="s">
         <v>3230</v>
       </c>
-      <c r="AZ83" t="s">
+      <c r="BA83" t="s">
         <v>3231</v>
       </c>
-      <c r="BA83" t="s">
+      <c r="BB83" t="s">
         <v>3232</v>
       </c>
-      <c r="BB83" t="s">
+      <c r="BC83" t="s">
         <v>3233</v>
       </c>
-      <c r="BC83" t="s">
+      <c r="BD83" t="s">
         <v>3234</v>
       </c>
-      <c r="BD83" t="s">
+      <c r="BE83" t="s">
         <v>3235</v>
       </c>
-      <c r="BE83" t="s">
+      <c r="BF83" t="s">
         <v>3236</v>
       </c>
-      <c r="BF83" t="s">
+      <c r="BG83" t="s">
         <v>3237</v>
       </c>
-      <c r="BG83" t="s">
+      <c r="BH83" t="s">
         <v>3238</v>
       </c>
-      <c r="BH83" t="s">
+      <c r="BI83" t="s">
         <v>3239</v>
       </c>
-      <c r="BI83" t="s">
+      <c r="BJ83" t="s">
         <v>3240</v>
       </c>
-      <c r="BJ83" t="s">
+      <c r="BK83" t="s">
         <v>3241</v>
       </c>
-      <c r="BK83" t="s">
+      <c r="BL83" t="s">
         <v>3242</v>
       </c>
-      <c r="BL83" t="s">
+      <c r="BM83" t="s">
         <v>3243</v>
-      </c>
-      <c r="BM83" t="s">
-        <v>3244</v>
       </c>
     </row>
     <row r="84" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B84" t="s">
         <v>3245</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>3246</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>3247</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>3248</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>3249</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>3250</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>3251</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>3252</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>3253</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>3254</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>3255</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>3256</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>3257</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>3258</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>3259</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>3260</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>3261</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>3262</v>
       </c>
-      <c r="S84" t="s">
+      <c r="V84" t="s">
         <v>3263</v>
       </c>
-      <c r="V84" t="s">
+      <c r="W84" t="s">
         <v>3264</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>3265</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>3266</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>3267</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>3268</v>
       </c>
-      <c r="AA84" t="s">
+      <c r="AB84" t="s">
         <v>3269</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AC84" t="s">
         <v>3270</v>
       </c>
-      <c r="AC84" t="s">
+      <c r="AD84" t="s">
         <v>3271</v>
       </c>
-      <c r="AD84" t="s">
+      <c r="AE84" t="s">
         <v>3272</v>
       </c>
-      <c r="AE84" t="s">
+      <c r="AF84" t="s">
         <v>3273</v>
       </c>
-      <c r="AF84" t="s">
+      <c r="AG84" t="s">
         <v>3274</v>
-      </c>
-      <c r="AG84" t="s">
-        <v>3275</v>
       </c>
       <c r="AH84" t="s">
         <v>1289</v>
@@ -26855,180 +26852,180 @@
         <v>1293</v>
       </c>
       <c r="AN84" t="s">
+        <v>3275</v>
+      </c>
+      <c r="AO84" t="s">
         <v>3276</v>
       </c>
-      <c r="AO84" t="s">
+      <c r="AP84" t="s">
         <v>3277</v>
       </c>
-      <c r="AP84" t="s">
+      <c r="AQ84" t="s">
         <v>3278</v>
       </c>
-      <c r="AQ84" t="s">
+      <c r="AR84" t="s">
         <v>3279</v>
       </c>
-      <c r="AR84" t="s">
+      <c r="AS84" t="s">
         <v>3280</v>
       </c>
-      <c r="AS84" t="s">
+      <c r="AT84" t="s">
         <v>3281</v>
       </c>
-      <c r="AT84" t="s">
+      <c r="AU84" t="s">
         <v>3282</v>
       </c>
-      <c r="AU84" t="s">
+      <c r="AV84" t="s">
         <v>3283</v>
       </c>
-      <c r="AV84" t="s">
+      <c r="AW84" t="s">
         <v>3284</v>
       </c>
-      <c r="AW84" t="s">
+      <c r="AX84" t="s">
         <v>3285</v>
       </c>
-      <c r="AX84" t="s">
+      <c r="AY84" t="s">
         <v>3286</v>
       </c>
-      <c r="AY84" t="s">
+      <c r="AZ84" t="s">
         <v>3287</v>
       </c>
-      <c r="AZ84" t="s">
+      <c r="BA84" t="s">
         <v>3288</v>
       </c>
-      <c r="BA84" t="s">
+      <c r="BB84" t="s">
         <v>3289</v>
       </c>
-      <c r="BB84" t="s">
+      <c r="BC84" t="s">
         <v>3290</v>
       </c>
-      <c r="BC84" t="s">
+      <c r="BD84" t="s">
         <v>3291</v>
       </c>
-      <c r="BD84" t="s">
+      <c r="BE84" t="s">
         <v>3292</v>
       </c>
-      <c r="BE84" t="s">
+      <c r="BF84" t="s">
         <v>3293</v>
       </c>
-      <c r="BF84" t="s">
+      <c r="BG84" t="s">
         <v>3294</v>
       </c>
-      <c r="BG84" t="s">
+      <c r="BH84" t="s">
         <v>3295</v>
       </c>
-      <c r="BH84" t="s">
+      <c r="BI84" t="s">
         <v>3296</v>
       </c>
-      <c r="BI84" t="s">
+      <c r="BJ84" t="s">
         <v>3297</v>
       </c>
-      <c r="BJ84" t="s">
+      <c r="BK84" t="s">
         <v>3298</v>
       </c>
-      <c r="BK84" t="s">
+      <c r="BL84" t="s">
         <v>3299</v>
       </c>
-      <c r="BL84" t="s">
+      <c r="BM84" t="s">
         <v>3300</v>
-      </c>
-      <c r="BM84" t="s">
-        <v>3301</v>
       </c>
     </row>
     <row r="85" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B85" t="s">
         <v>3302</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>3303</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>3304</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>3305</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>3306</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>3307</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
+        <v>3751</v>
+      </c>
+      <c r="I85" t="s">
+        <v>3752</v>
+      </c>
+      <c r="J85" t="s">
         <v>3308</v>
       </c>
-      <c r="H85" t="s">
-        <v>3752</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="K85" t="s">
+        <v>3309</v>
+      </c>
+      <c r="L85" t="s">
+        <v>3310</v>
+      </c>
+      <c r="M85" t="s">
+        <v>3311</v>
+      </c>
+      <c r="N85" t="s">
+        <v>3312</v>
+      </c>
+      <c r="O85" t="s">
+        <v>3313</v>
+      </c>
+      <c r="P85" t="s">
+        <v>3314</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>3315</v>
+      </c>
+      <c r="R85" t="s">
+        <v>3316</v>
+      </c>
+      <c r="S85" t="s">
+        <v>3317</v>
+      </c>
+      <c r="V85" t="s">
         <v>3753</v>
       </c>
-      <c r="J85" t="s">
-        <v>3309</v>
-      </c>
-      <c r="K85" t="s">
-        <v>3310</v>
-      </c>
-      <c r="L85" t="s">
-        <v>3311</v>
-      </c>
-      <c r="M85" t="s">
-        <v>3312</v>
-      </c>
-      <c r="N85" t="s">
-        <v>3313</v>
-      </c>
-      <c r="O85" t="s">
-        <v>3314</v>
-      </c>
-      <c r="P85" t="s">
-        <v>3315</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>3316</v>
-      </c>
-      <c r="R85" t="s">
-        <v>3317</v>
-      </c>
-      <c r="S85" t="s">
+      <c r="W85" t="s">
+        <v>3754</v>
+      </c>
+      <c r="X85" t="s">
         <v>3318</v>
       </c>
-      <c r="V85" t="s">
-        <v>3754</v>
-      </c>
-      <c r="W85" t="s">
+      <c r="Y85" t="s">
+        <v>3319</v>
+      </c>
+      <c r="Z85" t="s">
         <v>3755</v>
       </c>
-      <c r="X85" t="s">
-        <v>3319</v>
-      </c>
-      <c r="Y85" t="s">
+      <c r="AA85" t="s">
         <v>3320</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AB85" t="s">
         <v>3756</v>
       </c>
-      <c r="AA85" t="s">
+      <c r="AC85" t="s">
         <v>3321</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AD85" t="s">
         <v>3757</v>
       </c>
-      <c r="AC85" t="s">
+      <c r="AE85" t="s">
         <v>3322</v>
       </c>
-      <c r="AD85" t="s">
+      <c r="AF85" t="s">
+        <v>3323</v>
+      </c>
+      <c r="AG85" t="s">
         <v>3758</v>
       </c>
-      <c r="AE85" t="s">
-        <v>3323</v>
-      </c>
-      <c r="AF85" t="s">
-        <v>3324</v>
-      </c>
-      <c r="AG85" t="s">
-        <v>3759</v>
-      </c>
       <c r="AH85" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="AJ85" t="s">
         <v>1347</v>
@@ -27037,155 +27034,155 @@
         <v>1348</v>
       </c>
       <c r="AL85" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="AN85" t="s">
+        <v>3759</v>
+      </c>
+      <c r="AO85" t="s">
         <v>3760</v>
       </c>
-      <c r="AO85" t="s">
+      <c r="AP85" t="s">
         <v>3761</v>
       </c>
-      <c r="AP85" t="s">
+      <c r="AQ85" t="s">
         <v>3762</v>
       </c>
-      <c r="AQ85" t="s">
+      <c r="AR85" t="s">
+        <v>3324</v>
+      </c>
+      <c r="AS85" t="s">
+        <v>3325</v>
+      </c>
+      <c r="AT85" t="s">
         <v>3763</v>
       </c>
-      <c r="AR85" t="s">
-        <v>3325</v>
-      </c>
-      <c r="AS85" t="s">
+      <c r="AU85" t="s">
+        <v>3764</v>
+      </c>
+      <c r="AV85" t="s">
         <v>3326</v>
       </c>
-      <c r="AT85" t="s">
-        <v>3764</v>
-      </c>
-      <c r="AU85" t="s">
+      <c r="AW85" t="s">
         <v>3765</v>
       </c>
-      <c r="AV85" t="s">
+      <c r="AX85" t="s">
         <v>3327</v>
       </c>
-      <c r="AW85" t="s">
+      <c r="AY85" t="s">
+        <v>3328</v>
+      </c>
+      <c r="AZ85" t="s">
         <v>3766</v>
       </c>
-      <c r="AX85" t="s">
-        <v>3328</v>
-      </c>
-      <c r="AY85" t="s">
+      <c r="BA85" t="s">
         <v>3329</v>
       </c>
-      <c r="AZ85" t="s">
+      <c r="BB85" t="s">
+        <v>3330</v>
+      </c>
+      <c r="BC85" t="s">
+        <v>3331</v>
+      </c>
+      <c r="BD85" t="s">
+        <v>3332</v>
+      </c>
+      <c r="BE85" t="s">
+        <v>3333</v>
+      </c>
+      <c r="BF85" t="s">
+        <v>3334</v>
+      </c>
+      <c r="BG85" t="s">
         <v>3767</v>
       </c>
-      <c r="BA85" t="s">
-        <v>3330</v>
-      </c>
-      <c r="BB85" t="s">
-        <v>3331</v>
-      </c>
-      <c r="BC85" t="s">
-        <v>3332</v>
-      </c>
-      <c r="BD85" t="s">
-        <v>3333</v>
-      </c>
-      <c r="BE85" t="s">
-        <v>3334</v>
-      </c>
-      <c r="BF85" t="s">
+      <c r="BH85" t="s">
         <v>3335</v>
       </c>
-      <c r="BG85" t="s">
+      <c r="BI85" t="s">
         <v>3768</v>
       </c>
-      <c r="BH85" t="s">
+      <c r="BJ85" t="s">
+        <v>3769</v>
+      </c>
+      <c r="BK85" t="s">
         <v>3336</v>
       </c>
-      <c r="BI85" t="s">
-        <v>3769</v>
-      </c>
-      <c r="BJ85" t="s">
-        <v>3770</v>
-      </c>
-      <c r="BK85" t="s">
+      <c r="BL85" t="s">
         <v>3337</v>
       </c>
-      <c r="BL85" t="s">
+      <c r="BM85" t="s">
         <v>3338</v>
-      </c>
-      <c r="BM85" t="s">
-        <v>3339</v>
       </c>
     </row>
     <row r="86" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B86" t="s">
         <v>3340</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>3341</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>3342</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>3343</v>
       </c>
-      <c r="E86" t="s">
+      <c r="H86" t="s">
         <v>3344</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>3345</v>
       </c>
-      <c r="I86" t="s">
+      <c r="N86" t="s">
         <v>3346</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>3347</v>
       </c>
-      <c r="O86" t="s">
+      <c r="V86" t="s">
         <v>3348</v>
       </c>
-      <c r="V86" t="s">
+      <c r="W86" t="s">
         <v>3349</v>
-      </c>
-      <c r="W86" t="s">
-        <v>3350</v>
       </c>
     </row>
     <row r="87" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B87" t="s">
         <v>3351</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>3352</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>3353</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>3354</v>
       </c>
-      <c r="E87" t="s">
+      <c r="H87" t="s">
         <v>3355</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>3356</v>
       </c>
-      <c r="I87" t="s">
+      <c r="L87" t="s">
         <v>3357</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>3358</v>
       </c>
-      <c r="M87" t="s">
+      <c r="V87" t="s">
         <v>3359</v>
       </c>
-      <c r="V87" t="s">
+      <c r="W87" t="s">
         <v>3360</v>
-      </c>
-      <c r="W87" t="s">
-        <v>3361</v>
       </c>
     </row>
   </sheetData>

--- a/paradigms/paradigms_excel/paradigms_trans.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans.xlsx
@@ -11738,8 +11738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AT59" workbookViewId="0">
-      <selection activeCell="BH72" sqref="BH72"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AV9" sqref="AV9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12972,7 +12972,7 @@
         <v>3363</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>3361</v>
+        <v>3372</v>
       </c>
       <c r="AW8" s="1" t="s">
         <v>3363</v>

--- a/paradigms/paradigms_excel/paradigms_trans.xlsx
+++ b/paradigms/paradigms_excel/paradigms_trans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding and data/ArmenianVerbs/paradigms/paradigms_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD96844-0D5D-744F-B8A0-375F05512932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04326E52-89EE-CA4C-B870-5E5FF45BB4B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1680" windowWidth="27760" windowHeight="14720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5257" uniqueCount="3904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5293" uniqueCount="3927">
   <si>
     <t>Class number</t>
   </si>
@@ -11740,13 +11740,82 @@
   </si>
   <si>
     <t>puʒvi</t>
+  </si>
+  <si>
+    <t>t͡ʃereweink</t>
+  </si>
+  <si>
+    <t>t͡ʃerewei</t>
+  </si>
+  <si>
+    <t>t͡ʃereweik</t>
+  </si>
+  <si>
+    <t>t͡ʃereweir</t>
+  </si>
+  <si>
+    <t>t͡ʃerewein</t>
+  </si>
+  <si>
+    <t>t͡ʃerewer</t>
+  </si>
+  <si>
+    <t>t͡ʃerewink</t>
+  </si>
+  <si>
+    <t>t͡ʃerewim</t>
+  </si>
+  <si>
+    <t>t͡ʃerewik</t>
+  </si>
+  <si>
+    <t>t͡ʃerewis</t>
+  </si>
+  <si>
+    <t>t͡ʃerewin</t>
+  </si>
+  <si>
+    <t>t͡ʃerewi</t>
+  </si>
+  <si>
+    <t>ereweink</t>
+  </si>
+  <si>
+    <t>erewei</t>
+  </si>
+  <si>
+    <t>ereweik</t>
+  </si>
+  <si>
+    <t>ereweir</t>
+  </si>
+  <si>
+    <t>erewein</t>
+  </si>
+  <si>
+    <t>erewink</t>
+  </si>
+  <si>
+    <t>erewim</t>
+  </si>
+  <si>
+    <t>erewik</t>
+  </si>
+  <si>
+    <t>erewis</t>
+  </si>
+  <si>
+    <t>erewin</t>
+  </si>
+  <si>
+    <t>erewi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -12060,13 +12129,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A62" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="AK74" sqref="AK74:AK85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:67">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12269,7 +12340,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:67">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -12328,7 +12399,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:67">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -12531,7 +12602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:67">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -12734,7 +12805,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="5" spans="1:67">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3321</v>
       </c>
@@ -12781,7 +12852,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:67">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -12984,7 +13055,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:67">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -13187,7 +13258,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:67">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -13390,7 +13461,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="9" spans="1:67">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -13569,7 +13640,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:67">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>254</v>
       </c>
@@ -13757,7 +13828,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:67">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>313</v>
       </c>
@@ -13942,7 +14013,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:67">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>367</v>
       </c>
@@ -14127,7 +14198,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:67">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>421</v>
       </c>
@@ -14312,7 +14383,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="14" spans="1:67">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>475</v>
       </c>
@@ -14497,7 +14568,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:67">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>502</v>
       </c>
@@ -14682,7 +14753,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="16" spans="1:67">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>556</v>
       </c>
@@ -14867,7 +14938,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="17" spans="1:67">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>610</v>
       </c>
@@ -15052,7 +15123,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:67">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>664</v>
       </c>
@@ -15237,7 +15308,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="19" spans="1:67">
+    <row r="19" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>716</v>
       </c>
@@ -15341,7 +15412,7 @@
         <v>3329</v>
       </c>
       <c r="AK19" t="s">
-        <v>739</v>
+        <v>1020</v>
       </c>
       <c r="AL19" t="s">
         <v>740</v>
@@ -15434,7 +15505,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="20" spans="1:67">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>758</v>
       </c>
@@ -15538,7 +15609,7 @@
         <v>3349</v>
       </c>
       <c r="AK20" t="s">
-        <v>781</v>
+        <v>1082</v>
       </c>
       <c r="AL20" t="s">
         <v>782</v>
@@ -15631,7 +15702,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="21" spans="1:67">
+    <row r="21" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>800</v>
       </c>
@@ -15735,7 +15806,7 @@
         <v>3369</v>
       </c>
       <c r="AK21" t="s">
-        <v>823</v>
+        <v>1142</v>
       </c>
       <c r="AL21" t="s">
         <v>824</v>
@@ -15828,7 +15899,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="22" spans="1:67">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>842</v>
       </c>
@@ -15932,7 +16003,7 @@
         <v>3389</v>
       </c>
       <c r="AK22" t="s">
-        <v>865</v>
+        <v>1205</v>
       </c>
       <c r="AL22" t="s">
         <v>866</v>
@@ -16025,7 +16096,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="23" spans="1:67">
+    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>884</v>
       </c>
@@ -16129,7 +16200,7 @@
         <v>3409</v>
       </c>
       <c r="AK23" t="s">
-        <v>907</v>
+        <v>1268</v>
       </c>
       <c r="AL23" t="s">
         <v>908</v>
@@ -16222,7 +16293,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="24" spans="1:67">
+    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>926</v>
       </c>
@@ -16326,7 +16397,7 @@
         <v>956</v>
       </c>
       <c r="AK24" t="s">
-        <v>957</v>
+        <v>1323</v>
       </c>
       <c r="AL24" t="s">
         <v>958</v>
@@ -16419,7 +16490,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="25" spans="1:67">
+    <row r="25" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>988</v>
       </c>
@@ -16526,7 +16597,7 @@
         <v>1019</v>
       </c>
       <c r="AK25" t="s">
-        <v>1020</v>
+        <v>739</v>
       </c>
       <c r="AL25" t="s">
         <v>1021</v>
@@ -16619,7 +16690,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="26" spans="1:67">
+    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1051</v>
       </c>
@@ -16726,7 +16797,7 @@
         <v>111</v>
       </c>
       <c r="AK26" t="s">
-        <v>1082</v>
+        <v>781</v>
       </c>
       <c r="AL26" t="s">
         <v>113</v>
@@ -16819,7 +16890,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="27" spans="1:67">
+    <row r="27" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1110</v>
       </c>
@@ -16926,7 +16997,7 @@
         <v>1141</v>
       </c>
       <c r="AK27" t="s">
-        <v>1142</v>
+        <v>823</v>
       </c>
       <c r="AL27" t="s">
         <v>1143</v>
@@ -17019,7 +17090,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="28" spans="1:67">
+    <row r="28" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1173</v>
       </c>
@@ -17126,7 +17197,7 @@
         <v>1204</v>
       </c>
       <c r="AK28" t="s">
-        <v>1205</v>
+        <v>865</v>
       </c>
       <c r="AL28" t="s">
         <v>1206</v>
@@ -17219,7 +17290,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="29" spans="1:67">
+    <row r="29" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1236</v>
       </c>
@@ -17326,7 +17397,7 @@
         <v>1267</v>
       </c>
       <c r="AK29" t="s">
-        <v>1268</v>
+        <v>907</v>
       </c>
       <c r="AL29" t="s">
         <v>1269</v>
@@ -17419,7 +17490,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="30" spans="1:67">
+    <row r="30" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1299</v>
       </c>
@@ -17526,7 +17597,7 @@
         <v>3656</v>
       </c>
       <c r="AK30" t="s">
-        <v>1323</v>
+        <v>957</v>
       </c>
       <c r="AL30" t="s">
         <v>1324</v>
@@ -17619,7 +17690,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="31" spans="1:67">
+    <row r="31" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1341</v>
       </c>
@@ -17807,7 +17878,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:67">
+    <row r="32" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1342</v>
       </c>
@@ -17995,7 +18066,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="1:67">
+    <row r="33" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1401</v>
       </c>
@@ -18180,7 +18251,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="34" spans="1:67">
+    <row r="34" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1455</v>
       </c>
@@ -18365,7 +18436,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="35" spans="1:67">
+    <row r="35" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1482</v>
       </c>
@@ -18550,7 +18621,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="36" spans="1:67">
+    <row r="36" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1536</v>
       </c>
@@ -18735,7 +18806,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="37" spans="1:67">
+    <row r="37" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1590</v>
       </c>
@@ -18920,7 +18991,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="38" spans="1:67">
+    <row r="38" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1644</v>
       </c>
@@ -19105,7 +19176,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="39" spans="1:67">
+    <row r="39" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1698</v>
       </c>
@@ -19199,6 +19270,9 @@
       <c r="AJ39" t="s">
         <v>1699</v>
       </c>
+      <c r="AK39" t="s">
+        <v>1699</v>
+      </c>
       <c r="AL39" t="s">
         <v>1700</v>
       </c>
@@ -19290,7 +19364,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="40" spans="1:67">
+    <row r="40" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1702</v>
       </c>
@@ -19384,6 +19458,9 @@
       <c r="AJ40" t="s">
         <v>1699</v>
       </c>
+      <c r="AK40" t="s">
+        <v>1699</v>
+      </c>
       <c r="AL40" t="s">
         <v>1703</v>
       </c>
@@ -19475,7 +19552,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="41" spans="1:67">
+    <row r="41" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1705</v>
       </c>
@@ -19569,6 +19646,9 @@
       <c r="AJ41" t="s">
         <v>1699</v>
       </c>
+      <c r="AK41" t="s">
+        <v>1699</v>
+      </c>
       <c r="AL41" t="s">
         <v>1706</v>
       </c>
@@ -19660,7 +19740,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="42" spans="1:67">
+    <row r="42" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1708</v>
       </c>
@@ -19754,6 +19834,9 @@
       <c r="AJ42" t="s">
         <v>1699</v>
       </c>
+      <c r="AK42" t="s">
+        <v>1699</v>
+      </c>
       <c r="AL42" t="s">
         <v>1709</v>
       </c>
@@ -19845,7 +19928,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="43" spans="1:67">
+    <row r="43" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1711</v>
       </c>
@@ -19939,6 +20022,9 @@
       <c r="AJ43" t="s">
         <v>1699</v>
       </c>
+      <c r="AK43" t="s">
+        <v>1699</v>
+      </c>
       <c r="AL43" t="s">
         <v>1712</v>
       </c>
@@ -20030,7 +20116,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="44" spans="1:67">
+    <row r="44" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1714</v>
       </c>
@@ -20124,6 +20210,9 @@
       <c r="AJ44" t="s">
         <v>1699</v>
       </c>
+      <c r="AK44" t="s">
+        <v>1699</v>
+      </c>
       <c r="AL44" t="s">
         <v>1715</v>
       </c>
@@ -20215,7 +20304,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="45" spans="1:67">
+    <row r="45" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1718</v>
       </c>
@@ -20315,6 +20404,9 @@
       <c r="AJ45" t="s">
         <v>1699</v>
       </c>
+      <c r="AK45" t="s">
+        <v>1699</v>
+      </c>
       <c r="AL45" t="s">
         <v>1719</v>
       </c>
@@ -20406,7 +20498,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="46" spans="1:67">
+    <row r="46" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1722</v>
       </c>
@@ -20506,6 +20598,9 @@
       <c r="AJ46" t="s">
         <v>1699</v>
       </c>
+      <c r="AK46" t="s">
+        <v>1699</v>
+      </c>
       <c r="AL46" t="s">
         <v>1723</v>
       </c>
@@ -20597,7 +20692,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="47" spans="1:67">
+    <row r="47" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1726</v>
       </c>
@@ -20697,6 +20792,9 @@
       <c r="AJ47" t="s">
         <v>1699</v>
       </c>
+      <c r="AK47" t="s">
+        <v>1699</v>
+      </c>
       <c r="AL47" t="s">
         <v>1727</v>
       </c>
@@ -20788,7 +20886,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="48" spans="1:67">
+    <row r="48" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1730</v>
       </c>
@@ -20888,6 +20986,9 @@
       <c r="AJ48" t="s">
         <v>1699</v>
       </c>
+      <c r="AK48" t="s">
+        <v>1699</v>
+      </c>
       <c r="AL48" t="s">
         <v>1731</v>
       </c>
@@ -20979,7 +21080,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="49" spans="1:67">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1734</v>
       </c>
@@ -21079,6 +21180,9 @@
       <c r="AJ49" t="s">
         <v>1699</v>
       </c>
+      <c r="AK49" t="s">
+        <v>1699</v>
+      </c>
       <c r="AL49" t="s">
         <v>1735</v>
       </c>
@@ -21170,7 +21274,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="50" spans="1:67">
+    <row r="50" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1738</v>
       </c>
@@ -21270,6 +21374,9 @@
       <c r="AJ50" t="s">
         <v>1699</v>
       </c>
+      <c r="AK50" t="s">
+        <v>1699</v>
+      </c>
       <c r="AL50" t="s">
         <v>1739</v>
       </c>
@@ -21361,7 +21468,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="51" spans="1:67">
+    <row r="51" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1741</v>
       </c>
@@ -21549,7 +21656,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="52" spans="1:67">
+    <row r="52" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1800</v>
       </c>
@@ -21734,7 +21841,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="53" spans="1:67">
+    <row r="53" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1854</v>
       </c>
@@ -21922,7 +22029,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="54" spans="1:67">
+    <row r="54" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1913</v>
       </c>
@@ -22101,7 +22208,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="55" spans="1:67">
+    <row r="55" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1965</v>
       </c>
@@ -22204,6 +22311,9 @@
       <c r="AJ55" t="s">
         <v>3435</v>
       </c>
+      <c r="AK55" t="s">
+        <v>3904</v>
+      </c>
       <c r="AL55" t="s">
         <v>1700</v>
       </c>
@@ -22292,7 +22402,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="56" spans="1:67">
+    <row r="56" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>2003</v>
       </c>
@@ -22395,6 +22505,9 @@
       <c r="AJ56" t="s">
         <v>3455</v>
       </c>
+      <c r="AK56" t="s">
+        <v>3905</v>
+      </c>
       <c r="AL56" t="s">
         <v>1703</v>
       </c>
@@ -22483,7 +22596,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="57" spans="1:67">
+    <row r="57" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2041</v>
       </c>
@@ -22586,6 +22699,9 @@
       <c r="AJ57" t="s">
         <v>3475</v>
       </c>
+      <c r="AK57" t="s">
+        <v>3906</v>
+      </c>
       <c r="AL57" t="s">
         <v>1706</v>
       </c>
@@ -22674,7 +22790,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="58" spans="1:67">
+    <row r="58" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2079</v>
       </c>
@@ -22777,6 +22893,9 @@
       <c r="AJ58" t="s">
         <v>3495</v>
       </c>
+      <c r="AK58" t="s">
+        <v>3907</v>
+      </c>
       <c r="AL58" t="s">
         <v>1709</v>
       </c>
@@ -22865,7 +22984,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="59" spans="1:67">
+    <row r="59" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>2117</v>
       </c>
@@ -22968,6 +23087,9 @@
       <c r="AJ59" t="s">
         <v>3515</v>
       </c>
+      <c r="AK59" t="s">
+        <v>3908</v>
+      </c>
       <c r="AL59" t="s">
         <v>1712</v>
       </c>
@@ -23056,7 +23178,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="60" spans="1:67">
+    <row r="60" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2155</v>
       </c>
@@ -23159,6 +23281,9 @@
       <c r="AJ60" t="s">
         <v>2185</v>
       </c>
+      <c r="AK60" t="s">
+        <v>3909</v>
+      </c>
       <c r="AL60" t="s">
         <v>1715</v>
       </c>
@@ -23247,7 +23372,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="61" spans="1:67">
+    <row r="61" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>2213</v>
       </c>
@@ -23350,6 +23475,9 @@
       <c r="AJ61" t="s">
         <v>2243</v>
       </c>
+      <c r="AK61" t="s">
+        <v>3910</v>
+      </c>
       <c r="AL61" t="s">
         <v>1719</v>
       </c>
@@ -23438,7 +23566,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="62" spans="1:67">
+    <row r="62" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>2271</v>
       </c>
@@ -23541,6 +23669,9 @@
       <c r="AJ62" t="s">
         <v>2301</v>
       </c>
+      <c r="AK62" t="s">
+        <v>3911</v>
+      </c>
       <c r="AL62" t="s">
         <v>1723</v>
       </c>
@@ -23629,7 +23760,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="63" spans="1:67">
+    <row r="63" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>2329</v>
       </c>
@@ -23732,6 +23863,9 @@
       <c r="AJ63" t="s">
         <v>2359</v>
       </c>
+      <c r="AK63" t="s">
+        <v>3912</v>
+      </c>
       <c r="AL63" t="s">
         <v>1727</v>
       </c>
@@ -23820,7 +23954,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="64" spans="1:67">
+    <row r="64" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2387</v>
       </c>
@@ -23923,6 +24057,9 @@
       <c r="AJ64" t="s">
         <v>2417</v>
       </c>
+      <c r="AK64" t="s">
+        <v>3913</v>
+      </c>
       <c r="AL64" t="s">
         <v>1731</v>
       </c>
@@ -24011,7 +24148,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="65" spans="1:67">
+    <row r="65" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2445</v>
       </c>
@@ -24114,6 +24251,9 @@
       <c r="AJ65" t="s">
         <v>2475</v>
       </c>
+      <c r="AK65" t="s">
+        <v>3914</v>
+      </c>
       <c r="AL65" t="s">
         <v>1735</v>
       </c>
@@ -24202,7 +24342,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="66" spans="1:67">
+    <row r="66" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2503</v>
       </c>
@@ -24305,6 +24445,9 @@
       <c r="AJ66" t="s">
         <v>3677</v>
       </c>
+      <c r="AK66" t="s">
+        <v>3915</v>
+      </c>
       <c r="AL66" t="s">
         <v>1739</v>
       </c>
@@ -24393,7 +24536,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="67" spans="1:67">
+    <row r="67" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>2541</v>
       </c>
@@ -24575,7 +24718,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="68" spans="1:67">
+    <row r="68" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2580</v>
       </c>
@@ -24760,7 +24903,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="69" spans="1:67">
+    <row r="69" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2634</v>
       </c>
@@ -24948,7 +25091,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="70" spans="1:67">
+    <row r="70" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2648</v>
       </c>
@@ -25115,7 +25258,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="71" spans="1:67">
+    <row r="71" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2699</v>
       </c>
@@ -25282,7 +25425,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="72" spans="1:67">
+    <row r="72" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2704</v>
       </c>
@@ -25470,7 +25613,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="73" spans="1:67">
+    <row r="73" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>2763</v>
       </c>
@@ -25649,7 +25792,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="74" spans="1:67">
+    <row r="74" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2815</v>
       </c>
@@ -25752,6 +25895,9 @@
       <c r="AJ74" t="s">
         <v>3329</v>
       </c>
+      <c r="AK74" t="s">
+        <v>3916</v>
+      </c>
       <c r="AL74" t="s">
         <v>740</v>
       </c>
@@ -25840,7 +25986,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="75" spans="1:67">
+    <row r="75" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>2852</v>
       </c>
@@ -25943,6 +26089,9 @@
       <c r="AJ75" t="s">
         <v>3349</v>
       </c>
+      <c r="AK75" t="s">
+        <v>3917</v>
+      </c>
       <c r="AL75" t="s">
         <v>782</v>
       </c>
@@ -26031,7 +26180,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="76" spans="1:67">
+    <row r="76" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2889</v>
       </c>
@@ -26134,6 +26283,9 @@
       <c r="AJ76" t="s">
         <v>3369</v>
       </c>
+      <c r="AK76" t="s">
+        <v>3918</v>
+      </c>
       <c r="AL76" t="s">
         <v>824</v>
       </c>
@@ -26222,7 +26374,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="77" spans="1:67">
+    <row r="77" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>2926</v>
       </c>
@@ -26325,6 +26477,9 @@
       <c r="AJ77" t="s">
         <v>3409</v>
       </c>
+      <c r="AK77" t="s">
+        <v>3919</v>
+      </c>
       <c r="AL77" t="s">
         <v>908</v>
       </c>
@@ -26413,7 +26568,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="78" spans="1:67">
+    <row r="78" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>2963</v>
       </c>
@@ -26516,6 +26671,9 @@
       <c r="AJ78" t="s">
         <v>3389</v>
       </c>
+      <c r="AK78" t="s">
+        <v>3920</v>
+      </c>
       <c r="AL78" t="s">
         <v>866</v>
       </c>
@@ -26604,7 +26762,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="79" spans="1:67">
+    <row r="79" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2963</v>
       </c>
@@ -26707,6 +26865,9 @@
       <c r="AJ79" t="s">
         <v>956</v>
       </c>
+      <c r="AK79" t="s">
+        <v>2561</v>
+      </c>
       <c r="AL79" t="s">
         <v>958</v>
       </c>
@@ -26795,7 +26956,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="80" spans="1:67">
+    <row r="80" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>3006</v>
       </c>
@@ -26898,6 +27059,9 @@
       <c r="AJ80" t="s">
         <v>1019</v>
       </c>
+      <c r="AK80" t="s">
+        <v>3921</v>
+      </c>
       <c r="AL80" t="s">
         <v>1021</v>
       </c>
@@ -26986,7 +27150,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="81" spans="1:67">
+    <row r="81" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>3062</v>
       </c>
@@ -27089,6 +27253,9 @@
       <c r="AJ81" t="s">
         <v>111</v>
       </c>
+      <c r="AK81" t="s">
+        <v>3922</v>
+      </c>
       <c r="AL81" t="s">
         <v>113</v>
       </c>
@@ -27177,7 +27344,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="82" spans="1:67">
+    <row r="82" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>3118</v>
       </c>
@@ -27280,6 +27447,9 @@
       <c r="AJ82" t="s">
         <v>1141</v>
       </c>
+      <c r="AK82" t="s">
+        <v>3923</v>
+      </c>
       <c r="AL82" t="s">
         <v>1143</v>
       </c>
@@ -27368,7 +27538,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="83" spans="1:67">
+    <row r="83" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>3130</v>
       </c>
@@ -27471,6 +27641,9 @@
       <c r="AJ83" t="s">
         <v>1204</v>
       </c>
+      <c r="AK83" t="s">
+        <v>3924</v>
+      </c>
       <c r="AL83" t="s">
         <v>1206</v>
       </c>
@@ -27559,7 +27732,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="84" spans="1:67">
+    <row r="84" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>3186</v>
       </c>
@@ -27662,6 +27835,9 @@
       <c r="AJ84" t="s">
         <v>1267</v>
       </c>
+      <c r="AK84" t="s">
+        <v>3925</v>
+      </c>
       <c r="AL84" t="s">
         <v>1269</v>
       </c>
@@ -27750,7 +27926,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="85" spans="1:67">
+    <row r="85" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>3242</v>
       </c>
@@ -27853,6 +28029,9 @@
       <c r="AJ85" t="s">
         <v>3656</v>
       </c>
+      <c r="AK85" t="s">
+        <v>3926</v>
+      </c>
       <c r="AL85" t="s">
         <v>1324</v>
       </c>
@@ -27941,7 +28120,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="86" spans="1:67">
+    <row r="86" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>3279</v>
       </c>
@@ -27976,7 +28155,7 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="87" spans="1:67">
+    <row r="87" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>3290</v>
       </c>
